--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -6219,10 +6219,10 @@
     <t>UI_Activity_List_SwimLap</t>
   </si>
   <si>
-    <t>Swim - Laps</t>
-  </si>
-  <si>
-    <t>Simmning - Etapper</t>
+    <t>Swim - Pool</t>
+  </si>
+  <si>
+    <t>Simmning - Bassäng</t>
   </si>
   <si>
     <t>UI_Activity_List_SWOLF</t>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4199" uniqueCount="3377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="3427">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6006,6 +6006,78 @@
   </si>
   <si>
     <t>Lägg till aktiviteter med referens kategori</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_AddTopCategory</t>
+  </si>
+  <si>
+    <t>Add Activities below {0}</t>
+  </si>
+  <si>
+    <t>Lägg till aktiviteter i {0}</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_SetRestLapsAsPauses</t>
+  </si>
+  <si>
+    <t>Set Rest Laps As Pauses</t>
+  </si>
+  <si>
+    <t>Hantera vilovarv som pauser</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_ShowOnlyMarkedResultsOnMap</t>
+  </si>
+  <si>
+    <t>Show Only Marked Results On Map</t>
+  </si>
+  <si>
+    <t>Visa enbart valda resultat på karta</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_ShowSplitPointsOnMap1</t>
+  </si>
+  <si>
+    <t>Show Split Points On Map</t>
+  </si>
+  <si>
+    <t>Visa etappunkter på karta</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_ResultSummaryStdDev</t>
+  </si>
+  <si>
+    <t>Summary Average Standard Deviation</t>
+  </si>
+  <si>
+    <t>Standardavvikelse för medel sammanfattning</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_UseDeviceDistance</t>
+  </si>
+  <si>
+    <t>Use Device Distance</t>
+  </si>
+  <si>
+    <t>Använd enhetens distans</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_ShowSummaryAverage</t>
+  </si>
+  <si>
+    <t>Summary Average</t>
+  </si>
+  <si>
+    <t>Medel sammanfattning</t>
+  </si>
+  <si>
+    <t>UI_Activity_List_ShowSummaryTotal</t>
+  </si>
+  <si>
+    <t>Summary Total</t>
+  </si>
+  <si>
+    <t>Totaler Sammanfattning</t>
   </si>
   <si>
     <t>UI_Activity_List_AddInBound</t>
@@ -6471,6 +6543,84 @@
   </si>
   <si>
     <t>Vill du uppdatera trail GPS punkter med de valda punkterna?</t>
+  </si>
+  <si>
+    <t>UI_Chart_AddChart</t>
+  </si>
+  <si>
+    <t>Add Chart</t>
+  </si>
+  <si>
+    <t>Lägg till diagram</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectChartsTitle</t>
+  </si>
+  <si>
+    <t>Chart Details</t>
+  </si>
+  <si>
+    <t>Diagramdetaljer</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectedCharts</t>
+  </si>
+  <si>
+    <t>Selected Charts</t>
+  </si>
+  <si>
+    <t>Valda diagram</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectMoreCharts</t>
+  </si>
+  <si>
+    <t>Select More Charts...</t>
+  </si>
+  <si>
+    <t>Fler diagram...</t>
+  </si>
+  <si>
+    <t>UI_Chart_AddGraph</t>
+  </si>
+  <si>
+    <t>Add Graph</t>
+  </si>
+  <si>
+    <t>Lägg till graf</t>
+  </si>
+  <si>
+    <t>UI_Chart_Difference</t>
+  </si>
+  <si>
+    <t>Differens</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectedGraphs</t>
+  </si>
+  <si>
+    <t>Selected Graphs</t>
+  </si>
+  <si>
+    <t>Valda grafer</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectGraphsTitle</t>
+  </si>
+  <si>
+    <t>Graph Details</t>
+  </si>
+  <si>
+    <t>Grafdetaljer</t>
+  </si>
+  <si>
+    <t>UI_Chart_SelectMoreGraphs</t>
+  </si>
+  <si>
+    <t>Select More Graphs...</t>
+  </si>
+  <si>
+    <t>Fler grafer...</t>
   </si>
   <si>
     <t>UI_Chart_adjustResyncDiffAtTrailPoints</t>
@@ -18611,47 +18761,33 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>1993</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>1994</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="19"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="J40" s="14" t="s">
         <v>1995</v>
       </c>
-      <c r="G40" s="4" t="s">
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
         <v>1996</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>1997</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="J41" s="14" t="s">
         <v>1998</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="42">
@@ -18661,1121 +18797,1363 @@
       <c r="B42" s="5" t="s">
         <v>2000</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="19" t="s">
-        <v>2001</v>
-      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="J42" s="5" t="s">
-        <v>2002</v>
+      <c r="J42" s="14" t="s">
+        <v>2001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>2003</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="19"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="J43" s="5" t="s">
-        <v>2005</v>
+      <c r="J43" s="14" t="s">
+        <v>2004</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>2006</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="19"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="J44" s="5" t="s">
-        <v>2008</v>
+      <c r="J44" s="14" t="s">
+        <v>2007</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>2009</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="19" t="s">
-        <v>81</v>
-      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="19"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="J45" s="5" t="s">
-        <v>79</v>
+      <c r="J45" s="14" t="s">
+        <v>2010</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2011</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+        <v>2012</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="19"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="J46" s="5" t="s">
-        <v>2012</v>
+      <c r="J46" s="14" t="s">
+        <v>2013</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>2013</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>2014</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>2015</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="J47" s="14" t="s">
         <v>2016</v>
       </c>
-      <c r="G47" s="4" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="19" t="s">
         <v>2017</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>2018</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="19" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>2020</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>2021</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="19" t="s">
+      <c r="J48" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="J48" s="14" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
         <v>2023</v>
       </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>2024</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="E50" s="4"/>
+      <c r="F50" s="19" t="s">
         <v>2025</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="J49" s="14" t="s">
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="J50" s="5" t="s">
         <v>2026</v>
       </c>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E50" s="4" t="s">
+    <row r="51">
+      <c r="A51" s="5" t="s">
         <v>2027</v>
       </c>
-      <c r="F50" s="19" t="s">
+      <c r="B51" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="J51" s="5" t="s">
         <v>2029</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="1" t="s">
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>2031</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E52" s="4"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="J52" s="5" t="s">
         <v>2032</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="4" t="s">
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
         <v>2033</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="B53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="J53" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
         <v>2034</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="B54" s="5" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="1" t="s">
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="J54" s="5" t="s">
         <v>2036</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
         <v>2037</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="19" t="s">
+      <c r="B55" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>2039</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>2040</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="G55" s="4" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="1" t="s">
+      <c r="H55" s="4" t="s">
         <v>2042</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>2043</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>2045</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>2046</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>2047</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="1" t="s">
-        <v>2049</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>2050</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>2052</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>2053</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>2054</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="5" t="s">
-        <v>2056</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>2057</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="J55" s="14" t="s">
-        <v>2058</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>2059</v>
+        <v>2044</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2060</v>
+        <v>2045</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="19" t="s">
+        <v>2046</v>
+      </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="J56" s="14" t="s">
-        <v>2061</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>2062</v>
+        <v>2048</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2063</v>
+        <v>2049</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="J57" s="14" t="s">
-        <v>2064</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" s="5" t="s">
-        <v>2065</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>2066</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="J58" s="32" t="s">
-        <v>438</v>
+      <c r="A58" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>2052</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>2053</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="19" t="s">
+        <v>2062</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>2067</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="E61" s="4" t="s">
         <v>2068</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="F61" s="5" t="s">
         <v>2069</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>2070</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H61" s="4" t="s">
         <v>2071</v>
       </c>
-      <c r="H59" s="4" t="s">
+      <c r="J61" s="11" t="s">
         <v>2072</v>
       </c>
-      <c r="J59" s="11" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2078</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" hidden="1" customHeight="1"/>
+    </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>2078</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" s="5" t="s">
         <v>2080</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>2081</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E63" s="4"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="J63" s="14" t="s">
         <v>2082</v>
       </c>
-      <c r="F62" s="14" t="s">
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="5" t="s">
         <v>2083</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="B64" s="5" t="s">
         <v>2084</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="E64" s="4"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="J64" s="14" t="s">
         <v>2085</v>
       </c>
-      <c r="J62" s="11" t="s">
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" s="5" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="63" ht="49.5" hidden="1" customHeight="1"/>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>2087</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>2088</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>2090</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>2091</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>2092</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="5" t="s">
-        <v>2094</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>2095</v>
-      </c>
       <c r="E65" s="4"/>
-      <c r="F65" s="5" t="s">
-        <v>2096</v>
-      </c>
+      <c r="F65" s="5"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="J65" s="5" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="66" ht="25.5" customHeight="1">
-      <c r="A66" s="1" t="s">
-        <v>2098</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>2099</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>2100</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>2101</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>2103</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>2104</v>
+      <c r="J65" s="14" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="J66" s="32" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" hidden="1" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>2106</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="F70" s="14" t="s">
         <v>2107</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>2108</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>2109</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="J70" s="11" t="s">
         <v>2110</v>
       </c>
-      <c r="J67" s="11" t="s">
+    </row>
+    <row r="71" ht="49.5" hidden="1" customHeight="1"/>
+    <row r="72">
+      <c r="A72" s="1" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>2113</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="F72" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>2115</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>2116</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="J72" s="1" t="s">
         <v>2117</v>
       </c>
-      <c r="J68" s="11" t="s">
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="A69" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="E73" s="4"/>
+      <c r="F73" s="5" t="s">
         <v>2120</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="J73" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="F69" s="5" t="s">
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>2124</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="F74" s="5" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="70" ht="84.75" customHeight="1">
-      <c r="A70" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>2126</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="H74" s="4" t="s">
         <v>2127</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>2128</v>
       </c>
-      <c r="F70" s="33" t="s">
+    </row>
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>2130</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>2131</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="F75" s="5" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="71" ht="44.25" hidden="1" customHeight="1"/>
-    <row r="72" ht="1.5" customHeight="1">
-      <c r="A72" s="1" t="s">
+      <c r="G75" s="4" t="s">
         <v>2133</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="H75" s="4" t="s">
         <v>2134</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="J75" s="11" t="s">
         <v>2135</v>
       </c>
-      <c r="F72" s="14" t="s">
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>2136</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="B76" s="1" t="s">
         <v>2137</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>2138</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="F76" s="5" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>2140</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>2141</v>
       </c>
-      <c r="F73" s="19" t="s">
+      <c r="J76" s="11" t="s">
         <v>2142</v>
       </c>
-      <c r="J73" s="4" t="s">
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="E77" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="14" t="s">
+      <c r="F77" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="J74" s="14" t="s">
+      <c r="G77" s="4" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="1" t="s">
+      <c r="H77" s="4" t="s">
         <v>2148</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>2149</v>
       </c>
-      <c r="E75" s="13" t="s">
+    </row>
+    <row r="78" ht="84.75" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="B78" s="11" t="s">
         <v>2151</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13" t="s">
+      <c r="E78" s="11" t="s">
         <v>2152</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="F78" s="33" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="5" t="s">
+      <c r="G78" s="4" t="s">
         <v>2154</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="H78" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="79" ht="44.25" hidden="1" customHeight="1"/>
+    <row r="80" ht="1.5" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>2158</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" customHeight="1">
+      <c r="A81" s="19" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="J81" s="19" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="19" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>2168</v>
+      </c>
+      <c r="F82" s="19"/>
+      <c r="J82" s="19" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" customHeight="1">
+      <c r="A83" s="19" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F83" s="19"/>
+      <c r="J83" s="19" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" customHeight="1">
+      <c r="A84" s="19" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F84" s="19"/>
+      <c r="J84" s="19" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" customHeight="1">
+      <c r="A85" s="19" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F85" s="19"/>
+      <c r="J85" s="19" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" customHeight="1">
+      <c r="A86" s="19" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="19"/>
+      <c r="J86" s="19" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" customHeight="1">
+      <c r="A87" s="19" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="J87" s="19" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" customHeight="1">
+      <c r="A88" s="19" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F88" s="19"/>
+      <c r="J88" s="19" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1">
+      <c r="A89" s="19" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F89" s="19"/>
+      <c r="J89" s="19" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" customHeight="1">
+      <c r="A90" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F90" s="19" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>2195</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G91" s="12"/>
+      <c r="H91" s="13"/>
+      <c r="J91" s="14" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>1394</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="5" t="s">
-        <v>2155</v>
-      </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="J76" s="14" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>2157</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="5" t="s">
-        <v>2159</v>
-      </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="J77" s="14" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>2161</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E78" s="4"/>
-      <c r="F78" s="5" t="s">
-        <v>2163</v>
-      </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="J78" s="14" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="1" t="s">
-        <v>2165</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>2166</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>2168</v>
-      </c>
-      <c r="G79" s="12"/>
-      <c r="H79" s="13" t="s">
-        <v>2169</v>
-      </c>
-      <c r="J79" s="11" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" s="5" t="s">
-        <v>2171</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>2172</v>
-      </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="5" t="s">
-        <v>2173</v>
-      </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="J80" s="14" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="5" t="s">
-        <v>2175</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>2176</v>
-      </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="5" t="s">
-        <v>2177</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="J81" s="14" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>2179</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>2180</v>
-      </c>
-      <c r="E82" s="19"/>
-      <c r="F82" s="5" t="s">
-        <v>2181</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="J82" s="14" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>2183</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>2184</v>
-      </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19" t="s">
-        <v>2185</v>
-      </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="J83" s="14" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>2186</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>2187</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="19" t="s">
-        <v>2188</v>
-      </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="J84" s="5" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>2190</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>2191</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>2193</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>2195</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="86" ht="1.5" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>2197</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>2198</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>2199</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>2200</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>2201</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>2202</v>
-      </c>
-      <c r="J86" s="11" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>2204</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="E93" s="4"/>
+      <c r="F93" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="34" t="s">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="J93" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="J87" s="5" t="s">
+    </row>
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="5" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" customHeight="1">
-      <c r="A88" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="E94" s="4"/>
+      <c r="F94" s="5" t="s">
         <v>2209</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="34" t="s">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="J94" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="J88" s="5" t="s">
+    </row>
+    <row r="95" ht="18.75" customHeight="1">
+      <c r="A95" s="5" t="s">
         <v>2211</v>
       </c>
-    </row>
-    <row r="89" ht="13.5" customHeight="1">
-      <c r="A89" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>2212</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="E95" s="4"/>
+      <c r="F95" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="34" t="s">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="J95" s="14" t="s">
         <v>2214</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="J89" s="5" t="s">
+    </row>
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="90" ht="13.5" customHeight="1">
-      <c r="A90" s="5" t="s">
+      <c r="B96" s="11" t="s">
         <v>2216</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="E96" s="13" t="s">
         <v>2217</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="34" t="s">
+      <c r="F96" s="14" t="s">
         <v>2218</v>
       </c>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="J90" s="30" t="s">
+      <c r="G96" s="12"/>
+      <c r="H96" s="13" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>2222</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="J97" s="14" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E98" s="19"/>
+      <c r="F98" s="5" t="s">
+        <v>2227</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="J98" s="14" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E99" s="19"/>
+      <c r="F99" s="5" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="J99" s="14" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="J100" s="14" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="F101" s="19" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="J101" s="5" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="102" ht="18.75" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="103" ht="1.5" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>2248</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="104" ht="13.5" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="34" t="s">
+        <v>2256</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="J104" s="5" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="34" t="s">
+        <v>2260</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="J105" s="5" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="106" ht="13.5" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="34" t="s">
+        <v>2264</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="J106" s="5" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="107" ht="13.5" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>2267</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="34" t="s">
+        <v>2268</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="J107" s="30" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="91" ht="13.5" customHeight="1">
-      <c r="A91" s="1" t="s">
+    <row r="108" ht="13.5" customHeight="1">
+      <c r="A108" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B91" s="11" t="s">
-        <v>2219</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="B108" s="11" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>2220</v>
-      </c>
-      <c r="F91" s="34" t="s">
-        <v>2221</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>2222</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>2223</v>
-      </c>
-      <c r="J91" s="1" t="s">
+      <c r="E108" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="16" t="s">
+    <row r="109">
+      <c r="A109" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="B92" s="30" t="s">
-        <v>2224</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="B109" s="30" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="17" t="s">
+      <c r="D109" s="18"/>
+      <c r="E109" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F109" s="35" t="s">
         <v>1410</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>2225</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>2226</v>
-      </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="30" t="s">
+      <c r="G109" s="17" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="I109" s="18"/>
+      <c r="J109" s="30" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+    <row r="110">
+      <c r="A110" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>2227</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>2228</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>2229</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>2230</v>
-      </c>
-      <c r="J93" s="1" t="s">
+      <c r="E110" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>2224</v>
-      </c>
-      <c r="F94" s="19" t="s">
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="J94" s="32" t="s">
+      <c r="J111" s="32" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="4" t="s">
+    <row r="113">
+      <c r="A113" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="s">
+      <c r="F113" s="4" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="G97" s="4" t="s">
+      <c r="G114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I97" s="4" t="s">
+      <c r="I114" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="J97" s="4" t="s">
+      <c r="J114" s="4" t="s">
         <v>1571</v>
       </c>
     </row>
-    <row r="98" hidden="1"/>
-    <row r="99" hidden="1">
-      <c r="A99" s="1" t="s">
-        <v>2233</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>2234</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>2236</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>2237</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>2238</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>2239</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="100" hidden="1">
-      <c r="A100" s="1" t="s">
-        <v>2241</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>2235</v>
-      </c>
-      <c r="E100" s="11" t="s">
-        <v>2243</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>2244</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>2245</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>2246</v>
-      </c>
-      <c r="J100" s="11" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="101" hidden="1">
-      <c r="A101" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>2249</v>
-      </c>
-      <c r="C101" s="1" t="s">
+    <row r="115" hidden="1"/>
+    <row r="116" hidden="1">
+      <c r="A116" s="1" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="117" hidden="1">
+      <c r="A117" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>2294</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>2295</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="118" hidden="1">
+      <c r="A118" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="33" t="s">
-        <v>2250</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>2251</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>2252</v>
-      </c>
-      <c r="J101" s="11" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="194">
-      <c r="E194" s="36"/>
-      <c r="G194" s="36"/>
-      <c r="H194" s="36"/>
-      <c r="I194" s="36"/>
-    </row>
-    <row r="197" ht="20.25" customHeight="1"/>
-    <row r="198">
-      <c r="E198" s="8"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="33" t="s">
+        <v>2300</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="211">
+      <c r="E211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="36"/>
+      <c r="I211" s="36"/>
+    </row>
+    <row r="214" ht="20.25" customHeight="1"/>
+    <row r="215">
+      <c r="E215" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A97:J97">
+  <conditionalFormatting sqref="A114:J114">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A97))=0</formula>
+      <formula>LEN(TRIM(A114))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G94 H6:H9 I6:I94 J6:J83 H11:H94 J85:J94">
+  <conditionalFormatting sqref="D6:G111 H6:H9 I6:I111 J6:J100 H11:H111 J102:J111">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -19846,7 +20224,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2254</v>
+        <v>2304</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -19872,20 +20250,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2255</v>
+        <v>2305</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2255</v>
+        <v>2305</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2255</v>
+        <v>2305</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2255</v>
+        <v>2305</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -19897,464 +20275,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2256</v>
+        <v>2306</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2257</v>
+        <v>2307</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2258</v>
+        <v>2308</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2259</v>
+        <v>2309</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2260</v>
+        <v>2310</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2261</v>
+        <v>2311</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2262</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2263</v>
+        <v>2313</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2264</v>
+        <v>2314</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2265</v>
+        <v>2315</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2266</v>
+        <v>2316</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2267</v>
+        <v>2317</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2268</v>
+        <v>2318</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2269</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2270</v>
+        <v>2320</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2271</v>
+        <v>2321</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2272</v>
+        <v>2322</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2273</v>
+        <v>2323</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2274</v>
+        <v>2324</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2275</v>
+        <v>2325</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2276</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2277</v>
+        <v>2327</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2278</v>
+        <v>2328</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2279</v>
+        <v>2329</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2281</v>
+        <v>2331</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2282</v>
+        <v>2332</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2283</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2284</v>
+        <v>2334</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2285</v>
+        <v>2335</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2286</v>
+        <v>2336</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2287</v>
+        <v>2337</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2288</v>
+        <v>2338</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2289</v>
+        <v>2339</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2290</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2291</v>
+        <v>2341</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2292</v>
+        <v>2342</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2293</v>
+        <v>2343</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2294</v>
+        <v>2344</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2295</v>
+        <v>2345</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2296</v>
+        <v>2346</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2297</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2298</v>
+        <v>2348</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2299</v>
+        <v>2349</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2300</v>
+        <v>2350</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2301</v>
+        <v>2351</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2302</v>
+        <v>2352</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2303</v>
+        <v>2353</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2304</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2305</v>
+        <v>2355</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2306</v>
+        <v>2356</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2307</v>
+        <v>2357</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2308</v>
+        <v>2358</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2309</v>
+        <v>2359</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2310</v>
+        <v>2360</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2311</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2312</v>
+        <v>2362</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2313</v>
+        <v>2363</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2314</v>
+        <v>2364</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2315</v>
+        <v>2365</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2316</v>
+        <v>2366</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2317</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2318</v>
+        <v>2368</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2319</v>
+        <v>2369</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2320</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2321</v>
+        <v>2371</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2322</v>
+        <v>2372</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1885</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2323</v>
+        <v>2373</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2324</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2325</v>
+        <v>2375</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2326</v>
+        <v>2376</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2327</v>
+        <v>2377</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2328</v>
+        <v>2378</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2329</v>
+        <v>2379</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2330</v>
+        <v>2380</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2331</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2332</v>
+        <v>2382</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2333</v>
+        <v>2383</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2334</v>
+        <v>2384</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2335</v>
+        <v>2385</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2336</v>
+        <v>2386</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2337</v>
+        <v>2387</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2338</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2339</v>
+        <v>2389</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2341</v>
+        <v>2391</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2342</v>
+        <v>2392</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2343</v>
+        <v>2393</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2344</v>
+        <v>2394</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2345</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2346</v>
+        <v>2396</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2347</v>
+        <v>2397</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2348</v>
+        <v>2398</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2349</v>
+        <v>2399</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2350</v>
+        <v>2400</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2351</v>
+        <v>2401</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2352</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2353</v>
+        <v>2403</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2354</v>
+        <v>2404</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2355</v>
+        <v>2405</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2356</v>
+        <v>2406</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2357</v>
+        <v>2407</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2358</v>
+        <v>2408</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2359</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2360</v>
+        <v>2410</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2361</v>
+        <v>2411</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2362</v>
+        <v>2412</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2363</v>
+        <v>2413</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2364</v>
+        <v>2414</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2365</v>
+        <v>2415</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2366</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2367</v>
+        <v>2417</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2368</v>
+        <v>2418</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2369</v>
+        <v>2419</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2371</v>
+        <v>2421</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2372</v>
+        <v>2422</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2373</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2374</v>
+        <v>2424</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2375</v>
+        <v>2425</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2376</v>
+        <v>2426</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2377</v>
+        <v>2427</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2378</v>
+        <v>2428</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2379</v>
+        <v>2429</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2380</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2381</v>
+        <v>2431</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2382</v>
+        <v>2432</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2383</v>
+        <v>2433</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2384</v>
+        <v>2434</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2385</v>
+        <v>2435</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2386</v>
+        <v>2436</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2387</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2388</v>
+        <v>2438</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -20377,160 +20755,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2389</v>
+        <v>2439</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2390</v>
+        <v>2440</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2391</v>
+        <v>2441</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2390</v>
+        <v>2440</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2392</v>
+        <v>2442</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2393</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2394</v>
+        <v>2444</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2395</v>
+        <v>2445</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2396</v>
+        <v>2446</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2397</v>
+        <v>2447</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2398</v>
+        <v>2448</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2399</v>
+        <v>2449</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2400</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2401</v>
+        <v>2451</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2402</v>
+        <v>2452</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2403</v>
+        <v>2453</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2404</v>
+        <v>2454</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2405</v>
+        <v>2455</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2406</v>
+        <v>2456</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2407</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2408</v>
+        <v>2458</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2409</v>
+        <v>2459</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2410</v>
+        <v>2460</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2411</v>
+        <v>2461</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2412</v>
+        <v>2462</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2413</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2414</v>
+        <v>2464</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2415</v>
+        <v>2465</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2416</v>
+        <v>2466</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2417</v>
+        <v>2467</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2418</v>
+        <v>2468</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2407</v>
+        <v>2457</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2419</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2420</v>
+        <v>2470</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2421</v>
+        <v>2471</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2422</v>
+        <v>2472</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2423</v>
+        <v>2473</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2424</v>
+        <v>2474</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2425</v>
+        <v>2475</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2426</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2427</v>
+        <v>2477</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2428</v>
+        <v>2478</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2429</v>
+        <v>2479</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2430</v>
+        <v>2480</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2431</v>
+        <v>2481</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2432</v>
+        <v>2482</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -20538,41 +20916,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2433</v>
+        <v>2483</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2434</v>
+        <v>2484</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2435</v>
+        <v>2485</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2436</v>
+        <v>2486</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2437</v>
+        <v>2487</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2438</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2439</v>
+        <v>2489</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2440</v>
+        <v>2490</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2441</v>
+        <v>2491</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2442</v>
+        <v>2492</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2443</v>
+        <v>2493</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -20584,16 +20962,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2444</v>
+        <v>2494</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2445</v>
+        <v>2495</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2446</v>
+        <v>2496</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -20601,68 +20979,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2447</v>
+        <v>2497</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2448</v>
+        <v>2498</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2449</v>
+        <v>2499</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2450</v>
+        <v>2500</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2451</v>
+        <v>2501</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2452</v>
+        <v>2502</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2453</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2454</v>
+        <v>2504</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2455</v>
+        <v>2505</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2456</v>
+        <v>2506</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2457</v>
+        <v>2507</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2458</v>
+        <v>2508</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2459</v>
+        <v>2509</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2460</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2461</v>
+        <v>2511</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2462</v>
+        <v>2512</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2463</v>
+        <v>2513</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2464</v>
+        <v>2514</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2462</v>
+        <v>2512</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2465</v>
+        <v>2515</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -20673,25 +21051,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2466</v>
+        <v>2516</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2467</v>
+        <v>2517</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2468</v>
+        <v>2518</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2469</v>
+        <v>2519</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2470</v>
+        <v>2520</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2471</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="42">
@@ -20705,16 +21083,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2472</v>
+        <v>2522</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2473</v>
+        <v>2523</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2474</v>
+        <v>2524</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2475</v>
+        <v>2525</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -20722,7 +21100,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2476</v>
+        <v>2526</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -20745,25 +21123,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2477</v>
+        <v>2527</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2478</v>
+        <v>2528</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2479</v>
+        <v>2529</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2481</v>
+        <v>2531</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2482</v>
+        <v>2532</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2483</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="45">
@@ -20774,42 +21152,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2484</v>
+        <v>2534</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2485</v>
+        <v>2535</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2486</v>
+        <v>2536</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2487</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2488</v>
+        <v>2538</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2489</v>
+        <v>2539</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2490</v>
+        <v>2540</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2491</v>
+        <v>2541</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2492</v>
+        <v>2542</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2493</v>
+        <v>2543</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2494</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="47">
@@ -20820,13 +21198,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2495</v>
+        <v>2545</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2496</v>
+        <v>2546</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -20846,10 +21224,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2497</v>
+        <v>2547</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2498</v>
+        <v>2548</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -20860,103 +21238,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2499</v>
+        <v>2549</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2500</v>
+        <v>2550</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2501</v>
+        <v>2551</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2502</v>
+        <v>2552</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2503</v>
+        <v>2553</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2504</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2505</v>
+        <v>2555</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2506</v>
+        <v>2556</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2507</v>
+        <v>2557</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2508</v>
+        <v>2558</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2509</v>
+        <v>2559</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2510</v>
+        <v>2560</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2511</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2512</v>
+        <v>2562</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2513</v>
+        <v>2563</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2514</v>
+        <v>2564</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2515</v>
+        <v>2565</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2516</v>
+        <v>2566</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2517</v>
+        <v>2567</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2518</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2519</v>
+        <v>2569</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2520</v>
+        <v>2570</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2521</v>
+        <v>2571</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2522</v>
+        <v>2572</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2523</v>
+        <v>2573</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2524</v>
+        <v>2574</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2525</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2526</v>
+        <v>2576</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2527</v>
+        <v>2577</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2528</v>
+        <v>2578</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -20978,121 +21356,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2529</v>
+        <v>2579</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2530</v>
+        <v>2580</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2531</v>
+        <v>2581</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2532</v>
+        <v>2582</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2533</v>
+        <v>2583</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2534</v>
+        <v>2584</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2535</v>
+        <v>2585</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2536</v>
+        <v>2586</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2537</v>
+        <v>2587</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2538</v>
+        <v>2588</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2539</v>
+        <v>2589</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2540</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2541</v>
+        <v>2591</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2542</v>
+        <v>2592</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2543</v>
+        <v>2593</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2544</v>
+        <v>2594</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2545</v>
+        <v>2595</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2546</v>
+        <v>2596</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2547</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2548</v>
+        <v>2598</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2549</v>
+        <v>2599</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2551</v>
+        <v>2601</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2552</v>
+        <v>2602</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2553</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2554</v>
+        <v>2604</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2555</v>
+        <v>2605</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2556</v>
+        <v>2606</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2557</v>
+        <v>2607</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2558</v>
+        <v>2608</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2559</v>
+        <v>2609</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2560</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2561</v>
+        <v>2611</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2562</v>
+        <v>2612</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21101,7 +21479,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2563</v>
+        <v>2613</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21109,45 +21487,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2564</v>
+        <v>2614</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2565</v>
+        <v>2615</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2566</v>
+        <v>2616</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2567</v>
+        <v>2617</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2568</v>
+        <v>2618</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>2569</v>
+        <v>2619</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>2565</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2570</v>
+        <v>2620</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2571</v>
+        <v>2621</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2572</v>
+        <v>2622</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2573</v>
+        <v>2623</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2574</v>
+        <v>2624</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21155,140 +21533,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2575</v>
+        <v>2625</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2576</v>
+        <v>2626</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2576</v>
+        <v>2626</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2577</v>
+        <v>2627</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2578</v>
+        <v>2628</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2579</v>
+        <v>2629</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>2576</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2580</v>
+        <v>2630</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2581</v>
+        <v>2631</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2582</v>
+        <v>2632</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2583</v>
+        <v>2633</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2584</v>
+        <v>2634</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2585</v>
+        <v>2635</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2586</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2587</v>
+        <v>2637</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2588</v>
+        <v>2638</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2589</v>
+        <v>2639</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2590</v>
+        <v>2640</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2591</v>
+        <v>2641</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2592</v>
+        <v>2642</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2593</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2594</v>
+        <v>2644</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2595</v>
+        <v>2645</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2595</v>
+        <v>2645</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2596</v>
+        <v>2646</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2597</v>
+        <v>2647</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2598</v>
+        <v>2648</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2595</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2599</v>
+        <v>2649</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2600</v>
+        <v>2650</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2601</v>
+        <v>2651</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2602</v>
+        <v>2652</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2603</v>
+        <v>2653</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2604</v>
+        <v>2654</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2605</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2606</v>
+        <v>2656</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2606</v>
+        <v>2656</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2606</v>
+        <v>2656</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2607</v>
+        <v>2657</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2608</v>
+        <v>2658</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2609</v>
+        <v>2659</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2610</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="68">
@@ -21296,68 +21674,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2611</v>
+        <v>2661</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2612</v>
+        <v>2662</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2613</v>
+        <v>2663</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2614</v>
+        <v>2664</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2615</v>
+        <v>2665</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2616</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2617</v>
+        <v>2667</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2618</v>
+        <v>2668</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2619</v>
+        <v>2669</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2620</v>
+        <v>2670</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2621</v>
+        <v>2671</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2622</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2623</v>
+        <v>2673</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2624</v>
+        <v>2674</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2625</v>
+        <v>2675</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2626</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2627</v>
+        <v>2677</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2628</v>
+        <v>2678</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -21380,170 +21758,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2629</v>
+        <v>2679</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2630</v>
+        <v>2680</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2631</v>
+        <v>2681</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2632</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2633</v>
+        <v>2683</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2634</v>
+        <v>2684</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2635</v>
+        <v>2685</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2636</v>
+        <v>2686</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2637</v>
+        <v>2687</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2638</v>
+        <v>2688</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2639</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2640</v>
+        <v>2690</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2641</v>
+        <v>2691</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2642</v>
+        <v>2692</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2643</v>
+        <v>2693</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2644</v>
+        <v>2694</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2645</v>
+        <v>2695</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2646</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2647</v>
+        <v>2697</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2648</v>
+        <v>2698</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2649</v>
+        <v>2699</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2651</v>
+        <v>2701</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2652</v>
+        <v>2702</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2653</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2654</v>
+        <v>2704</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2655</v>
+        <v>2705</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2656</v>
+        <v>2706</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2657</v>
+        <v>2707</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2658</v>
+        <v>2708</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2659</v>
+        <v>2709</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2660</v>
+        <v>2710</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2661</v>
+        <v>2711</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2662</v>
+        <v>2712</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2663</v>
+        <v>2713</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2664</v>
+        <v>2714</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2665</v>
+        <v>2715</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2666</v>
+        <v>2716</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2667</v>
+        <v>2717</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2668</v>
+        <v>2718</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2669</v>
+        <v>2719</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2670</v>
+        <v>2720</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2671</v>
+        <v>2721</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2672</v>
+        <v>2722</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2673</v>
+        <v>2723</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2674</v>
+        <v>2724</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2675</v>
+        <v>2725</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2676</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="80">
@@ -21557,16 +21935,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2220</v>
+        <v>2270</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2677</v>
+        <v>2727</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2678</v>
+        <v>2728</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -21611,16 +21989,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2679</v>
+        <v>2729</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2680</v>
+        <v>2730</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2681</v>
+        <v>2731</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -21628,10 +22006,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2682</v>
+        <v>2732</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2683</v>
+        <v>2733</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -21657,10 +22035,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2684</v>
+        <v>2734</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2685</v>
+        <v>2735</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -21669,7 +22047,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2686</v>
+        <v>2736</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -21714,24 +22092,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2687</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2688</v>
+        <v>2738</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2689</v>
+        <v>2739</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2690</v>
+        <v>2740</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2691</v>
+        <v>2741</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2653</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -21788,7 +22166,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2692</v>
+        <v>2742</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -21812,7 +22190,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2693</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -21822,62 +22200,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2694</v>
+        <v>2744</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2695</v>
+        <v>2745</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2697</v>
+        <v>2747</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2698</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>2699</v>
+        <v>2749</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2700</v>
+        <v>2750</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2701</v>
+        <v>2751</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2702</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2703</v>
+        <v>2753</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2704</v>
+        <v>2754</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2705</v>
+        <v>2755</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2706</v>
+        <v>2756</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2707</v>
+        <v>2757</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2708</v>
+        <v>2758</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2709</v>
+        <v>2759</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2710</v>
+        <v>2760</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -21893,18 +22271,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2711</v>
+        <v>2761</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2712</v>
+        <v>2762</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2713</v>
+        <v>2763</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -21916,54 +22294,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2714</v>
+        <v>2764</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2715</v>
+        <v>2765</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2716</v>
+        <v>2766</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2717</v>
+        <v>2767</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2718</v>
+        <v>2768</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2719</v>
+        <v>2769</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2721</v>
+        <v>2771</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2722</v>
+        <v>2772</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2723</v>
+        <v>2773</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2724</v>
+        <v>2774</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2725</v>
+        <v>2775</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2726</v>
+        <v>2776</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -21976,31 +22354,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2727</v>
+        <v>2777</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2728</v>
+        <v>2778</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2729</v>
+        <v>2779</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2730</v>
+        <v>2780</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2731</v>
+        <v>2781</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2732</v>
+        <v>2782</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2733</v>
+        <v>2783</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2734</v>
+        <v>2784</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22013,31 +22391,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2735</v>
+        <v>2785</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2737</v>
+        <v>2787</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2736</v>
+        <v>2786</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22050,31 +22428,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2738</v>
+        <v>2788</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2739</v>
+        <v>2789</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2740</v>
+        <v>2790</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2741</v>
+        <v>2791</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2742</v>
+        <v>2792</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2743</v>
+        <v>2793</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2744</v>
+        <v>2794</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2745</v>
+        <v>2795</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22087,31 +22465,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2746</v>
+        <v>2796</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2747</v>
+        <v>2797</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2748</v>
+        <v>2798</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2749</v>
+        <v>2799</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2751</v>
+        <v>2801</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2752</v>
+        <v>2802</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2753</v>
+        <v>2803</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22124,100 +22502,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2754</v>
+        <v>2804</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2755</v>
+        <v>2805</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2756</v>
+        <v>2806</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2757</v>
+        <v>2807</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2758</v>
+        <v>2808</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2759</v>
+        <v>2809</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2760</v>
+        <v>2810</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2761</v>
+        <v>2811</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2762</v>
+        <v>2812</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2763</v>
+        <v>2813</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2764</v>
+        <v>2814</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2765</v>
+        <v>2815</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2766</v>
+        <v>2816</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2767</v>
+        <v>2817</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2768</v>
+        <v>2818</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2769</v>
+        <v>2819</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2770</v>
+        <v>2820</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>2771</v>
+        <v>2821</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>2772</v>
+        <v>2822</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>2768</v>
+        <v>2818</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22230,123 +22608,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2773</v>
+        <v>2823</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2774</v>
+        <v>2824</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2775</v>
+        <v>2825</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2776</v>
+        <v>2826</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2777</v>
+        <v>2827</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2778</v>
+        <v>2828</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2779</v>
+        <v>2829</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2780</v>
+        <v>2830</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2781</v>
+        <v>2831</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2782</v>
+        <v>2832</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2783</v>
+        <v>2833</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2784</v>
+        <v>2834</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2785</v>
+        <v>2835</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2786</v>
+        <v>2836</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2787</v>
+        <v>2837</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2786</v>
+        <v>2836</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2788</v>
+        <v>2838</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2789</v>
+        <v>2839</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2790</v>
+        <v>2840</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2791</v>
+        <v>2841</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2792</v>
+        <v>2842</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2793</v>
+        <v>2843</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2794</v>
+        <v>2844</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2795</v>
+        <v>2845</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -22359,192 +22737,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2796</v>
+        <v>2846</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2797</v>
+        <v>2847</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2798</v>
+        <v>2848</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2799</v>
+        <v>2849</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2800</v>
+        <v>2850</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2801</v>
+        <v>2851</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2802</v>
+        <v>2852</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2803</v>
+        <v>2853</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2804</v>
+        <v>2854</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2805</v>
+        <v>2855</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2806</v>
+        <v>2856</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2807</v>
+        <v>2857</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2808</v>
+        <v>2858</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2809</v>
+        <v>2859</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2810</v>
+        <v>2860</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2811</v>
+        <v>2861</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2812</v>
+        <v>2862</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2813</v>
+        <v>2863</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2814</v>
+        <v>2864</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2815</v>
+        <v>2865</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2816</v>
+        <v>2866</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2817</v>
+        <v>2867</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2818</v>
+        <v>2868</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2819</v>
+        <v>2869</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2820</v>
+        <v>2870</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2821</v>
+        <v>2871</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2822</v>
+        <v>2872</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2823</v>
+        <v>2873</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2824</v>
+        <v>2874</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2825</v>
+        <v>2875</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2826</v>
+        <v>2876</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2827</v>
+        <v>2877</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2828</v>
+        <v>2878</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2829</v>
+        <v>2879</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2830</v>
+        <v>2880</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2831</v>
+        <v>2881</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -22557,31 +22935,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2832</v>
+        <v>2882</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2833</v>
+        <v>2883</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2834</v>
+        <v>2884</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2835</v>
+        <v>2885</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2836</v>
+        <v>2886</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2837</v>
+        <v>2887</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2838</v>
+        <v>2888</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2839</v>
+        <v>2889</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -22594,31 +22972,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2840</v>
+        <v>2890</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2842</v>
+        <v>2892</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2841</v>
+        <v>2891</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -22631,54 +23009,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2843</v>
+        <v>2893</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2844</v>
+        <v>2894</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2845</v>
+        <v>2895</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2846</v>
+        <v>2896</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2847</v>
+        <v>2897</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2848</v>
+        <v>2898</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2849</v>
+        <v>2899</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2850</v>
+        <v>2900</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2851</v>
+        <v>2901</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2852</v>
+        <v>2902</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2853</v>
+        <v>2903</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2854</v>
+        <v>2904</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -22691,28 +23069,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2855</v>
+        <v>2905</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2856</v>
+        <v>2906</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2705</v>
+        <v>2755</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2857</v>
+        <v>2907</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2858</v>
+        <v>2908</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2859</v>
+        <v>2909</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2858</v>
+        <v>2908</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2860</v>
+        <v>2910</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -22728,31 +23106,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2861</v>
+        <v>2911</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2862</v>
+        <v>2912</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2863</v>
+        <v>2913</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2864</v>
+        <v>2914</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2865</v>
+        <v>2915</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2866</v>
+        <v>2916</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2867</v>
+        <v>2917</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2868</v>
+        <v>2918</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -22765,31 +23143,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2869</v>
+        <v>2919</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2870</v>
+        <v>2920</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2870</v>
+        <v>2920</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2871</v>
+        <v>2921</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2870</v>
+        <v>2920</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2870</v>
+        <v>2920</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2872</v>
+        <v>2922</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -22802,31 +23180,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2873</v>
+        <v>2923</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2874</v>
+        <v>2924</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2705</v>
+        <v>2755</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2875</v>
+        <v>2925</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2876</v>
+        <v>2926</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2877</v>
+        <v>2927</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2878</v>
+        <v>2928</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2879</v>
+        <v>2929</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -22839,28 +23217,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2881</v>
+        <v>2931</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2882</v>
+        <v>2932</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2883</v>
+        <v>2933</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2884</v>
+        <v>2934</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2885</v>
+        <v>2935</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2886</v>
+        <v>2936</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2887</v>
+        <v>2937</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2888</v>
+        <v>2938</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -22873,31 +23251,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2889</v>
+        <v>2939</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2890</v>
+        <v>2940</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2235</v>
+        <v>2285</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2891</v>
+        <v>2941</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2892</v>
+        <v>2942</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2893</v>
+        <v>2943</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2894</v>
+        <v>2944</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2895</v>
+        <v>2945</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2896</v>
+        <v>2946</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -22910,54 +23288,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2897</v>
+        <v>2947</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2898</v>
+        <v>2948</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2899</v>
+        <v>2949</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2900</v>
+        <v>2950</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2901</v>
+        <v>2951</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2705</v>
+        <v>2755</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2902</v>
+        <v>2952</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2903</v>
+        <v>2953</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2904</v>
+        <v>2954</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2905</v>
+        <v>2955</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2906</v>
+        <v>2956</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -22970,82 +23348,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2907</v>
+        <v>2957</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2908</v>
+        <v>2958</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2908</v>
+        <v>2958</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2909</v>
+        <v>2959</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2910</v>
+        <v>2960</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2911</v>
+        <v>2961</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>2912</v>
+        <v>2962</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>2913</v>
+        <v>2963</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>2914</v>
+        <v>2964</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>2915</v>
+        <v>2965</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>2916</v>
+        <v>2966</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>2917</v>
+        <v>2967</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>2918</v>
+        <v>2968</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>2919</v>
+        <v>2969</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23053,38 +23431,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>2920</v>
+        <v>2970</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>2921</v>
+        <v>2971</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>2922</v>
+        <v>2972</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>2923</v>
+        <v>2973</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>2924</v>
+        <v>2974</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>2925</v>
+        <v>2975</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>2926</v>
+        <v>2976</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>2922</v>
+        <v>2972</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>2927</v>
+        <v>2977</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23097,100 +23475,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>2928</v>
+        <v>2978</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>2929</v>
+        <v>2979</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>2930</v>
+        <v>2980</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>2931</v>
+        <v>2981</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>2932</v>
+        <v>2982</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>2933</v>
+        <v>2983</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>2934</v>
+        <v>2984</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>2935</v>
+        <v>2985</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>2936</v>
+        <v>2986</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2937</v>
+        <v>2987</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>2938</v>
+        <v>2988</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>2939</v>
+        <v>2989</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>2940</v>
+        <v>2990</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2941</v>
+        <v>2991</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>2942</v>
+        <v>2992</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>2943</v>
+        <v>2993</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>2944</v>
+        <v>2994</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>2945</v>
+        <v>2995</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>2946</v>
+        <v>2996</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>2947</v>
+        <v>2997</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23203,31 +23581,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>2948</v>
+        <v>2998</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2949</v>
+        <v>2999</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>2949</v>
+        <v>2999</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>2950</v>
+        <v>3000</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>2949</v>
+        <v>2999</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>2951</v>
+        <v>3001</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>2949</v>
+        <v>2999</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>2949</v>
+        <v>2999</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23240,31 +23618,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>2952</v>
+        <v>3002</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2953</v>
+        <v>3003</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>2953</v>
+        <v>3003</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>2953</v>
+        <v>3003</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>2953</v>
+        <v>3003</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2953</v>
+        <v>3003</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2954</v>
+        <v>3004</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>2955</v>
+        <v>3005</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23277,100 +23655,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>2956</v>
+        <v>3006</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2957</v>
+        <v>3007</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>2958</v>
+        <v>3008</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>2959</v>
+        <v>3009</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>2960</v>
+        <v>3010</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>2961</v>
+        <v>3011</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>2962</v>
+        <v>3012</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>2963</v>
+        <v>3013</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>2964</v>
+        <v>3014</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>2965</v>
+        <v>3015</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>2966</v>
+        <v>3016</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2967</v>
+        <v>3017</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2968</v>
+        <v>3018</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>2969</v>
+        <v>3019</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>2970</v>
+        <v>3020</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>2971</v>
+        <v>3021</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2972</v>
+        <v>3022</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>2973</v>
+        <v>3023</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>2974</v>
+        <v>3024</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>2975</v>
+        <v>3025</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>2976</v>
+        <v>3026</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>2972</v>
+        <v>3022</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>2977</v>
+        <v>3027</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -23383,123 +23761,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>2978</v>
+        <v>3028</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2979</v>
+        <v>3029</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>2980</v>
+        <v>3030</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>2981</v>
+        <v>3031</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>2982</v>
+        <v>3032</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2983</v>
+        <v>3033</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>2984</v>
+        <v>3034</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>2985</v>
+        <v>3035</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>2986</v>
+        <v>3036</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2987</v>
+        <v>3037</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>2988</v>
+        <v>3038</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>2989</v>
+        <v>3039</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>2990</v>
+        <v>3040</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2991</v>
+        <v>3041</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>2992</v>
+        <v>3042</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>2993</v>
+        <v>3043</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>2994</v>
+        <v>3044</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>2995</v>
+        <v>3045</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>2996</v>
+        <v>3046</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>2997</v>
+        <v>3047</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>2998</v>
+        <v>3048</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -23512,31 +23890,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>2999</v>
+        <v>3049</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3000</v>
+        <v>3050</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3001</v>
+        <v>3051</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3002</v>
+        <v>3052</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3003</v>
+        <v>3053</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>3004</v>
+        <v>3054</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>3001</v>
+        <v>3051</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>3001</v>
+        <v>3051</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -23549,60 +23927,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3005</v>
+        <v>3055</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3006</v>
+        <v>3056</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3006</v>
+        <v>3056</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3007</v>
+        <v>3057</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3006</v>
+        <v>3056</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3007</v>
+        <v>3057</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3006</v>
+        <v>3056</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3008</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3009</v>
+        <v>3059</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3010</v>
+        <v>3060</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3011</v>
+        <v>3061</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3012</v>
+        <v>3062</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3013</v>
+        <v>3063</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>3010</v>
+        <v>3060</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>3014</v>
+        <v>3064</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3015</v>
+        <v>3065</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -23615,18 +23993,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3016</v>
+        <v>3066</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3017</v>
+        <v>3067</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3018</v>
+        <v>3068</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -23638,19 +24016,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3019</v>
+        <v>3069</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3020</v>
+        <v>3070</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -23662,7 +24040,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3021</v>
+        <v>3071</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -23675,31 +24053,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3022</v>
+        <v>3072</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3023</v>
+        <v>3073</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3024</v>
+        <v>3074</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3025</v>
+        <v>3075</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3026</v>
+        <v>3076</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3027</v>
+        <v>3077</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3028</v>
+        <v>3078</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3029</v>
+        <v>3079</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -23712,16 +24090,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3030</v>
+        <v>3080</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3031</v>
+        <v>3081</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -23736,7 +24114,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3031</v>
+        <v>3081</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -23749,51 +24127,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3032</v>
+        <v>3082</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3033</v>
+        <v>3083</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2696</v>
+        <v>2746</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3034</v>
+        <v>3084</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3035</v>
+        <v>3085</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3036</v>
+        <v>3086</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3037</v>
+        <v>3087</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3038</v>
+        <v>3088</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3037</v>
+        <v>3087</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3037</v>
+        <v>3087</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3037</v>
+        <v>3087</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3039</v>
+        <v>3089</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -23853,10 +24231,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3040</v>
+        <v>3090</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -23869,13 +24247,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3041</v>
+        <v>3091</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3042</v>
+        <v>3092</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -23888,13 +24266,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3043</v>
+        <v>3093</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3044</v>
+        <v>3094</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -23907,28 +24285,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3045</v>
+        <v>3095</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3046</v>
+        <v>3096</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3047</v>
+        <v>3097</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3048</v>
+        <v>3098</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3049</v>
+        <v>3099</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3050</v>
+        <v>3100</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3051</v>
+        <v>3101</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -23942,25 +24320,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3052</v>
+        <v>3102</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3053</v>
+        <v>3103</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3054</v>
+        <v>3104</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3055</v>
+        <v>3105</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3056</v>
+        <v>3106</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3057</v>
+        <v>3107</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -23974,36 +24352,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3058</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3059</v>
+        <v>3109</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3060</v>
+        <v>3110</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3061</v>
+        <v>3111</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3062</v>
+        <v>3112</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3063</v>
+        <v>3113</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3064</v>
+        <v>3114</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3065</v>
+        <v>3115</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3066</v>
+        <v>3116</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24016,31 +24394,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2840</v>
+        <v>2890</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3067</v>
+        <v>3117</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3068</v>
+        <v>3118</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3069</v>
+        <v>3119</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3070</v>
+        <v>3120</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3071</v>
+        <v>3121</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2905</v>
+        <v>2955</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3072</v>
+        <v>3122</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24053,25 +24431,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2901</v>
+        <v>2951</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3073</v>
+        <v>3123</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2720</v>
+        <v>2770</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2902</v>
+        <v>2952</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2903</v>
+        <v>2953</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2904</v>
+        <v>2954</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3074</v>
+        <v>3124</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24152,7 +24530,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3075</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24163,54 +24541,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3076</v>
+        <v>3126</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3077</v>
+        <v>3127</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>3079</v>
+        <v>3129</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3080</v>
+        <v>3130</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3081</v>
+        <v>3131</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3082</v>
+        <v>3132</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3083</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3084</v>
+        <v>3134</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3085</v>
+        <v>3135</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>3086</v>
+        <v>3136</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3087</v>
+        <v>3137</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3088</v>
+        <v>3138</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3089</v>
+        <v>3139</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3090</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24218,39 +24596,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3091</v>
+        <v>3141</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3092</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3093</v>
+        <v>3143</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3094</v>
+        <v>3144</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24263,771 +24641,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>3095</v>
+        <v>3145</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3096</v>
+        <v>3146</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>3097</v>
+        <v>3147</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>3098</v>
+        <v>3148</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3099</v>
+        <v>3149</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>3100</v>
+        <v>3150</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>3101</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3102</v>
+        <v>3152</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3103</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3104</v>
+        <v>3154</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3105</v>
+        <v>3155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>3106</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3107</v>
+        <v>3157</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3105</v>
+        <v>3155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3106</v>
+        <v>3156</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3108</v>
+        <v>3158</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>3109</v>
+        <v>3159</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>3110</v>
+        <v>3160</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>3111</v>
+        <v>3161</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>3112</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3113</v>
+        <v>3163</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3114</v>
+        <v>3164</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>3115</v>
+        <v>3165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>3116</v>
+        <v>3166</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>3117</v>
+        <v>3167</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>3118</v>
+        <v>3168</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3119</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3120</v>
+        <v>3170</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3121</v>
+        <v>3171</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>3122</v>
+        <v>3172</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>3123</v>
+        <v>3173</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3124</v>
+        <v>3174</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3125</v>
+        <v>3175</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3126</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>3127</v>
+        <v>3177</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3121</v>
+        <v>3171</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3122</v>
+        <v>3172</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3123</v>
+        <v>3173</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>3124</v>
+        <v>3174</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>3125</v>
+        <v>3175</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>3126</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3128</v>
+        <v>3178</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3129</v>
+        <v>3179</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>3130</v>
+        <v>3180</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3131</v>
+        <v>3181</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>3132</v>
+        <v>3182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>3133</v>
+        <v>3183</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>3134</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3135</v>
+        <v>3185</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3136</v>
+        <v>3186</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>3137</v>
+        <v>3187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>3138</v>
+        <v>3188</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3139</v>
+        <v>3189</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3141</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>3142</v>
+        <v>3192</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3136</v>
+        <v>3186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>3143</v>
+        <v>3193</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>3138</v>
+        <v>3188</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3139</v>
+        <v>3189</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3140</v>
+        <v>3190</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>3144</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3145</v>
+        <v>3195</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3146</v>
+        <v>3196</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>3147</v>
+        <v>3197</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3138</v>
+        <v>3188</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3148</v>
+        <v>3198</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3149</v>
+        <v>3199</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3150</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3151</v>
+        <v>3201</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3152</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3153</v>
+        <v>3203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3154</v>
+        <v>3204</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>3155</v>
+        <v>3205</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3156</v>
+        <v>3206</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3157</v>
+        <v>3207</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3158</v>
+        <v>3208</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3159</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>3160</v>
+        <v>3210</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3154</v>
+        <v>3204</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3155</v>
+        <v>3205</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>3161</v>
+        <v>3211</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>3157</v>
+        <v>3207</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>3158</v>
+        <v>3208</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>3159</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3162</v>
+        <v>3212</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3163</v>
+        <v>3213</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3164</v>
+        <v>3214</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>3165</v>
+        <v>3215</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3166</v>
+        <v>3216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3167</v>
+        <v>3217</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3168</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3169</v>
+        <v>3219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3170</v>
+        <v>3220</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3171</v>
+        <v>3221</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3172</v>
+        <v>3222</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3173</v>
+        <v>3223</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3174</v>
+        <v>3224</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3175</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>3176</v>
+        <v>3226</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3170</v>
+        <v>3220</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3177</v>
+        <v>3227</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3172</v>
+        <v>3222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3173</v>
+        <v>3223</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3174</v>
+        <v>3224</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>3175</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3178</v>
+        <v>3228</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3179</v>
+        <v>3229</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>3177</v>
+        <v>3227</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3180</v>
+        <v>3230</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3181</v>
+        <v>3231</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>3182</v>
+        <v>3232</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>3183</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3184</v>
+        <v>3234</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3185</v>
+        <v>3235</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3186</v>
+        <v>3236</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3187</v>
+        <v>3237</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3188</v>
+        <v>3238</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3189</v>
+        <v>3239</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3190</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3191</v>
+        <v>3241</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3192</v>
+        <v>3242</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3193</v>
+        <v>3243</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>3194</v>
+        <v>3244</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3195</v>
+        <v>3245</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3196</v>
+        <v>3246</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3197</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>3198</v>
+        <v>3248</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>3192</v>
+        <v>3242</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>3193</v>
+        <v>3243</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>3194</v>
+        <v>3244</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>3195</v>
+        <v>3245</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3196</v>
+        <v>3246</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>3197</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3199</v>
+        <v>3249</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3200</v>
+        <v>3250</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3201</v>
+        <v>3251</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3202</v>
+        <v>3252</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3203</v>
+        <v>3253</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3204</v>
+        <v>3254</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3205</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3206</v>
+        <v>3256</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3207</v>
+        <v>3257</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3208</v>
+        <v>3258</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3209</v>
+        <v>3259</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3211</v>
+        <v>3261</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3212</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3213</v>
+        <v>3263</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3207</v>
+        <v>3257</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1" t="s">
-        <v>3208</v>
+        <v>3258</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3209</v>
+        <v>3259</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3211</v>
+        <v>3261</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3212</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3214</v>
+        <v>3264</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3215</v>
+        <v>3265</v>
       </c>
       <c r="C44" s="41"/>
       <c r="D44" s="1" t="s">
-        <v>3216</v>
+        <v>3266</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>3217</v>
+        <v>3267</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>3218</v>
+        <v>3268</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3219</v>
+        <v>3269</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3220</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3221</v>
+        <v>3271</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3222</v>
+        <v>3272</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3223</v>
+        <v>3273</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>3224</v>
+        <v>3274</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3225</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3226</v>
+        <v>3276</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3227</v>
+        <v>3277</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3228</v>
+        <v>3278</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>3229</v>
+        <v>3279</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3230</v>
+        <v>3280</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3231</v>
+        <v>3281</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3232</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>3233</v>
+        <v>3283</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3227</v>
+        <v>3277</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3228</v>
+        <v>3278</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>3229</v>
+        <v>3279</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>3230</v>
+        <v>3280</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>3231</v>
+        <v>3281</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>3232</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3234</v>
+        <v>3284</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3235</v>
+        <v>3285</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3236</v>
+        <v>3286</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3237</v>
+        <v>3287</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3238</v>
+        <v>3288</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3239</v>
+        <v>3289</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3240</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3241</v>
+        <v>3291</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3242</v>
+        <v>3292</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3243</v>
+        <v>3293</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>3244</v>
+        <v>3294</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3245</v>
+        <v>3295</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3246</v>
+        <v>3296</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3247</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3248</v>
+        <v>3298</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3249</v>
+        <v>3299</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3250</v>
+        <v>3300</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3251</v>
+        <v>3301</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3252</v>
+        <v>3302</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3253</v>
+        <v>3303</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3254</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3255</v>
+        <v>3305</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3256</v>
+        <v>3306</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>3257</v>
+        <v>3307</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>3258</v>
+        <v>3308</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3259</v>
+        <v>3309</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3260</v>
+        <v>3310</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3261</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3262</v>
+        <v>3312</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3263</v>
+        <v>3313</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>3264</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3265</v>
+        <v>3315</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3263</v>
+        <v>3313</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>3264</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3266</v>
+        <v>3316</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3267</v>
+        <v>3317</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>3268</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3269</v>
+        <v>3319</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3270</v>
+        <v>3320</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>3271</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3272</v>
+        <v>3322</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3273</v>
+        <v>3323</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>3274</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3275</v>
+        <v>3325</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3276</v>
+        <v>3326</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>3277</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25040,12 +25418,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3278</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3279</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25055,80 +25433,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>3095</v>
+        <v>3145</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3096</v>
+        <v>3146</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>3097</v>
+        <v>3147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3098</v>
+        <v>3148</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3099</v>
+        <v>3149</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>3100</v>
+        <v>3150</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>3101</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3076</v>
+        <v>3126</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3077</v>
+        <v>3127</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>3079</v>
+        <v>3129</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3080</v>
+        <v>3130</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3081</v>
+        <v>3131</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3082</v>
+        <v>3132</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3083</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3084</v>
+        <v>3134</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3085</v>
+        <v>3135</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>3086</v>
+        <v>3136</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>3087</v>
+        <v>3137</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3088</v>
+        <v>3138</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3089</v>
+        <v>3139</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3090</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25136,115 +25514,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3280</v>
+        <v>3330</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3281</v>
+        <v>3331</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>3282</v>
+        <v>3332</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3283</v>
+        <v>3333</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>3284</v>
+        <v>3334</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3285</v>
+        <v>3335</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>3286</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3093</v>
+        <v>3143</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3287</v>
+        <v>3337</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>3287</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3288</v>
+        <v>3338</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3289</v>
+        <v>3339</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>3290</v>
+        <v>3340</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3291</v>
+        <v>3341</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>3292</v>
+        <v>3342</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3293</v>
+        <v>3343</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>3294</v>
+        <v>3344</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3295</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3296</v>
+        <v>3346</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3297</v>
+        <v>3347</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>3298</v>
+        <v>3348</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3299</v>
+        <v>3349</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>3300</v>
+        <v>3350</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3301</v>
+        <v>3351</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>3302</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3303</v>
+        <v>3353</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3304</v>
+        <v>3354</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>3305</v>
+        <v>3355</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>3306</v>
+        <v>3356</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>3307</v>
+        <v>3357</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3308</v>
+        <v>3358</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>3309</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3310</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25254,80 +25632,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>3095</v>
+        <v>3145</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3096</v>
+        <v>3146</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>3097</v>
+        <v>3147</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>3098</v>
+        <v>3148</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3099</v>
+        <v>3149</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>3100</v>
+        <v>3150</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>3101</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3076</v>
+        <v>3126</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3077</v>
+        <v>3127</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>3079</v>
+        <v>3129</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>3080</v>
+        <v>3130</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3081</v>
+        <v>3131</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3311</v>
+        <v>3361</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3083</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3084</v>
+        <v>3134</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3085</v>
+        <v>3135</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>3078</v>
+        <v>3128</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>3086</v>
+        <v>3136</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>3087</v>
+        <v>3137</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3088</v>
+        <v>3138</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3089</v>
+        <v>3139</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3090</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -25335,137 +25713,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3280</v>
+        <v>3330</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3312</v>
+        <v>3362</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>3313</v>
+        <v>3363</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3314</v>
+        <v>3364</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>3312</v>
+        <v>3362</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3315</v>
+        <v>3365</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>3316</v>
+        <v>3366</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3317</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3093</v>
+        <v>3143</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3318</v>
+        <v>3368</v>
       </c>
       <c r="F88" s="37" t="s">
-        <v>3318</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3104</v>
+        <v>3154</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3105</v>
+        <v>3155</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>3106</v>
+        <v>3156</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3108</v>
+        <v>3158</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>3109</v>
+        <v>3159</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>3110</v>
+        <v>3160</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>3111</v>
+        <v>3161</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>3112</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3107</v>
+        <v>3157</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3105</v>
+        <v>3155</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>3106</v>
+        <v>3156</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3108</v>
+        <v>3158</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>3109</v>
+        <v>3159</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>3110</v>
+        <v>3160</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>3111</v>
+        <v>3161</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>3112</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3113</v>
+        <v>3163</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3114</v>
+        <v>3164</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>3115</v>
+        <v>3165</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>3116</v>
+        <v>3166</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>3117</v>
+        <v>3167</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>3118</v>
+        <v>3168</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3119</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3319</v>
+        <v>3369</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3320</v>
+        <v>3370</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>3321</v>
+        <v>3371</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>3322</v>
+        <v>3372</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>3323</v>
+        <v>3373</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>3324</v>
+        <v>3374</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3325</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -25473,7 +25851,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3326</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -25483,94 +25861,94 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3280</v>
+        <v>3330</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3327</v>
+        <v>3377</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>3328</v>
+        <v>3378</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>3329</v>
+        <v>3379</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3330</v>
+        <v>3380</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>3331</v>
+        <v>3381</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3332</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3093</v>
+        <v>3143</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3333</v>
+        <v>3383</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>438</v>
       </c>
       <c r="F99" s="37" t="s">
-        <v>3333</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3334</v>
+        <v>3384</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3327</v>
+        <v>3377</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>3335</v>
+        <v>3385</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3329</v>
+        <v>3379</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3330</v>
+        <v>3380</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3331</v>
+        <v>3381</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3336</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3303</v>
+        <v>3353</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3337</v>
+        <v>3387</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>3338</v>
+        <v>3388</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3339</v>
+        <v>3389</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>3340</v>
+        <v>3390</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>3341</v>
+        <v>3391</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3342</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3296</v>
+        <v>3346</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3343</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -25621,169 +25999,169 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3344</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3345</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3346</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3347</v>
+        <v>3397</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3348</v>
+        <v>3398</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2235</v>
+        <v>2285</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>438</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>3349</v>
+        <v>3399</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3350</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3347</v>
+        <v>3397</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3348</v>
+        <v>3398</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>3351</v>
+        <v>3401</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>3352</v>
+        <v>3402</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>3353</v>
+        <v>3403</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>3354</v>
+        <v>3404</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3355</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3356</v>
+        <v>3406</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3357</v>
+        <v>3407</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>3358</v>
+        <v>3408</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>3359</v>
+        <v>3409</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>3360</v>
+        <v>3410</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3361</v>
+        <v>3411</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>3362</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3363</v>
+        <v>3413</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3364</v>
+        <v>3414</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>3365</v>
+        <v>3415</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>3366</v>
+        <v>3416</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>3364</v>
+        <v>3414</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>3364</v>
+        <v>3414</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3367</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3368</v>
+        <v>3418</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3369</v>
+        <v>3419</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>3369</v>
+        <v>3419</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3369</v>
+        <v>3419</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3369</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3288</v>
+        <v>3338</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3370</v>
+        <v>3420</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>3371</v>
+        <v>3421</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>3372</v>
+        <v>3422</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>3373</v>
+        <v>3423</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3374</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3347</v>
+        <v>3397</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3348</v>
+        <v>3398</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>3375</v>
+        <v>3425</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3353</v>
+        <v>3403</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3376</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3368</v>
+        <v>3418</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3369</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="3456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="3455">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6062,7 +6062,7 @@
     <t>Visa enbart valda resultat på karta</t>
   </si>
   <si>
-    <t>UI_Activity_List_ShowSplitPointsOnMap1</t>
+    <t>UI_Activity_List_ShowSplitPointsOnMap</t>
   </si>
   <si>
     <t>Show Split Points On Map</t>
@@ -6878,9 +6878,6 @@
     <t>Radio por defecto</t>
   </si>
   <si>
-    <t>Add new points by pressing the Add button.</t>
-  </si>
-  <si>
     <t>Raggio di default</t>
   </si>
   <si>
@@ -6924,6 +6921,27 @@
   </si>
   <si>
     <t>Lutningsjusterat tempo</t>
+  </si>
+  <si>
+    <t>UI_Settings_PageControl_linkInformativeUrl_Text</t>
+  </si>
+  <si>
+    <t>Plugin Webpage</t>
+  </si>
+  <si>
+    <t>#Common</t>
+  </si>
+  <si>
+    <t>link a la WEB del plugin</t>
+  </si>
+  <si>
+    <t>Page Web du plugin</t>
+  </si>
+  <si>
+    <t>Pagina web del plugin</t>
+  </si>
+  <si>
+    <t>Plugin websida</t>
   </si>
   <si>
     <t>UI_Settings_PredictTimeForDistance</t>
@@ -9627,45 +9645,42 @@
     <t>Activate at Import</t>
   </si>
   <si>
-    <t>#Common</t>
+    <t>Realizar al Importar</t>
+  </si>
+  <si>
+    <t>Activer à l'importation</t>
+  </si>
+  <si>
+    <t>Attivo all'importazione dell'attività</t>
+  </si>
+  <si>
+    <t>Activeren bij Importeren</t>
   </si>
   <si>
     <t>Aktivera vid import</t>
   </si>
   <si>
-    <t>Realizar al Importar</t>
-  </si>
-  <si>
-    <t>Activer à l'importation</t>
-  </si>
-  <si>
-    <t>Attivo all'importazione dell'attività</t>
-  </si>
-  <si>
-    <t>Activeren bij Importeren</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelEditMenuItem_Text</t>
   </si>
   <si>
     <t>Edit Menu</t>
   </si>
   <si>
+    <t>Menu Editar</t>
+  </si>
+  <si>
+    <t>Modifier le Menu</t>
+  </si>
+  <si>
+    <t>Menù modifiche</t>
+  </si>
+  <si>
+    <t>Bewerk menu</t>
+  </si>
+  <si>
     <t>Ändra aktivitet menyn</t>
   </si>
   <si>
-    <t>Menu Editar</t>
-  </si>
-  <si>
-    <t>Modifier le Menu</t>
-  </si>
-  <si>
-    <t>Menù modifiche</t>
-  </si>
-  <si>
-    <t>Bewerk menu</t>
-  </si>
-  <si>
     <t>UI_Settings_MiscPluginPage_Title</t>
   </si>
   <si>
@@ -9678,24 +9693,6 @@
     <t>http://code.google.com/p/sporttracks-miscplugin/wiki/MiscPlugin</t>
   </si>
   <si>
-    <t>UI_Settings_PageControl_linkInformativeUrl_Text</t>
-  </si>
-  <si>
-    <t>Plugin Webpage</t>
-  </si>
-  <si>
-    <t>Plugin websida</t>
-  </si>
-  <si>
-    <t>link a la WEB del plugin</t>
-  </si>
-  <si>
-    <t>Page Web du plugin</t>
-  </si>
-  <si>
-    <t>Pagina web del plugin</t>
-  </si>
-  <si>
     <t>Plugin Webpagina</t>
   </si>
   <si>
@@ -9717,6 +9714,9 @@
     <t>UI_Settings_PageControl_labelCorrectGPSFromDistance_Text</t>
   </si>
   <si>
+    <t>Korrektur GPS aus Distanz</t>
+  </si>
+  <si>
     <t>Ajustar GPS de la distancia del reloj</t>
   </si>
   <si>
@@ -9729,51 +9729,48 @@
     <t>Bijstellen GPS via toestel-afstand</t>
   </si>
   <si>
-    <t>Korrektur GPS aus Distanz</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelCorrectGPSFromDistanceInformative_Text</t>
   </si>
   <si>
     <t>Removes GPS points that likely is incorrect by checking negative distances in the distance track</t>
   </si>
   <si>
+    <t>Eliminar Trackpoints del GPS, que puedan estar incorrectos, checando distancias negativas en la ruta</t>
+  </si>
+  <si>
+    <t>Supprimer les points GPS qui semblent incorrectes en vérifiant les distances négatives dans la distance du tracé</t>
+  </si>
+  <si>
+    <t>Elimina i punti GPS che sono apparentemente errati verificando distanze negative nella traccia dele distanze</t>
+  </si>
+  <si>
+    <t>GPS punten verwijderen die waarschijnlijk fout zijn dmv opsporen negatieve awaarden in afstand-track</t>
+  </si>
+  <si>
     <t>Rensar GPS punkter som troligtvis är felaktiga genom att kontrollera negativ distans i distansspåret</t>
   </si>
   <si>
-    <t>Eliminar Trackpoints del GPS, que puedan estar incorrectos, checando distancias negativas en la ruta</t>
-  </si>
-  <si>
-    <t>Supprimer les points GPS qui semblent incorrectes en vérifiant les distances négatives dans la distance du tracé</t>
-  </si>
-  <si>
-    <t>Elimina i punti GPS che sono apparentemente errati verificando distanze negative nella traccia dele distanze</t>
-  </si>
-  <si>
-    <t>GPS punten verwijderen die waarschijnlijk fout zijn dmv opsporen negatieve awaarden in afstand-track</t>
-  </si>
-  <si>
     <t>Edit_ExtendGPS_Text</t>
   </si>
   <si>
     <t>Extend GPS Track to Activity</t>
   </si>
   <si>
+    <t>Extender el Track de GPS a la Actividad</t>
+  </si>
+  <si>
+    <t>Etendre la trace GPS vers Activité</t>
+  </si>
+  <si>
+    <t>Associare la traccia GPS all'attività</t>
+  </si>
+  <si>
+    <t>GPS track uitbreiden naar activiteit</t>
+  </si>
+  <si>
     <t>Utöka GPS spår till aktivitet</t>
   </si>
   <si>
-    <t>Extender el Track de GPS a la Actividad</t>
-  </si>
-  <si>
-    <t>Etendre la trace GPS vers Activité</t>
-  </si>
-  <si>
-    <t>Associare la traccia GPS all'attività</t>
-  </si>
-  <si>
-    <t>GPS track uitbreiden naar activiteit</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelExtendGPS_Text</t>
   </si>
   <si>
@@ -9783,69 +9780,69 @@
     <t>Extend GPS Track to Activity Start/End if GPS track is shorter than the clock or heart rate track</t>
   </si>
   <si>
+    <t>Extender el Track de GPS, si es más corto que el reloj o los datos de RC</t>
+  </si>
+  <si>
+    <t>Etendre la trace GPS vers Activité Debut/Fin si la trace GPS est plus courte que la durée ou que la trace de la fréquence cardiaque</t>
+  </si>
+  <si>
+    <t>Associare la traccia GPS all'attività se Inizio/Fine della traccia GPS è più breve della durata della traccia o dei dati di frequenza cardiaca</t>
+  </si>
+  <si>
+    <t>GPS track uitbreiden naar activiteit Start/Stop indien GPS track kleiner is dan horloge of hartslag track</t>
+  </si>
+  <si>
     <t>Utöka GPS-spår till aktivitet start/slut om GPS-spår är kortare än klockad tid eller pulsspår.</t>
   </si>
   <si>
-    <t>Extender el Track de GPS, si es más corto que el reloj o los datos de RC</t>
-  </si>
-  <si>
-    <t>Etendre la trace GPS vers Activité Debut/Fin si la trace GPS est plus courte que la durée ou que la trace de la fréquence cardiaque</t>
-  </si>
-  <si>
-    <t>Associare la traccia GPS all'attività se Inizio/Fine della traccia GPS è più breve della durata della traccia o dei dati di frequenza cardiaca</t>
-  </si>
-  <si>
-    <t>GPS track uitbreiden naar activiteit Start/Stop indien GPS track kleiner is dan horloge of hartslag track</t>
-  </si>
-  <si>
     <t>Edit_SetTimeGPS_Text</t>
   </si>
   <si>
     <t>Set Time/Pace on GPS Points</t>
   </si>
   <si>
+    <t>Agregar Tiempo/Paso en el track de GPS</t>
+  </si>
+  <si>
+    <t>Etablir le temps/allure sur la trace GPS</t>
+  </si>
+  <si>
+    <t>Imposta Tempo/Passo sui punti GPS</t>
+  </si>
+  <si>
+    <t>Tijd/tempo op GPS track zetten</t>
+  </si>
+  <si>
     <t>Sätt tid/tempo på GPS punkter</t>
   </si>
   <si>
-    <t>Agregar Tiempo/Paso en el track de GPS</t>
-  </si>
-  <si>
-    <t>Etablir le temps/allure sur la trace GPS</t>
-  </si>
-  <si>
-    <t>Imposta Tempo/Passo sui punti GPS</t>
-  </si>
-  <si>
-    <t>Tijd/tempo op GPS track zetten</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelSetTimeGPS_Text</t>
   </si>
   <si>
+    <t>Zet tijd/tempo op GPS punten</t>
+  </si>
+  <si>
     <t>Sätt tid/tempo på GPS spår</t>
   </si>
   <si>
-    <t>Zet tijd/tempo op GPS punten</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelSetTimeGPSInformative_Text</t>
   </si>
   <si>
     <t>Set the time on GPS points using the Distance track if it exists, otherwise using the activity time</t>
   </si>
   <si>
+    <t>Etablir le temps sur les points GPS en utilisant la trace de distance si elle existe, sinon en utilisant le temps de l'activité</t>
+  </si>
+  <si>
+    <t>Impostare il tempo della traccia GPS sulla base della traccia della distanza</t>
+  </si>
+  <si>
+    <t>Tijd zetten op GPS punten via de Afstandstrack indien deze bestaat, anders tijd van activiteit gebruiken</t>
+  </si>
+  <si>
     <t>Sätt tidsstämpel på GPS punkter genom att använda distansspår om det existerar, annars aktivitetens totala längd.</t>
   </si>
   <si>
-    <t>Etablir le temps sur les points GPS en utilisant la trace de distance si elle existe, sinon en utilisant le temps de l'activité</t>
-  </si>
-  <si>
-    <t>Impostare il tempo della traccia GPS sulla base della traccia della distanza</t>
-  </si>
-  <si>
-    <t>Tijd zetten op GPS punten via de Afstandstrack indien deze bestaat, anders tijd van activiteit gebruiken</t>
-  </si>
-  <si>
     <t>Edit_SetTimeGPS_UseSelection_Text</t>
   </si>
   <si>
@@ -9858,21 +9855,21 @@
     <t>Detect Rest Laps</t>
   </si>
   <si>
+    <t>Detecta Secciones de Descanso</t>
+  </si>
+  <si>
+    <t>Detecter les tours de repos</t>
+  </si>
+  <si>
+    <t>Identifica i Lap di pausa</t>
+  </si>
+  <si>
+    <t>Rustrondes detecteren</t>
+  </si>
+  <si>
     <t>Detektera vilo varv</t>
   </si>
   <si>
-    <t>Detecta Secciones de Descanso</t>
-  </si>
-  <si>
-    <t>Detecter les tours de repos</t>
-  </si>
-  <si>
-    <t>Identifica i Lap di pausa</t>
-  </si>
-  <si>
-    <t>Rustrondes detecteren</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelDetectRestLaps_Text</t>
   </si>
   <si>
@@ -9885,42 +9882,42 @@
     <t>Detect rest laps. Currently only warmup and cooldown.</t>
   </si>
   <si>
+    <t>Detectar Secciones de Descanso, solo Calentamiento y Enfriamiento</t>
+  </si>
+  <si>
+    <t>Detecter les tours de repos. Actuellement seulement l'échauffement et la récupération.</t>
+  </si>
+  <si>
+    <t>Identifica i Lap di pausa. Attualmente solo i lap di ricaldamento e di raffreddamento</t>
+  </si>
+  <si>
+    <t>Rustrondes detecteren. Momenteel enkel opwarmen en cooling down.</t>
+  </si>
+  <si>
     <t>Detektera vilo varv. Enbart långsamma uppvärmning/nedvarvnings varv.</t>
   </si>
   <si>
-    <t>Detectar Secciones de Descanso, solo Calentamiento y Enfriamiento</t>
-  </si>
-  <si>
-    <t>Detecter les tours de repos. Actuellement seulement l'échauffement et la récupération.</t>
-  </si>
-  <si>
-    <t>Identifica i Lap di pausa. Attualmente solo i lap di ricaldamento e di raffreddamento</t>
-  </si>
-  <si>
-    <t>Rustrondes detecteren. Momenteel enkel opwarmen en cooling down.</t>
-  </si>
-  <si>
     <t>Edit_InsertPauses_Text</t>
   </si>
   <si>
     <t>Insert Pauses at GPS Gaps</t>
   </si>
   <si>
+    <t>Insertar pausas en los huecos del GPS</t>
+  </si>
+  <si>
+    <t>Insérer des pauses aux écarts GPS</t>
+  </si>
+  <si>
+    <t>Inserire pause dove mancano tratti della traccia GPS</t>
+  </si>
+  <si>
+    <t>Pauzes invoegen bij GPS leegtes</t>
+  </si>
+  <si>
     <t>Lägg in pauser vid GPS uppehåll</t>
   </si>
   <si>
-    <t>Insertar pausas en los huecos del GPS</t>
-  </si>
-  <si>
-    <t>Insérer des pauses aux écarts GPS</t>
-  </si>
-  <si>
-    <t>Inserire pause dove mancano tratti della traccia GPS</t>
-  </si>
-  <si>
-    <t>Pauzes invoegen bij GPS leegtes</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelInsertPauses_Text</t>
   </si>
   <si>
@@ -9951,42 +9948,42 @@
     <t>Min GPS gap</t>
   </si>
   <si>
+    <t xml:space="preserve">Hueco GPS Mínimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecart GPS minimum </t>
+  </si>
+  <si>
+    <t>Minima pausa della traccia GPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min GPS leegte </t>
+  </si>
+  <si>
     <t>Min GPS uppehåll</t>
   </si>
   <si>
-    <t xml:space="preserve">Hueco GPS Mínimo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecart GPS minimum </t>
-  </si>
-  <si>
-    <t>Minima pausa della traccia GPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min GPS leegte </t>
-  </si>
-  <si>
     <t>Edit_AdjustPausesToDevice_Text</t>
   </si>
   <si>
     <t>Adjust Pauses to Device Time</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajustar Pausas al Tiempo del Dispositivo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuster les pauses aux temps du périphérique </t>
+  </si>
+  <si>
+    <t>Regolare le pause sulla base del tempo del dispositivo</t>
+  </si>
+  <si>
+    <t>Pauzes bijstellen naar toestel tijd</t>
+  </si>
+  <si>
     <t>Justera pauser efter GPS enhet tid</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustar Pausas al Tiempo del Dispositivo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuster les pauses aux temps du périphérique </t>
-  </si>
-  <si>
-    <t>Regolare le pause sulla base del tempo del dispositivo</t>
-  </si>
-  <si>
-    <t>Pauzes bijstellen naar toestel tijd</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelAdjustPausesToDevice_Text</t>
   </si>
   <si>
@@ -9996,42 +9993,42 @@
     <t>Adjust Pauses so the activity time matches the device time (or manually entered time)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajustar Pausas para coincidir con el tiempo del dispositivo (o tiempo manual) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuster les pauses pour que les temps de l’activité correspondent aux temps du périphérique (ou du temps mis manuellement) </t>
+  </si>
+  <si>
+    <t>Regolare le pause in modo che la durata dell'attività coincida con la durata riscontrata sul dispositivo (oppure impostata manualmente)</t>
+  </si>
+  <si>
+    <t>Pauzes bijstellen zodat tijd overeenkomt met toestel tijd (of manueel ingevoerde tijd)</t>
+  </si>
+  <si>
     <t>Justera pauser så aktivitetstiden matchar GPS tiden (eller manuellt inmatad tid)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustar Pausas para coincidir con el tiempo del dispositivo (o tiempo manual) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuster les pauses pour que les temps de l’activité correspondent aux temps du périphérique (ou du temps mis manuellement) </t>
-  </si>
-  <si>
-    <t>Regolare le pause in modo che la durata dell'attività coincida con la durata riscontrata sul dispositivo (oppure impostata manualmente)</t>
-  </si>
-  <si>
-    <t>Pauzes bijstellen zodat tijd overeenkomt met toestel tijd (of manueel ingevoerde tijd)</t>
-  </si>
-  <si>
     <t>Edit_FixHR_Text</t>
   </si>
   <si>
     <t>Fix initial HR spikes</t>
   </si>
   <si>
+    <t xml:space="preserve">Arreglar picos iniciales del RC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir les piques de FC initiales </t>
+  </si>
+  <si>
+    <t>Correggi i picchi iniziali di frequenza cardiaca</t>
+  </si>
+  <si>
+    <t>Bijstellen oorspronkelijke HF pieken</t>
+  </si>
+  <si>
     <t>Fixa HR vid aktivitetens början</t>
   </si>
   <si>
-    <t xml:space="preserve">Arreglar picos iniciales del RC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définir les piques de FC initiales </t>
-  </si>
-  <si>
-    <t>Correggi i picchi iniziali di frequenza cardiaca</t>
-  </si>
-  <si>
-    <t>Bijstellen oorspronkelijke HF pieken</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelFixHR_Text</t>
   </si>
   <si>
@@ -10041,57 +10038,57 @@
     <t>Remove HR entries higher than Max HR and initial spikes. Adds data at start if missing to simplify editing.</t>
   </si>
   <si>
+    <t xml:space="preserve">Ajustar  RC al inicio de la actividad, Filtrar Picos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définir la FC au départ de l’activité, filtrant les piques </t>
+  </si>
+  <si>
+    <t>Correggi la frequenza cardiaca all'inizio dell'attività, filtra i picchi</t>
+  </si>
+  <si>
+    <t>Bijstellen HF bij start activiteit, filter pieken</t>
+  </si>
+  <si>
     <t>Fixa HR vid aktivitetens början, ta bort spikar</t>
   </si>
   <si>
-    <t xml:space="preserve">Ajustar  RC al inicio de la actividad, Filtrar Picos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définir la FC au départ de l’activité, filtrant les piques </t>
-  </si>
-  <si>
-    <t>Correggi la frequenza cardiaca all'inizio dell'attività, filtra i picchi</t>
-  </si>
-  <si>
-    <t>Bijstellen HF bij start activiteit, filter pieken</t>
-  </si>
-  <si>
     <t>Edit_FixNaN_Text</t>
   </si>
   <si>
     <t>Fix NaN in Tracks</t>
   </si>
   <si>
+    <t>Définir les NaN dans les tracés</t>
+  </si>
+  <si>
+    <t>Correggi NaN nella traccia</t>
+  </si>
+  <si>
     <t>Fixa NaN i spår</t>
   </si>
   <si>
-    <t>Définir les NaN dans les tracés</t>
-  </si>
-  <si>
-    <t>Correggi NaN nella traccia</t>
-  </si>
-  <si>
     <t>Edit_ElevationToGPS_Text</t>
   </si>
   <si>
     <t>Elevation Track to GPS Points</t>
   </si>
   <si>
+    <t>Track de Elevación a puntos GPS</t>
+  </si>
+  <si>
+    <t>Trace d'altitude aux points GPS</t>
+  </si>
+  <si>
+    <t>Traccia di altitudine nei punti GPS</t>
+  </si>
+  <si>
+    <t>Hoogtetrack naar GPS punten</t>
+  </si>
+  <si>
     <t>Höjd spår till GPS punkter</t>
   </si>
   <si>
-    <t>Track de Elevación a puntos GPS</t>
-  </si>
-  <si>
-    <t>Trace d'altitude aux points GPS</t>
-  </si>
-  <si>
-    <t>Traccia di altitudine nei punti GPS</t>
-  </si>
-  <si>
-    <t>Hoogtetrack naar GPS punten</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelElevationToGPS_Text</t>
   </si>
   <si>
@@ -10101,84 +10098,84 @@
     <t>Apply the separate elevation track to the GPS track</t>
   </si>
   <si>
+    <t>Aplicar el Track de elevacón separado al track GPS</t>
+  </si>
+  <si>
+    <t>Appliquer la trace d'altitude séparée à la trace GPS</t>
+  </si>
+  <si>
+    <t>Modifica l'altitudine calcolata separatamente alla traccia GPS</t>
+  </si>
+  <si>
+    <t>De aparte hoogtetrack toepassen op de GPS track</t>
+  </si>
+  <si>
     <t>Lägg ett separat höjd spår på GPS punkter</t>
   </si>
   <si>
-    <t>Aplicar el Track de elevacón separado al track GPS</t>
-  </si>
-  <si>
-    <t>Appliquer la trace d'altitude séparée à la trace GPS</t>
-  </si>
-  <si>
-    <t>Modifica l'altitudine calcolata separatamente alla traccia GPS</t>
-  </si>
-  <si>
-    <t>De aparte hoogtetrack toepassen op de GPS track</t>
-  </si>
-  <si>
     <t>Edit_RemoveIdenticalGPS_Text</t>
   </si>
   <si>
     <t>Remove Identical GPS Points While Moving</t>
   </si>
   <si>
+    <t>Elimina Puntos GPS Identicos en movimiento</t>
+  </si>
+  <si>
+    <t>Retirer les points GPS identique pendant le déplacement</t>
+  </si>
+  <si>
+    <t>Elimina punti GPS identici durante lo spostamento</t>
+  </si>
+  <si>
+    <t>Tijdens verplaatsen identieke GPS punten verwijderen</t>
+  </si>
+  <si>
     <t>Ta bort identiska GPS punkter vid rörelse</t>
   </si>
   <si>
-    <t>Elimina Puntos GPS Identicos en movimiento</t>
-  </si>
-  <si>
-    <t>Retirer les points GPS identique pendant le déplacement</t>
-  </si>
-  <si>
-    <t>Elimina punti GPS identici durante lo spostamento</t>
-  </si>
-  <si>
-    <t>Tijdens verplaatsen identieke GPS punten verwijderen</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelRemoveIdenticalGPS_Text</t>
   </si>
   <si>
     <t>Remove Identical GPS Points</t>
   </si>
   <si>
+    <t>Elimina puntos GPS identicos</t>
+  </si>
+  <si>
+    <t>Retirer les points GPS identiques</t>
+  </si>
+  <si>
+    <t>Elimina punti GPS identici</t>
+  </si>
+  <si>
+    <t>Identieke GPS punten verwijderen</t>
+  </si>
+  <si>
     <t>Ta bort identiska GPS punkter</t>
   </si>
   <si>
-    <t>Elimina puntos GPS identicos</t>
-  </si>
-  <si>
-    <t>Retirer les points GPS identiques</t>
-  </si>
-  <si>
-    <t>Elimina punti GPS identici</t>
-  </si>
-  <si>
-    <t>Identieke GPS punten verwijderen</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelRemoveIdenticalGPSInformative_Text</t>
   </si>
   <si>
     <t>Remove identical GPS points where the distance track indicates moving. (Fix for Edge 705 one second recording.)</t>
   </si>
   <si>
+    <t>Elimina puntos GPS identicos,  cuando la el track de distancia indique movimiento. (Fix for Edge 705 one second recording.)</t>
+  </si>
+  <si>
+    <t>Retirer les points GPS identiques où la trace de distance indique du déplacement. (Correctif pour le Edge 705 enregistrement d'une seconde.)</t>
+  </si>
+  <si>
+    <t>Elimina punti GPS identici quando la traccia della distanza indica movimento. (Correggi gli errori dovuti alla registrazione per ogni secondo dell'Edge 705.)</t>
+  </si>
+  <si>
+    <t>Identieke GPS punten verwijderen als afstandstrack beweging aangeeft (Fix voor Edge 705 one second recording.)</t>
+  </si>
+  <si>
     <t>Ta bort identiska GPS punkter då distansspår indikerar att enheten rört sig. Fix för Edge 705 per sekund inspelning.</t>
   </si>
   <si>
-    <t>Elimina puntos GPS identicos,  cuando la el track de distancia indique movimiento. (Fix for Edge 705 one second recording.)</t>
-  </si>
-  <si>
-    <t>Retirer les points GPS identiques où la trace de distance indique du déplacement. (Correctif pour le Edge 705 enregistrement d'une seconde.)</t>
-  </si>
-  <si>
-    <t>Elimina punti GPS identici quando la traccia della distanza indica movimento. (Correggi gli errori dovuti alla registrazione per ogni secondo dell'Edge 705.)</t>
-  </si>
-  <si>
-    <t>Identieke GPS punten verwijderen als afstandstrack beweging aangeeft (Fix voor Edge 705 one second recording.)</t>
-  </si>
-  <si>
     <t>Edit_PrepareForActivitiesViewer_Text</t>
   </si>
   <si>
@@ -10239,21 +10236,21 @@
     <t>Fix iBike</t>
   </si>
   <si>
+    <t>Arreglar iBike</t>
+  </si>
+  <si>
+    <t>Définir iBik</t>
+  </si>
+  <si>
+    <t>Correggi iBike</t>
+  </si>
+  <si>
+    <t>Bijstellen iBike</t>
+  </si>
+  <si>
     <t>Justera iBike</t>
   </si>
   <si>
-    <t>Arreglar iBike</t>
-  </si>
-  <si>
-    <t>Définir iBik</t>
-  </si>
-  <si>
-    <t>Correggi iBike</t>
-  </si>
-  <si>
-    <t>Bijstellen iBike</t>
-  </si>
-  <si>
     <t>http://code.google.com/p/sporttracks-miscplugin/wiki/iBikeFixer</t>
   </si>
   <si>
@@ -10263,66 +10260,66 @@
     <t>Fix iBike PowerTrack</t>
   </si>
   <si>
+    <t>Korrektur iBike EnergieSchiene</t>
+  </si>
+  <si>
+    <t>Arreglar iBike PowerTrack</t>
+  </si>
+  <si>
+    <t>Définir PowerTrack iBike</t>
+  </si>
+  <si>
+    <t>Correggi la traccia di potenza di iBike</t>
+  </si>
+  <si>
+    <t>Bijstellen iBike PowerTrack</t>
+  </si>
+  <si>
     <t>Justera iBike effektspår</t>
   </si>
   <si>
-    <t>Arreglar iBike PowerTrack</t>
-  </si>
-  <si>
-    <t>Définir PowerTrack iBike</t>
-  </si>
-  <si>
-    <t>Correggi la traccia di potenza di iBike</t>
-  </si>
-  <si>
-    <t>Bijstellen iBike PowerTrack</t>
-  </si>
-  <si>
-    <t>Korrektur iBike EnergieSchiene</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelActivateAtImportBool1_Text</t>
   </si>
   <si>
     <t>Fix iBike Power Track at Import</t>
   </si>
   <si>
+    <t>Arreglar iBike PowerTrack al importar</t>
+  </si>
+  <si>
+    <t>Définir PowerTrack iBike à l'importation</t>
+  </si>
+  <si>
+    <t>Correggi la traccia di potenza di iBike durante l'importazione dell'attività</t>
+  </si>
+  <si>
+    <t>Bijstellen iBike PowerTrack bij import</t>
+  </si>
+  <si>
     <t>Justera iBike effektspår vid import</t>
   </si>
   <si>
-    <t>Arreglar iBike PowerTrack al importar</t>
-  </si>
-  <si>
-    <t>Définir PowerTrack iBike à l'importation</t>
-  </si>
-  <si>
-    <t>Correggi la traccia di potenza di iBike durante l'importazione dell'attività</t>
-  </si>
-  <si>
-    <t>Bijstellen iBike PowerTrack bij import</t>
-  </si>
-  <si>
     <t>UI_Settings_PageControl_labelInformative_Text</t>
   </si>
   <si>
     <t>Insert clock pauses and stretch to clock</t>
   </si>
   <si>
+    <t>Insertar pausas y ajustar al reloj</t>
+  </si>
+  <si>
+    <t>Insérer des durées de pause et étendre la durée</t>
+  </si>
+  <si>
+    <t>Inserisci pause di tempo ed estendi la durata</t>
+  </si>
+  <si>
+    <t>Invoegen pauzes en uitbreiden naar klok</t>
+  </si>
+  <si>
     <t>Lägg in pauser från klocktid och sträck ut till att passa klocktid</t>
   </si>
   <si>
-    <t>Insertar pausas y ajustar al reloj</t>
-  </si>
-  <si>
-    <t>Insérer des durées de pause et étendre la durée</t>
-  </si>
-  <si>
-    <t>Inserisci pause di tempo ed estendi la durata</t>
-  </si>
-  <si>
-    <t>Invoegen pauzes en uitbreiden naar klok</t>
-  </si>
-  <si>
     <t>GpsCorrectionPlugin/Properties/Resources.resx</t>
   </si>
   <si>
@@ -10332,21 +10329,21 @@
     <t>GpsCorrection</t>
   </si>
   <si>
+    <t>Korrektur GPS</t>
+  </si>
+  <si>
+    <t>Corrección del GPS</t>
+  </si>
+  <si>
+    <t>Correzione GPS</t>
+  </si>
+  <si>
+    <t>GPS correctie</t>
+  </si>
+  <si>
     <t>GPS Korrigering</t>
   </si>
   <si>
-    <t>Corrección del GPS</t>
-  </si>
-  <si>
-    <t>Correzione GPS</t>
-  </si>
-  <si>
-    <t>GPS correctie</t>
-  </si>
-  <si>
-    <t>Korrektur GPS</t>
-  </si>
-  <si>
     <t>http://code.google.com/p/sporttracks-miscplugin/wiki/GpsCorrection</t>
   </si>
   <si>
@@ -10356,72 +10353,72 @@
     <t>Put GPS-device Distance Diff in PowerTrack</t>
   </si>
   <si>
+    <t>Poner diferencia de distancia del GPS en el track de poder</t>
+  </si>
+  <si>
+    <t>Mettre la différence de distance du GPS de l'appareil dans PowerTrack</t>
+  </si>
+  <si>
+    <t>Mette la differenza di distanza del dispositivo GPS in PowerTrack</t>
+  </si>
+  <si>
+    <t>Plaats verschil Gps-toestel afstand in PowerTrack</t>
+  </si>
+  <si>
     <t>Sätt GPS-enhet distans diff i effektspår</t>
   </si>
   <si>
-    <t>Poner diferencia de distancia del GPS en el track de poder</t>
-  </si>
-  <si>
-    <t>Mettre la différence de distance du GPS de l'appareil dans PowerTrack</t>
-  </si>
-  <si>
-    <t>Mette la differenza di distanza del dispositivo GPS in PowerTrack</t>
-  </si>
-  <si>
-    <t>Plaats verschil Gps-toestel afstand in PowerTrack</t>
-  </si>
-  <si>
     <t>old/ElevationCorrectionAnalysisPlugin/Properties/Resources.resx</t>
   </si>
   <si>
     <t>Analyze ElevationCorrection</t>
   </si>
   <si>
+    <t>Analizar corrección de elevación</t>
+  </si>
+  <si>
+    <t>Analyser ElevationCorrection</t>
+  </si>
+  <si>
+    <t>Analizza ElevationCorrection</t>
+  </si>
+  <si>
+    <t>ElevationCorrection analyse</t>
+  </si>
+  <si>
     <t>Höjd-korrigering analys</t>
   </si>
   <si>
-    <t>Analizar corrección de elevación</t>
-  </si>
-  <si>
-    <t>Analyser ElevationCorrection</t>
-  </si>
-  <si>
-    <t>Analizza ElevationCorrection</t>
-  </si>
-  <si>
-    <t>ElevationCorrection analyse</t>
-  </si>
-  <si>
     <t>http://hem.bredband.net/gerhardnospam/index_elevationcorrectionanalysis.htm</t>
   </si>
   <si>
     <t>Edit_ElevationCorrectionAnalysis_Text</t>
   </si>
   <si>
+    <t>Analyse ElevationCorrection</t>
+  </si>
+  <si>
     <t>Analysera höjd-korrigering i effektspår</t>
   </si>
   <si>
-    <t>Analyse ElevationCorrection</t>
-  </si>
-  <si>
     <t>Analyze ElevationCorrection by putting the GPS elevation in the Power Track</t>
   </si>
   <si>
+    <t>Analizar corrección de elevación poniendo la elevación GPS en el track de poder</t>
+  </si>
+  <si>
+    <t>Analyser ElevationCorrection en mettant l'altitude GPS dans le tracé de puissance</t>
+  </si>
+  <si>
+    <t>Analizza ElevationCorrection mettendo le altitudini GPS in PowerTrack</t>
+  </si>
+  <si>
+    <t>Analyse ElevationCorrection door GPS hoogtewaarden in Powertrack te bewaren</t>
+  </si>
+  <si>
     <t>Analysera höjd-korrigering genom att lägga GPS höjd i kraft-spår</t>
   </si>
   <si>
-    <t>Analizar corrección de elevación poniendo la elevación GPS en el track de poder</t>
-  </si>
-  <si>
-    <t>Analyser ElevationCorrection en mettant l'altitude GPS dans le tracé de puissance</t>
-  </si>
-  <si>
-    <t>Analizza ElevationCorrection mettendo le altitudini GPS in PowerTrack</t>
-  </si>
-  <si>
-    <t>Analyse ElevationCorrection door GPS hoogtewaarden in Powertrack te bewaren</t>
-  </si>
-  <si>
     <t>[not used]</t>
   </si>
   <si>
@@ -10446,57 +10443,57 @@
     <t>Insersci i Lap e gli Stop nelCadenceTrack</t>
   </si>
   <si>
+    <t>Agrega secciones y detenciones an el track de cadencia</t>
+  </si>
+  <si>
+    <t>Mettre les tours et les arrêts dans CadenceTrack</t>
+  </si>
+  <si>
+    <t>Mette i Lap e gli Stop in CadenceTrack</t>
+  </si>
+  <si>
+    <t>Plaats Rondes en Stops in Cadans Track</t>
+  </si>
+  <si>
     <t>Lägg etapper och pauser i kadensspår</t>
   </si>
   <si>
-    <t>Agrega secciones y detenciones an el track de cadencia</t>
-  </si>
-  <si>
-    <t>Mettre les tours et les arrêts dans CadenceTrack</t>
-  </si>
-  <si>
-    <t>Mette i Lap e gli Stop in CadenceTrack</t>
-  </si>
-  <si>
-    <t>Plaats Rondes en Stops in Cadans Track</t>
-  </si>
-  <si>
     <t>Edit_ExportActivityToCompareTracks_Text</t>
   </si>
   <si>
     <t>Export To CompareTracks</t>
   </si>
   <si>
+    <t>Exportar a CompareTracks</t>
+  </si>
+  <si>
+    <t>Exporter vers CompareTracks</t>
+  </si>
+  <si>
+    <t>Esporta a CompareTracks</t>
+  </si>
+  <si>
+    <t>Exporteren naar CompareTracks</t>
+  </si>
+  <si>
     <t>Exportera till CompareTracks</t>
   </si>
   <si>
-    <t>Exportar a CompareTracks</t>
-  </si>
-  <si>
-    <t>Exporter vers CompareTracks</t>
-  </si>
-  <si>
-    <t>Esporta a CompareTracks</t>
-  </si>
-  <si>
-    <t>Exporteren naar CompareTracks</t>
-  </si>
-  <si>
     <t>Edit_LiveUpdate_Text</t>
   </si>
   <si>
     <t>LiveUpdate</t>
   </si>
   <si>
+    <t>Actulizacion en vivo</t>
+  </si>
+  <si>
+    <t>Live updaten</t>
+  </si>
+  <si>
     <t>Live uppdatering</t>
   </si>
   <si>
-    <t>Actulizacion en vivo</t>
-  </si>
-  <si>
-    <t>Live updaten</t>
-  </si>
-  <si>
     <t>UI_Activities_PageControl_tmp_Text</t>
   </si>
   <si>
@@ -10506,16 +10503,16 @@
     <t>Analyze Elevation Overwrite Cadence</t>
   </si>
   <si>
+    <t>Analizar corrección de elevación sobreescribiendo cadencia</t>
+  </si>
+  <si>
+    <t>Analyser l'altitude de par la cadence</t>
+  </si>
+  <si>
+    <t>Analizza la sovrascrittura dell'altitudine da cadenza</t>
+  </si>
+  <si>
     <t>Analysera höjd-korrigering skriv över kadensspår</t>
-  </si>
-  <si>
-    <t>Analizar corrección de elevación sobreescribiendo cadencia</t>
-  </si>
-  <si>
-    <t>Analyser l'altitude de par la cadence</t>
-  </si>
-  <si>
-    <t>Analizza la sovrascrittura dell'altitudine da cadenza</t>
   </si>
   <si>
     <t>Poner Vueltas y detenciones en el track de cadencia</t>
@@ -18018,7 +18015,7 @@
     <col customWidth="1" min="7" max="7" width="31.57"/>
     <col customWidth="1" min="8" max="8" width="47.43"/>
     <col customWidth="1" min="9" max="9" width="4.0"/>
-    <col customWidth="1" min="10" max="10" width="33.43"/>
+    <col customWidth="1" min="10" max="11" width="33.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18052,6 +18049,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -18093,6 +18091,7 @@
       <c r="J5" s="17" t="s">
         <v>438</v>
       </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -18116,6 +18115,7 @@
       <c r="J6" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="11" t="s">
@@ -18139,6 +18139,7 @@
       <c r="J7" s="4" t="s">
         <v>1824</v>
       </c>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8" s="11" t="s">
@@ -18162,6 +18163,7 @@
       <c r="J8" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9" s="11" t="s">
@@ -18185,6 +18187,7 @@
       <c r="J9" s="4" t="s">
         <v>1835</v>
       </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10" s="5" t="s">
@@ -18202,6 +18205,7 @@
       <c r="J10" s="19" t="s">
         <v>1839</v>
       </c>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11" s="5" t="s">
@@ -18220,6 +18224,7 @@
       <c r="J11" s="5" t="s">
         <v>1843</v>
       </c>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
@@ -18238,6 +18243,7 @@
       <c r="J12" s="5" t="s">
         <v>1847</v>
       </c>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -18264,6 +18270,7 @@
       <c r="J13" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -18290,6 +18297,7 @@
       <c r="J14" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
@@ -18304,6 +18312,7 @@
       <c r="J15" s="19" t="s">
         <v>1858</v>
       </c>
+      <c r="K15" s="19"/>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
@@ -18318,6 +18327,7 @@
       <c r="J16" s="4" t="s">
         <v>438</v>
       </c>
+      <c r="K16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
@@ -18332,6 +18342,7 @@
       <c r="J17" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
@@ -18355,6 +18366,7 @@
       <c r="J18" s="11" t="s">
         <v>1869</v>
       </c>
+      <c r="K18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
@@ -18378,6 +18390,7 @@
       <c r="J19" s="11" t="s">
         <v>1876</v>
       </c>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -18401,6 +18414,7 @@
       <c r="J20" s="11" t="s">
         <v>1883</v>
       </c>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
@@ -18424,6 +18438,7 @@
       <c r="J21" s="11" t="s">
         <v>1888</v>
       </c>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
@@ -18447,6 +18462,7 @@
       <c r="J22" s="11" t="s">
         <v>1895</v>
       </c>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
@@ -18475,6 +18491,7 @@
       <c r="J23" s="28" t="s">
         <v>438</v>
       </c>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
@@ -18498,6 +18515,7 @@
       <c r="J24" s="1" t="s">
         <v>1905</v>
       </c>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="25" t="s">
@@ -18526,6 +18544,7 @@
       <c r="J25" s="32" t="s">
         <v>438</v>
       </c>
+      <c r="K25" s="32"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1" t="s">
@@ -18549,6 +18568,7 @@
       <c r="J26" s="11" t="s">
         <v>1914</v>
       </c>
+      <c r="K26" s="11"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
@@ -18572,6 +18592,7 @@
       <c r="J27" s="11" t="s">
         <v>1921</v>
       </c>
+      <c r="K27" s="11"/>
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1" t="s">
@@ -18595,6 +18616,7 @@
       <c r="J28" s="11" t="s">
         <v>1928</v>
       </c>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
@@ -18618,6 +18640,7 @@
       <c r="J29" s="11" t="s">
         <v>1935</v>
       </c>
+      <c r="K29" s="11"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
@@ -18641,6 +18664,7 @@
       <c r="J30" s="11" t="s">
         <v>1942</v>
       </c>
+      <c r="K30" s="11"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
@@ -18664,6 +18688,7 @@
       <c r="J31" s="11" t="s">
         <v>1949</v>
       </c>
+      <c r="K31" s="11"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
@@ -18687,6 +18712,7 @@
       <c r="J32" s="14" t="s">
         <v>1953</v>
       </c>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -18710,6 +18736,7 @@
       <c r="J33" s="14" t="s">
         <v>1957</v>
       </c>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
@@ -18733,6 +18760,7 @@
       <c r="J34" s="11" t="s">
         <v>1533</v>
       </c>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
@@ -18756,6 +18784,7 @@
       <c r="J35" s="11" t="s">
         <v>1965</v>
       </c>
+      <c r="K35" s="11"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
@@ -18779,6 +18808,7 @@
       <c r="J36" s="11" t="s">
         <v>1972</v>
       </c>
+      <c r="K36" s="11"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
@@ -18802,6 +18832,7 @@
       <c r="J37" s="11" t="s">
         <v>1979</v>
       </c>
+      <c r="K37" s="11"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
@@ -18825,6 +18856,7 @@
       <c r="J38" s="11" t="s">
         <v>1986</v>
       </c>
+      <c r="K38" s="11"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
@@ -18844,6 +18876,7 @@
       <c r="J39" s="14" t="s">
         <v>1991</v>
       </c>
+      <c r="K39" s="14"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
@@ -18867,6 +18900,7 @@
       <c r="J40" s="14" t="s">
         <v>1998</v>
       </c>
+      <c r="K40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
@@ -18884,6 +18918,7 @@
       <c r="J41" s="14" t="s">
         <v>2002</v>
       </c>
+      <c r="K41" s="14"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
@@ -18901,6 +18936,7 @@
       <c r="J42" s="14" t="s">
         <v>2006</v>
       </c>
+      <c r="K42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
@@ -18918,6 +18954,7 @@
       <c r="J43" s="14" t="s">
         <v>2010</v>
       </c>
+      <c r="K43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
@@ -18935,6 +18972,7 @@
       <c r="J44" s="14" t="s">
         <v>2014</v>
       </c>
+      <c r="K44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
@@ -18952,6 +18990,7 @@
       <c r="J45" s="14" t="s">
         <v>2018</v>
       </c>
+      <c r="K45" s="14"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
@@ -18969,6 +19008,7 @@
       <c r="J46" s="14" t="s">
         <v>2022</v>
       </c>
+      <c r="K46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
@@ -18986,6 +19026,7 @@
       <c r="J47" s="14" t="s">
         <v>2026</v>
       </c>
+      <c r="K47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
@@ -19003,6 +19044,7 @@
       <c r="J48" s="14" t="s">
         <v>2030</v>
       </c>
+      <c r="K48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="19" t="s">
@@ -19024,6 +19066,7 @@
       <c r="J49" s="11" t="s">
         <v>2036</v>
       </c>
+      <c r="K49" s="11"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -19047,6 +19090,7 @@
       <c r="J50" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="K50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
@@ -19064,6 +19108,7 @@
       <c r="J51" s="5" t="s">
         <v>2040</v>
       </c>
+      <c r="K51" s="5"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
@@ -19081,6 +19126,7 @@
       <c r="J52" s="5" t="s">
         <v>2044</v>
       </c>
+      <c r="K52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
@@ -19098,6 +19144,7 @@
       <c r="J53" s="5" t="s">
         <v>2048</v>
       </c>
+      <c r="K53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
@@ -19115,6 +19162,7 @@
       <c r="J54" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="K54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
@@ -19132,6 +19180,7 @@
       <c r="J55" s="5" t="s">
         <v>2053</v>
       </c>
+      <c r="K55" s="5"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -19155,6 +19204,7 @@
       <c r="J56" s="1" t="s">
         <v>2060</v>
       </c>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
       <c r="A57" s="5" t="s">
@@ -19172,6 +19222,7 @@
       <c r="J57" s="14" t="s">
         <v>2064</v>
       </c>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="5" t="s">
@@ -19189,6 +19240,7 @@
       <c r="J58" s="14" t="s">
         <v>2067</v>
       </c>
+      <c r="K58" s="14"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="1" t="s">
@@ -19212,6 +19264,7 @@
       <c r="J59" s="11" t="s">
         <v>402</v>
       </c>
+      <c r="K59" s="11"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -19238,6 +19291,7 @@
       <c r="J60" s="11" t="s">
         <v>2076</v>
       </c>
+      <c r="K60" s="11"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
@@ -19259,6 +19313,7 @@
       <c r="J61" s="11" t="s">
         <v>2082</v>
       </c>
+      <c r="K61" s="11"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -19282,6 +19337,7 @@
       <c r="J62" s="11" t="s">
         <v>2089</v>
       </c>
+      <c r="K62" s="11"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
@@ -19305,6 +19361,7 @@
       <c r="J63" s="11" t="s">
         <v>2096</v>
       </c>
+      <c r="K63" s="11"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="5" t="s">
@@ -19322,6 +19379,7 @@
       <c r="J64" s="14" t="s">
         <v>2100</v>
       </c>
+      <c r="K64" s="14"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="5" t="s">
@@ -19339,6 +19397,7 @@
       <c r="J65" s="14" t="s">
         <v>2104</v>
       </c>
+      <c r="K65" s="14"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
@@ -19356,6 +19415,7 @@
       <c r="J66" s="14" t="s">
         <v>2108</v>
       </c>
+      <c r="K66" s="14"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
@@ -19373,6 +19433,7 @@
       <c r="J67" s="32" t="s">
         <v>438</v>
       </c>
+      <c r="K67" s="32"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
@@ -19396,6 +19457,7 @@
       <c r="J68" s="14" t="s">
         <v>2117</v>
       </c>
+      <c r="K68" s="14"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -19419,6 +19481,7 @@
       <c r="J69" s="5" t="s">
         <v>2123</v>
       </c>
+      <c r="K69" s="5"/>
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1"/>
     <row r="71" ht="13.5" customHeight="1">
@@ -19446,6 +19509,7 @@
       <c r="J71" s="11" t="s">
         <v>2130</v>
       </c>
+      <c r="K71" s="11"/>
     </row>
     <row r="72" ht="49.5" hidden="1" customHeight="1"/>
     <row r="73">
@@ -19470,6 +19534,7 @@
       <c r="J73" s="1" t="s">
         <v>2137</v>
       </c>
+      <c r="K73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
@@ -19487,6 +19552,7 @@
       <c r="J74" s="5" t="s">
         <v>2141</v>
       </c>
+      <c r="K74" s="5"/>
     </row>
     <row r="75" ht="25.5" customHeight="1">
       <c r="A75" s="1" t="s">
@@ -19510,6 +19576,7 @@
       <c r="J75" s="11" t="s">
         <v>2148</v>
       </c>
+      <c r="K75" s="11"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
@@ -19533,6 +19600,7 @@
       <c r="J76" s="11" t="s">
         <v>2155</v>
       </c>
+      <c r="K76" s="11"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
@@ -19556,6 +19624,7 @@
       <c r="J77" s="11" t="s">
         <v>2162</v>
       </c>
+      <c r="K77" s="11"/>
     </row>
     <row r="78" ht="25.5" customHeight="1">
       <c r="A78" s="1" t="s">
@@ -19579,6 +19648,7 @@
       <c r="J78" s="11" t="s">
         <v>2169</v>
       </c>
+      <c r="K78" s="11"/>
     </row>
     <row r="79" ht="84.75" customHeight="1">
       <c r="A79" s="1" t="s">
@@ -19602,6 +19672,7 @@
       <c r="J79" s="11" t="s">
         <v>2176</v>
       </c>
+      <c r="K79" s="11"/>
     </row>
     <row r="80" ht="44.25" hidden="1" customHeight="1"/>
     <row r="81" ht="1.5" customHeight="1">
@@ -19626,6 +19697,7 @@
       <c r="J81" s="11" t="s">
         <v>2183</v>
       </c>
+      <c r="K81" s="11"/>
     </row>
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" s="19" t="s">
@@ -19640,6 +19712,7 @@
       <c r="J82" s="19" t="s">
         <v>2187</v>
       </c>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="19" t="s">
@@ -19654,6 +19727,7 @@
       <c r="J83" s="19" t="s">
         <v>2191</v>
       </c>
+      <c r="K83" s="19"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="19" t="s">
@@ -19668,6 +19742,7 @@
       <c r="J84" s="19" t="s">
         <v>2195</v>
       </c>
+      <c r="K84" s="19"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="19" t="s">
@@ -19682,6 +19757,7 @@
       <c r="J85" s="19" t="s">
         <v>2199</v>
       </c>
+      <c r="K85" s="19"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="19" t="s">
@@ -19696,6 +19772,7 @@
       <c r="J86" s="19" t="s">
         <v>2203</v>
       </c>
+      <c r="K86" s="19"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
@@ -19710,6 +19787,7 @@
       <c r="J87" s="19" t="s">
         <v>2206</v>
       </c>
+      <c r="K87" s="19"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="19" t="s">
@@ -19724,6 +19802,7 @@
       <c r="J88" s="19" t="s">
         <v>2210</v>
       </c>
+      <c r="K88" s="19"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="19" t="s">
@@ -19738,6 +19817,7 @@
       <c r="J89" s="19" t="s">
         <v>2214</v>
       </c>
+      <c r="K89" s="19"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="19" t="s">
@@ -19752,6 +19832,7 @@
       <c r="J90" s="19" t="s">
         <v>2218</v>
       </c>
+      <c r="K90" s="19"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="4" t="s">
@@ -19766,6 +19847,7 @@
       <c r="J91" s="4" t="s">
         <v>2222</v>
       </c>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="5" t="s">
@@ -19783,6 +19865,7 @@
       <c r="J92" s="14" t="s">
         <v>2226</v>
       </c>
+      <c r="K92" s="14"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="1" t="s">
@@ -19804,6 +19887,7 @@
       <c r="J93" s="11" t="s">
         <v>2232</v>
       </c>
+      <c r="K93" s="11"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="5" t="s">
@@ -19821,6 +19905,7 @@
       <c r="J94" s="14" t="s">
         <v>2235</v>
       </c>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="5" t="s">
@@ -19838,6 +19923,7 @@
       <c r="J95" s="14" t="s">
         <v>2239</v>
       </c>
+      <c r="K95" s="14"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="5" t="s">
@@ -19855,6 +19941,7 @@
       <c r="J96" s="14" t="s">
         <v>2243</v>
       </c>
+      <c r="K96" s="14"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="1" t="s">
@@ -19876,6 +19963,7 @@
       <c r="J97" s="11" t="s">
         <v>2249</v>
       </c>
+      <c r="K97" s="11"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="A98" s="5" t="s">
@@ -19893,6 +19981,7 @@
       <c r="J98" s="14" t="s">
         <v>2253</v>
       </c>
+      <c r="K98" s="14"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -19910,6 +19999,7 @@
       <c r="J99" s="14" t="s">
         <v>2257</v>
       </c>
+      <c r="K99" s="14"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="5" t="s">
@@ -19927,6 +20017,7 @@
       <c r="J100" s="14" t="s">
         <v>2261</v>
       </c>
+      <c r="K100" s="14"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
@@ -19944,6 +20035,7 @@
       <c r="J101" s="14" t="s">
         <v>2263</v>
       </c>
+      <c r="K101" s="14"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="5" t="s">
@@ -19961,6 +20053,7 @@
       <c r="J102" s="5" t="s">
         <v>2268</v>
       </c>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="1" t="s">
@@ -19975,313 +20068,323 @@
       <c r="F103" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
         <v>2273</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="J103" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="J103" s="11" t="s">
-        <v>2275</v>
-      </c>
+      <c r="K103" s="11"/>
     </row>
     <row r="104" ht="1.5" customHeight="1">
       <c r="A104" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>2276</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="E104" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="F104" s="14" t="s">
         <v>2278</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="G104" s="4" t="s">
         <v>2279</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="H104" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="J104" s="11" t="s">
         <v>2281</v>
       </c>
-      <c r="J104" s="11" t="s">
-        <v>2282</v>
-      </c>
+      <c r="K104" s="11"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
       <c r="A105" s="5" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>2283</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>2284</v>
       </c>
       <c r="C105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="33" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="J105" s="5" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
         <v>2286</v>
       </c>
-    </row>
-    <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="5" t="s">
+      <c r="B106" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="C106" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="33" t="s">
+      <c r="F106" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="J106" s="5" t="s">
+      <c r="G106" s="1" t="s">
         <v>2290</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1" t="s">
+        <v>2292</v>
       </c>
     </row>
     <row r="107" ht="13.5" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="C107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="33" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="J107" s="5" t="s">
-        <v>2294</v>
-      </c>
+        <v>2296</v>
+      </c>
+      <c r="K107" s="5"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="33" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="J108" s="30" t="s">
+      <c r="J108" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="K108" s="5"/>
+    </row>
+    <row r="109" ht="13.5" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="33" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="J109" s="30" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="109" ht="13.5" customHeight="1">
-      <c r="A109" s="1" t="s">
+      <c r="K109" s="30"/>
+    </row>
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="A110" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B109" s="11" t="s">
-        <v>2298</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F109" s="33" t="s">
-        <v>2300</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>2301</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>2302</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B110" s="30" t="s">
-        <v>2303</v>
+      <c r="B110" s="11" t="s">
+        <v>2304</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F110" s="35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G110" s="17" t="s">
-        <v>2304</v>
+      <c r="E110" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F110" s="33" t="s">
+        <v>2306</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>2307</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>2305</v>
-      </c>
-      <c r="I110" s="18"/>
-      <c r="J110" s="30" t="s">
-        <v>438</v>
-      </c>
+        <v>2308</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>440</v>
+      <c r="A111" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>2309</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>2306</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>2307</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>2308</v>
+      <c r="D111" s="18"/>
+      <c r="E111" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F111" s="35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>2310</v>
       </c>
       <c r="H111" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="I111" s="18"/>
+      <c r="J111" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K111" s="30"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>2314</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>2309</v>
       </c>
-      <c r="J111" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="4" t="s">
-        <v>2310</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>2303</v>
-      </c>
-      <c r="F112" s="19" t="s">
+      <c r="F113" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="J112" s="32" t="s">
+      <c r="J113" s="32" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>2311</v>
-      </c>
+      <c r="K113" s="32"/>
     </row>
     <row r="115">
       <c r="A115" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="H115" s="4" t="s">
+      <c r="H116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I115" s="4" t="s">
+      <c r="I116" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="J115" s="4" t="s">
+      <c r="J116" s="4" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="116" hidden="1"/>
-    <row r="117" hidden="1">
-      <c r="A117" s="1" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>2313</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>2316</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>2317</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>2318</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>2319</v>
-      </c>
-    </row>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" hidden="1"/>
     <row r="118" hidden="1">
       <c r="A118" s="1" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="E118" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="E118" s="11" t="s">
+      <c r="F118" s="14" t="s">
         <v>2322</v>
       </c>
-      <c r="F118" s="14" t="s">
+      <c r="G118" s="4" t="s">
         <v>2323</v>
       </c>
-      <c r="G118" s="11" t="s">
+      <c r="H118" s="4" t="s">
         <v>2324</v>
       </c>
-      <c r="H118" s="4" t="s">
+      <c r="J118" s="11" t="s">
         <v>2325</v>
       </c>
-      <c r="J118" s="11" t="s">
-        <v>2326</v>
-      </c>
+      <c r="K118" s="11"/>
     </row>
     <row r="119" hidden="1">
       <c r="A119" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B119" s="11" t="s">
         <v>2327</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="C119" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="E119" s="11" t="s">
         <v>2328</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="34" t="s">
+      <c r="F119" s="14" t="s">
         <v>2329</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="11" t="s">
         <v>2330</v>
       </c>
       <c r="H119" s="4" t="s">
@@ -20290,28 +20393,54 @@
       <c r="J119" s="11" t="s">
         <v>2332</v>
       </c>
-    </row>
-    <row r="184" ht="15.75" customHeight="1"/>
+      <c r="K119" s="11"/>
+    </row>
+    <row r="120" hidden="1">
+      <c r="A120" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E120" s="12"/>
+      <c r="F120" s="34" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>2336</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>2337</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K120" s="11"/>
+    </row>
     <row r="185" ht="15.75" customHeight="1"/>
     <row r="186" ht="15.75" customHeight="1"/>
     <row r="187" ht="15.75" customHeight="1"/>
-    <row r="212">
-      <c r="E212" s="36"/>
-      <c r="G212" s="36"/>
-      <c r="H212" s="36"/>
-      <c r="I212" s="36"/>
-    </row>
-    <row r="215" ht="20.25" customHeight="1"/>
-    <row r="216">
-      <c r="E216" s="8"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="213">
+      <c r="E213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="36"/>
+    </row>
+    <row r="216" ht="20.25" customHeight="1"/>
+    <row r="217">
+      <c r="E217" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A115:J115">
+  <conditionalFormatting sqref="A116:K116">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A115))=0</formula>
+      <formula>LEN(TRIM(A116))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G112 H6:H9 I6:I112 J6:J101 H11:H112 J103:J112">
+  <conditionalFormatting sqref="D6:G105 H6:H9 I6:I105 J6:K101 H11:H105 J103:K105 D107:G113 H107:H113 I107:I113 J107:K113">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20382,7 +20511,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2333</v>
+        <v>2339</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20408,20 +20537,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20433,464 +20562,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2335</v>
+        <v>2341</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2336</v>
+        <v>2342</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2337</v>
+        <v>2343</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2338</v>
+        <v>2344</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2339</v>
+        <v>2345</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2342</v>
+        <v>2348</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2345</v>
+        <v>2351</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2353</v>
+        <v>2359</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2354</v>
+        <v>2360</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2355</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2356</v>
+        <v>2362</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2357</v>
+        <v>2363</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2358</v>
+        <v>2364</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2359</v>
+        <v>2365</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2362</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2363</v>
+        <v>2369</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2364</v>
+        <v>2370</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2368</v>
+        <v>2374</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2370</v>
+        <v>2376</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2372</v>
+        <v>2378</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2373</v>
+        <v>2379</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2374</v>
+        <v>2380</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2375</v>
+        <v>2381</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2376</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2378</v>
+        <v>2384</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2379</v>
+        <v>2385</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2381</v>
+        <v>2387</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2382</v>
+        <v>2388</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2383</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2384</v>
+        <v>2390</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2385</v>
+        <v>2391</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2386</v>
+        <v>2392</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2387</v>
+        <v>2393</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2388</v>
+        <v>2394</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2389</v>
+        <v>2395</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2390</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2391</v>
+        <v>2397</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2392</v>
+        <v>2398</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2394</v>
+        <v>2400</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2395</v>
+        <v>2401</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2396</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2399</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2401</v>
+        <v>2407</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2402</v>
+        <v>2408</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2403</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2404</v>
+        <v>2410</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2408</v>
+        <v>2414</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2410</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2411</v>
+        <v>2417</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2413</v>
+        <v>2419</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2414</v>
+        <v>2420</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2416</v>
+        <v>2422</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2417</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2419</v>
+        <v>2425</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2421</v>
+        <v>2427</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2426</v>
+        <v>2432</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2427</v>
+        <v>2433</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2428</v>
+        <v>2434</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2429</v>
+        <v>2435</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2430</v>
+        <v>2436</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2431</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2432</v>
+        <v>2438</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2433</v>
+        <v>2439</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2434</v>
+        <v>2440</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2435</v>
+        <v>2441</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2438</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2439</v>
+        <v>2445</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2440</v>
+        <v>2446</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2441</v>
+        <v>2447</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2442</v>
+        <v>2448</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2452</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2453</v>
+        <v>2459</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2454</v>
+        <v>2460</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2457</v>
+        <v>2463</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2458</v>
+        <v>2464</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2462</v>
+        <v>2468</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2466</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -20913,160 +21042,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2468</v>
+        <v>2474</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2470</v>
+        <v>2476</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2472</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2473</v>
+        <v>2479</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2474</v>
+        <v>2480</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2475</v>
+        <v>2481</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2476</v>
+        <v>2482</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2477</v>
+        <v>2483</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2478</v>
+        <v>2484</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2479</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2480</v>
+        <v>2486</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2481</v>
+        <v>2487</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2483</v>
+        <v>2489</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2484</v>
+        <v>2490</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2489</v>
+        <v>2495</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2490</v>
+        <v>2496</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2491</v>
+        <v>2497</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2492</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2494</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2496</v>
+        <v>2502</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21074,41 +21203,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2522</v>
+        <v>2528</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21120,16 +21249,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2524</v>
+        <v>2530</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21137,68 +21266,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2528</v>
+        <v>2534</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2530</v>
+        <v>2536</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2532</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2534</v>
+        <v>2540</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2536</v>
+        <v>2542</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2540</v>
+        <v>2546</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2544</v>
+        <v>2550</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21209,25 +21338,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2546</v>
+        <v>2552</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2548</v>
+        <v>2554</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2550</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="42">
@@ -21241,16 +21370,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2552</v>
+        <v>2558</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21258,7 +21387,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21281,25 +21410,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2558</v>
+        <v>2564</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2562</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="45">
@@ -21310,42 +21439,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2564</v>
+        <v>2570</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2566</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2567</v>
+        <v>2573</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2568</v>
+        <v>2574</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2570</v>
+        <v>2576</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="47">
@@ -21356,13 +21485,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2574</v>
+        <v>2580</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2575</v>
+        <v>2581</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21382,10 +21511,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2576</v>
+        <v>2582</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2577</v>
+        <v>2583</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21396,103 +21525,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2578</v>
+        <v>2584</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2579</v>
+        <v>2585</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2580</v>
+        <v>2586</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2581</v>
+        <v>2587</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2582</v>
+        <v>2588</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2583</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2584</v>
+        <v>2590</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2585</v>
+        <v>2591</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2586</v>
+        <v>2592</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2587</v>
+        <v>2593</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2588</v>
+        <v>2594</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2589</v>
+        <v>2595</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2590</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2591</v>
+        <v>2597</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2592</v>
+        <v>2598</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2593</v>
+        <v>2599</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2594</v>
+        <v>2600</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2596</v>
+        <v>2602</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2597</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2598</v>
+        <v>2604</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2599</v>
+        <v>2605</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2600</v>
+        <v>2606</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2601</v>
+        <v>2607</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21514,121 +21643,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2608</v>
+        <v>2614</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2610</v>
+        <v>2616</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2611</v>
+        <v>2617</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2612</v>
+        <v>2618</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2613</v>
+        <v>2619</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2614</v>
+        <v>2620</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2615</v>
+        <v>2621</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2616</v>
+        <v>2622</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2617</v>
+        <v>2623</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2618</v>
+        <v>2624</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2619</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2620</v>
+        <v>2626</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2621</v>
+        <v>2627</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2622</v>
+        <v>2628</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2623</v>
+        <v>2629</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2624</v>
+        <v>2630</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2625</v>
+        <v>2631</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2626</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2627</v>
+        <v>2633</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2628</v>
+        <v>2634</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2629</v>
+        <v>2635</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2630</v>
+        <v>2636</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2632</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2633</v>
+        <v>2639</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2634</v>
+        <v>2640</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2635</v>
+        <v>2641</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2636</v>
+        <v>2642</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2637</v>
+        <v>2643</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2638</v>
+        <v>2644</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2639</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2640</v>
+        <v>2646</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2641</v>
+        <v>2647</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21637,7 +21766,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2642</v>
+        <v>2648</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21645,45 +21774,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2643</v>
+        <v>2649</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2645</v>
+        <v>2651</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2646</v>
+        <v>2652</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2647</v>
+        <v>2653</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>2648</v>
+        <v>2654</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>2644</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2649</v>
+        <v>2655</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2650</v>
+        <v>2656</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2651</v>
+        <v>2657</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2652</v>
+        <v>2658</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2653</v>
+        <v>2659</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21691,140 +21820,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2654</v>
+        <v>2660</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2655</v>
+        <v>2661</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2655</v>
+        <v>2661</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2656</v>
+        <v>2662</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2657</v>
+        <v>2663</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2658</v>
+        <v>2664</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>2655</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2659</v>
+        <v>2665</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2660</v>
+        <v>2666</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2661</v>
+        <v>2667</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2662</v>
+        <v>2668</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2663</v>
+        <v>2669</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2664</v>
+        <v>2670</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2665</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2666</v>
+        <v>2672</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2667</v>
+        <v>2673</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2668</v>
+        <v>2674</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2669</v>
+        <v>2675</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2670</v>
+        <v>2676</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2671</v>
+        <v>2677</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2672</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2673</v>
+        <v>2679</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2674</v>
+        <v>2680</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2674</v>
+        <v>2680</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2675</v>
+        <v>2681</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2676</v>
+        <v>2682</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2677</v>
+        <v>2683</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2674</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2678</v>
+        <v>2684</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2679</v>
+        <v>2685</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2680</v>
+        <v>2686</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2681</v>
+        <v>2687</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2682</v>
+        <v>2688</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2684</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2685</v>
+        <v>2691</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2685</v>
+        <v>2691</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2685</v>
+        <v>2691</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2686</v>
+        <v>2692</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2687</v>
+        <v>2693</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2688</v>
+        <v>2694</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2689</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="68">
@@ -21832,68 +21961,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2690</v>
+        <v>2696</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2691</v>
+        <v>2697</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2692</v>
+        <v>2698</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2693</v>
+        <v>2699</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2694</v>
+        <v>2700</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2695</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2696</v>
+        <v>2702</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2697</v>
+        <v>2703</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2698</v>
+        <v>2704</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2699</v>
+        <v>2705</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2700</v>
+        <v>2706</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2701</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2702</v>
+        <v>2708</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2704</v>
+        <v>2710</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2705</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2706</v>
+        <v>2712</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2707</v>
+        <v>2713</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -21916,170 +22045,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2708</v>
+        <v>2714</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2711</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2712</v>
+        <v>2718</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2713</v>
+        <v>2719</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2714</v>
+        <v>2720</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2715</v>
+        <v>2721</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2716</v>
+        <v>2722</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2717</v>
+        <v>2723</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2719</v>
+        <v>2725</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2720</v>
+        <v>2726</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2721</v>
+        <v>2727</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2722</v>
+        <v>2728</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2723</v>
+        <v>2729</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2724</v>
+        <v>2730</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2725</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2726</v>
+        <v>2732</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2728</v>
+        <v>2734</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2729</v>
+        <v>2735</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2730</v>
+        <v>2736</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2731</v>
+        <v>2737</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2732</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2733</v>
+        <v>2739</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2734</v>
+        <v>2740</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2735</v>
+        <v>2741</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2736</v>
+        <v>2742</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2737</v>
+        <v>2743</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2738</v>
+        <v>2744</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2739</v>
+        <v>2745</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2740</v>
+        <v>2746</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2741</v>
+        <v>2747</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2742</v>
+        <v>2748</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2743</v>
+        <v>2749</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2744</v>
+        <v>2750</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2745</v>
+        <v>2751</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2746</v>
+        <v>2752</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2747</v>
+        <v>2753</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2748</v>
+        <v>2754</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2749</v>
+        <v>2755</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2750</v>
+        <v>2756</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2751</v>
+        <v>2757</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2752</v>
+        <v>2758</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2753</v>
+        <v>2759</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2754</v>
+        <v>2760</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2755</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="80">
@@ -22093,16 +22222,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2756</v>
+        <v>2762</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2757</v>
+        <v>2763</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22147,16 +22276,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2758</v>
+        <v>2764</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2759</v>
+        <v>2765</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2760</v>
+        <v>2766</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22164,10 +22293,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2761</v>
+        <v>2767</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2762</v>
+        <v>2768</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22193,10 +22322,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2763</v>
+        <v>2769</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2764</v>
+        <v>2770</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22205,7 +22334,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2765</v>
+        <v>2771</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22250,24 +22379,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2766</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2767</v>
+        <v>2773</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2768</v>
+        <v>2774</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2769</v>
+        <v>2775</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2770</v>
+        <v>2776</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2732</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22324,7 +22453,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2771</v>
+        <v>2777</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22348,7 +22477,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2772</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22358,62 +22487,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2773</v>
+        <v>2779</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2774</v>
+        <v>2780</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2776</v>
+        <v>2782</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2777</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>2778</v>
+        <v>2784</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2779</v>
+        <v>2785</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2780</v>
+        <v>2786</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2781</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2782</v>
+        <v>2788</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2783</v>
+        <v>2789</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2785</v>
+        <v>2791</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2786</v>
+        <v>2792</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2787</v>
+        <v>2793</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2788</v>
+        <v>2794</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2789</v>
+        <v>2795</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22429,18 +22558,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2792</v>
+        <v>2798</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22452,54 +22581,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2794</v>
+        <v>2800</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2795</v>
+        <v>2801</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2796</v>
+        <v>2802</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2797</v>
+        <v>2803</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2798</v>
+        <v>2804</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2800</v>
+        <v>2806</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2801</v>
+        <v>2807</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2802</v>
+        <v>2808</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2803</v>
+        <v>2809</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2804</v>
+        <v>2810</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22512,31 +22641,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2806</v>
+        <v>2812</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2807</v>
+        <v>2813</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2808</v>
+        <v>2814</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2809</v>
+        <v>2815</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2810</v>
+        <v>2816</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2811</v>
+        <v>2817</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2812</v>
+        <v>2818</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22549,31 +22678,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2814</v>
+        <v>2820</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2816</v>
+        <v>2822</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22586,31 +22715,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2817</v>
+        <v>2823</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2818</v>
+        <v>2824</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2819</v>
+        <v>2825</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2820</v>
+        <v>2826</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2821</v>
+        <v>2827</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2822</v>
+        <v>2828</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2823</v>
+        <v>2829</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2824</v>
+        <v>2830</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22623,31 +22752,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2825</v>
+        <v>2831</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2826</v>
+        <v>2832</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2827</v>
+        <v>2833</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2828</v>
+        <v>2834</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2829</v>
+        <v>2835</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2830</v>
+        <v>2836</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2831</v>
+        <v>2837</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2832</v>
+        <v>2838</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22660,100 +22789,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2833</v>
+        <v>2839</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2834</v>
+        <v>2840</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2835</v>
+        <v>2841</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2836</v>
+        <v>2842</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2837</v>
+        <v>2843</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2838</v>
+        <v>2844</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2839</v>
+        <v>2845</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2840</v>
+        <v>2846</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2841</v>
+        <v>2847</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2842</v>
+        <v>2848</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2843</v>
+        <v>2849</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2844</v>
+        <v>2850</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2846</v>
+        <v>2852</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2849</v>
+        <v>2855</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>2851</v>
+        <v>2857</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22766,123 +22895,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2853</v>
+        <v>2859</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2854</v>
+        <v>2860</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2855</v>
+        <v>2861</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2856</v>
+        <v>2862</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2857</v>
+        <v>2863</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2858</v>
+        <v>2864</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2861</v>
+        <v>2867</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2862</v>
+        <v>2868</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2864</v>
+        <v>2870</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2865</v>
+        <v>2871</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2865</v>
+        <v>2871</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2867</v>
+        <v>2873</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2868</v>
+        <v>2874</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2870</v>
+        <v>2876</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2871</v>
+        <v>2877</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2872</v>
+        <v>2878</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2873</v>
+        <v>2879</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2874</v>
+        <v>2880</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -22895,192 +23024,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2875</v>
+        <v>2881</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2876</v>
+        <v>2882</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2877</v>
+        <v>2883</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2878</v>
+        <v>2884</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2879</v>
+        <v>2885</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2880</v>
+        <v>2886</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2881</v>
+        <v>2887</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2882</v>
+        <v>2888</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2883</v>
+        <v>2889</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2884</v>
+        <v>2890</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2885</v>
+        <v>2891</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2886</v>
+        <v>2892</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2887</v>
+        <v>2893</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2888</v>
+        <v>2894</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2889</v>
+        <v>2895</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2890</v>
+        <v>2896</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2891</v>
+        <v>2897</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2892</v>
+        <v>2898</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2893</v>
+        <v>2899</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2894</v>
+        <v>2900</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2895</v>
+        <v>2901</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2896</v>
+        <v>2902</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2897</v>
+        <v>2903</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2899</v>
+        <v>2905</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2900</v>
+        <v>2906</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2901</v>
+        <v>2907</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2902</v>
+        <v>2908</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2903</v>
+        <v>2909</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2904</v>
+        <v>2910</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2906</v>
+        <v>2912</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2907</v>
+        <v>2913</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2908</v>
+        <v>2914</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2909</v>
+        <v>2915</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2910</v>
+        <v>2916</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23093,31 +23222,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2911</v>
+        <v>2917</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2912</v>
+        <v>2918</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2913</v>
+        <v>2919</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2914</v>
+        <v>2920</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2916</v>
+        <v>2922</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2917</v>
+        <v>2923</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2918</v>
+        <v>2924</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23130,31 +23259,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2919</v>
+        <v>2925</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2921</v>
+        <v>2927</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23167,54 +23296,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2922</v>
+        <v>2928</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2923</v>
+        <v>2929</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2924</v>
+        <v>2930</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2925</v>
+        <v>2931</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2926</v>
+        <v>2932</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2927</v>
+        <v>2933</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2928</v>
+        <v>2934</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2929</v>
+        <v>2935</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2930</v>
+        <v>2936</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2931</v>
+        <v>2937</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2932</v>
+        <v>2938</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2933</v>
+        <v>2939</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23227,28 +23356,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2934</v>
+        <v>2940</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2936</v>
+        <v>2942</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2937</v>
+        <v>2943</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2938</v>
+        <v>2944</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2937</v>
+        <v>2943</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2939</v>
+        <v>2945</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23264,31 +23393,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2940</v>
+        <v>2946</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2942</v>
+        <v>2948</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2943</v>
+        <v>2949</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2944</v>
+        <v>2950</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2945</v>
+        <v>2951</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2946</v>
+        <v>2952</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2947</v>
+        <v>2953</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23301,31 +23430,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2948</v>
+        <v>2954</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2949</v>
+        <v>2955</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2949</v>
+        <v>2955</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2950</v>
+        <v>2956</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2949</v>
+        <v>2955</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2949</v>
+        <v>2955</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2951</v>
+        <v>2957</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23338,31 +23467,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2952</v>
+        <v>2958</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2953</v>
+        <v>2959</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2954</v>
+        <v>2960</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2956</v>
+        <v>2962</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2957</v>
+        <v>2963</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2958</v>
+        <v>2964</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2959</v>
+        <v>2965</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23375,28 +23504,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2960</v>
+        <v>2966</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2961</v>
+        <v>2967</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2962</v>
+        <v>2968</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2963</v>
+        <v>2969</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2964</v>
+        <v>2970</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2965</v>
+        <v>2971</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2966</v>
+        <v>2972</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2967</v>
+        <v>2973</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23409,31 +23538,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2968</v>
+        <v>2974</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2969</v>
+        <v>2975</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2970</v>
+        <v>2976</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2971</v>
+        <v>2977</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2972</v>
+        <v>2978</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2973</v>
+        <v>2979</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2974</v>
+        <v>2980</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2975</v>
+        <v>2981</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23446,54 +23575,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2976</v>
+        <v>2982</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2977</v>
+        <v>2983</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2978</v>
+        <v>2984</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2979</v>
+        <v>2985</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2980</v>
+        <v>2986</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2981</v>
+        <v>2987</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2982</v>
+        <v>2988</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2983</v>
+        <v>2989</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2984</v>
+        <v>2990</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2985</v>
+        <v>2991</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23506,82 +23635,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2986</v>
+        <v>2992</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2987</v>
+        <v>2993</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2987</v>
+        <v>2993</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2988</v>
+        <v>2994</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2989</v>
+        <v>2995</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2990</v>
+        <v>2996</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>2991</v>
+        <v>2997</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>2992</v>
+        <v>2998</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>2993</v>
+        <v>2999</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>2994</v>
+        <v>3000</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>2995</v>
+        <v>3001</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>2996</v>
+        <v>3002</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>2997</v>
+        <v>3003</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>2998</v>
+        <v>3004</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23589,38 +23718,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>2999</v>
+        <v>3005</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3001</v>
+        <v>3007</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>3002</v>
+        <v>3008</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>3003</v>
+        <v>3009</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>3004</v>
+        <v>3010</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>3005</v>
+        <v>3011</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>3001</v>
+        <v>3007</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>3006</v>
+        <v>3012</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23633,100 +23762,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3007</v>
+        <v>3013</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3008</v>
+        <v>3014</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3009</v>
+        <v>3015</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3010</v>
+        <v>3016</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3011</v>
+        <v>3017</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3012</v>
+        <v>3018</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3013</v>
+        <v>3019</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3014</v>
+        <v>3020</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3015</v>
+        <v>3021</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3016</v>
+        <v>3022</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3017</v>
+        <v>3023</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3018</v>
+        <v>3024</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>3019</v>
+        <v>3025</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3020</v>
+        <v>3026</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3021</v>
+        <v>3027</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3022</v>
+        <v>3028</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3023</v>
+        <v>3029</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3024</v>
+        <v>3030</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3025</v>
+        <v>3031</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3026</v>
+        <v>3032</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23739,31 +23868,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3027</v>
+        <v>3033</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3029</v>
+        <v>3035</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3030</v>
+        <v>3036</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23776,31 +23905,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3031</v>
+        <v>3037</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3033</v>
+        <v>3039</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3034</v>
+        <v>3040</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23813,100 +23942,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3035</v>
+        <v>3041</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3036</v>
+        <v>3042</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3037</v>
+        <v>3043</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3038</v>
+        <v>3044</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3039</v>
+        <v>3045</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3040</v>
+        <v>3046</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3041</v>
+        <v>3047</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3042</v>
+        <v>3048</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3043</v>
+        <v>3049</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3044</v>
+        <v>3050</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3045</v>
+        <v>3051</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3046</v>
+        <v>3052</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3047</v>
+        <v>3053</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3048</v>
+        <v>3054</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3049</v>
+        <v>3055</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>3050</v>
+        <v>3056</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3051</v>
+        <v>3057</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3052</v>
+        <v>3058</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>3053</v>
+        <v>3059</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>3054</v>
+        <v>3060</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>3055</v>
+        <v>3061</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>3051</v>
+        <v>3057</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>3056</v>
+        <v>3062</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -23919,123 +24048,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3057</v>
+        <v>3063</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3058</v>
+        <v>3064</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3059</v>
+        <v>3065</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3060</v>
+        <v>3066</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3061</v>
+        <v>3067</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3062</v>
+        <v>3068</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3063</v>
+        <v>3069</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3064</v>
+        <v>3070</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3065</v>
+        <v>3071</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3066</v>
+        <v>3072</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3067</v>
+        <v>3073</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3069</v>
+        <v>3075</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3070</v>
+        <v>3076</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3071</v>
+        <v>3077</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3072</v>
+        <v>3078</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3073</v>
+        <v>3079</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3074</v>
+        <v>3080</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3075</v>
+        <v>3081</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3076</v>
+        <v>3082</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3077</v>
+        <v>3083</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24048,31 +24177,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>3078</v>
+        <v>3084</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3079</v>
+        <v>3085</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3081</v>
+        <v>3087</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3082</v>
+        <v>3088</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>3083</v>
+        <v>3089</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24085,60 +24214,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3084</v>
+        <v>3090</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3085</v>
+        <v>3091</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3085</v>
+        <v>3091</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3086</v>
+        <v>3092</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3085</v>
+        <v>3091</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3086</v>
+        <v>3092</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3085</v>
+        <v>3091</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3087</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3088</v>
+        <v>3094</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3089</v>
+        <v>3095</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3090</v>
+        <v>3096</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3091</v>
+        <v>3097</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3092</v>
+        <v>3098</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>3089</v>
+        <v>3095</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>3093</v>
+        <v>3099</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3094</v>
+        <v>3100</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24151,18 +24280,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3095</v>
+        <v>3101</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3096</v>
+        <v>3102</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24174,19 +24303,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3098</v>
+        <v>3104</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3099</v>
+        <v>3105</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24198,7 +24327,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3100</v>
+        <v>3106</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24211,31 +24340,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3101</v>
+        <v>3107</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3102</v>
+        <v>3108</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3103</v>
+        <v>3109</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3104</v>
+        <v>3110</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3106</v>
+        <v>3112</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3107</v>
+        <v>3113</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3108</v>
+        <v>3114</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24248,16 +24377,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3109</v>
+        <v>3115</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3110</v>
+        <v>3116</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24272,7 +24401,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3110</v>
+        <v>3116</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24285,51 +24414,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3111</v>
+        <v>3117</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3112</v>
+        <v>3118</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3113</v>
+        <v>3119</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3114</v>
+        <v>3120</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3115</v>
+        <v>3121</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3117</v>
+        <v>3123</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3118</v>
+        <v>3124</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24389,10 +24518,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3119</v>
+        <v>3125</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24405,13 +24534,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3120</v>
+        <v>3126</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3121</v>
+        <v>3127</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24424,13 +24553,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3122</v>
+        <v>3128</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3123</v>
+        <v>3129</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24443,28 +24572,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3124</v>
+        <v>3130</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3126</v>
+        <v>3132</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3127</v>
+        <v>3133</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3128</v>
+        <v>3134</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3129</v>
+        <v>3135</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3130</v>
+        <v>3136</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24478,25 +24607,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3131</v>
+        <v>3137</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3132</v>
+        <v>3138</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3133</v>
+        <v>3139</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3134</v>
+        <v>3140</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3135</v>
+        <v>3141</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3136</v>
+        <v>3142</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24510,36 +24639,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3137</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3138</v>
+        <v>3144</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3139</v>
+        <v>3145</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3140</v>
+        <v>3146</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3141</v>
+        <v>3147</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3142</v>
+        <v>3148</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3143</v>
+        <v>3149</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3144</v>
+        <v>3150</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3145</v>
+        <v>3151</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24552,31 +24681,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2919</v>
+        <v>2925</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3146</v>
+        <v>3152</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3147</v>
+        <v>3153</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3148</v>
+        <v>3154</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3149</v>
+        <v>3155</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3150</v>
+        <v>3156</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2984</v>
+        <v>2990</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3151</v>
+        <v>3157</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24589,25 +24718,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2980</v>
+        <v>2986</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3152</v>
+        <v>3158</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2981</v>
+        <v>2987</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2982</v>
+        <v>2988</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2983</v>
+        <v>2989</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3153</v>
+        <v>3159</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24644,11 +24773,12 @@
     <col customWidth="1" min="1" max="1" width="44.43"/>
     <col customWidth="1" min="2" max="2" width="84.43"/>
     <col customWidth="1" min="3" max="3" width="5.14"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="3.86"/>
-    <col customWidth="1" min="6" max="6" width="54.86"/>
-    <col customWidth="1" min="7" max="7" width="42.0"/>
-    <col customWidth="1" min="8" max="10" width="11.71"/>
+    <col customWidth="1" min="4" max="5" width="11.71"/>
+    <col customWidth="1" min="6" max="6" width="3.86"/>
+    <col customWidth="1" min="7" max="7" width="54.86"/>
+    <col customWidth="1" min="8" max="8" width="42.0"/>
+    <col customWidth="1" min="9" max="9" width="11.71"/>
+    <col customWidth="1" min="10" max="10" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
@@ -24662,25 +24792,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1"/>
@@ -24688,7 +24818,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3154</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24699,54 +24829,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3155</v>
+        <v>3161</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3156</v>
+        <v>3162</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3158</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>3159</v>
+        <v>2288</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3162</v>
+        <v>3165</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3163</v>
+        <v>3168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3164</v>
+        <v>3169</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>3166</v>
+        <v>2288</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3174</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24754,39 +24884,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3170</v>
+        <v>3175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3173</v>
+        <v>3178</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24799,771 +24929,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>3174</v>
+        <v>2286</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3175</v>
+        <v>2287</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>3177</v>
+        <v>2288</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>3178</v>
+        <v>2289</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>3179</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>3180</v>
+      <c r="J14" s="1" t="s">
+        <v>2292</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>3181</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>3183</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="J17" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3191</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>3192</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="G19" s="4" t="s">
         <v>3194</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>3195</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="I19" s="1" t="s">
         <v>3196</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>3197</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3198</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>3200</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>3201</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>3203</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>3204</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>3205</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>3200</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>3201</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>3203</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>3204</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3205</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>3207</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>3208</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="G23" s="10" t="s">
         <v>3209</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>3210</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="I23" s="21" t="s">
         <v>3211</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>3212</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>3214</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>3215</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>3216</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>3217</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>3218</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>3219</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>3221</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>3222</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>3223</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>3224</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>3225</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>3226</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>3227</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>3228</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>3229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>3230</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>3231</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>3232</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>3233</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>3234</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>3235</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>3236</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>3237</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>3238</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>3234</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>3236</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>3237</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3238</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>3241</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>3243</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>3244</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>3245</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>3246</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>3247</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>3248</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>3249</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>3250</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>3251</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>3252</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>3253</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>3255</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3249</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>3256</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>3254</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>3257</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>3258</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3256</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>3259</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>3260</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>3261</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>3262</v>
+      <c r="J35" s="1" t="s">
+        <v>3255</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>3263</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>3265</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>3267</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>3268</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>3269</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>3270</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>3271</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>3272</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>3273</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>3274</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>3275</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>3276</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>3271</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>3272</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>3273</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>3274</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>3275</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3276</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>3278</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="F40" s="1" t="s">
         <v>3279</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>3280</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>3281</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>3283</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>3284</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>3285</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>3286</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>3287</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>3288</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>3289</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>3290</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>3291</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="F43" s="1" t="s">
         <v>3286</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>3287</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>3288</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>3289</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>3290</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>3291</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B44" s="11" t="s">
         <v>3293</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="C44" s="41"/>
+      <c r="F44" s="1" t="s">
         <v>3294</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>3295</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>3296</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>3297</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>3298</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>3299</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>3300</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="G46" s="4" t="s">
         <v>3301</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="H46" s="4" t="s">
         <v>3302</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="J46" s="1" t="s">
         <v>3303</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3304</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>3305</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>3307</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>3310</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>3311</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>3307</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>3310</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3311</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>3313</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>3315</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>3316</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>3318</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>3319</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>3321</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>3322</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>3323</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>3324</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>3325</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>3326</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>3327</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>3328</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>3329</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>3330</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>3331</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>3332</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>3333</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>3334</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>3335</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>3336</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>3337</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>3338</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>3339</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>3340</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>3341</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>3342</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>3341</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>3342</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>3343</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>3345</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>3346</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>3347</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>3348</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>3349</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>3350</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="J61" s="4" t="s">
         <v>3352</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="J62" s="4" t="s">
         <v>3355</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>3356</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25576,12 +25706,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25591,80 +25721,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>3174</v>
+        <v>2286</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>3175</v>
+        <v>2287</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>3177</v>
+        <v>2288</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>3178</v>
+        <v>2289</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>3179</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>3180</v>
+      <c r="J70" s="1" t="s">
+        <v>2292</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3155</v>
+        <v>3161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3156</v>
+        <v>3162</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>3158</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>3159</v>
+        <v>2288</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3162</v>
+        <v>3165</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3163</v>
+        <v>3168</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3164</v>
+        <v>3169</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>3166</v>
+        <v>2288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>3174</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25672,115 +25802,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>3359</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>3360</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="G74" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="H74" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="I74" s="1" t="s">
         <v>3363</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="J74" s="1" t="s">
         <v>3364</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>3365</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3366</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>3366</v>
+        <v>3365</v>
+      </c>
+      <c r="G75" s="37" t="s">
+        <v>3365</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>3367</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>3368</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>3369</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>3370</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="I76" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>3373</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>3374</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>3376</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="G77" s="4" t="s">
         <v>3377</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="H77" s="4" t="s">
         <v>3378</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="I77" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="J77" s="1" t="s">
         <v>3380</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>3381</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>3383</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="G78" s="4" t="s">
         <v>3384</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="H78" s="4" t="s">
         <v>3385</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="I78" s="1" t="s">
         <v>3386</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="J78" s="1" t="s">
         <v>3387</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>3388</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25790,80 +25920,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>3174</v>
+        <v>2286</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3175</v>
+        <v>2287</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>3176</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>3177</v>
+        <v>2288</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>3178</v>
+        <v>2289</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>3179</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>3180</v>
+      <c r="J83" s="1" t="s">
+        <v>2292</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3155</v>
+        <v>3161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3156</v>
+        <v>3162</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>3158</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>3159</v>
+        <v>2288</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3390</v>
+        <v>3164</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3162</v>
+        <v>3389</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>3167</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3163</v>
+        <v>3168</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3164</v>
+        <v>3169</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>3165</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>3166</v>
+        <v>2288</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>3174</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -25871,137 +26001,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>3392</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="G87" s="4" t="s">
+        <v>3390</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>3393</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>3391</v>
-      </c>
-      <c r="G87" s="4" t="s">
+      <c r="I87" s="1" t="s">
         <v>3394</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>3395</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>3396</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3397</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>3397</v>
+        <v>3396</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>3396</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>3183</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="E89" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3191</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>3186</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="F90" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3188</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3189</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3184</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3191</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>3192</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="G91" s="4" t="s">
         <v>3194</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>3195</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="I91" s="1" t="s">
         <v>3196</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>3197</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>3198</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="G92" s="4" t="s">
         <v>3400</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>3401</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="I92" s="1" t="s">
         <v>3402</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>3403</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>3404</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26009,7 +26139,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26019,94 +26149,94 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>3406</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="G98" s="4" t="s">
         <v>3407</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="H98" s="1" t="s">
         <v>3408</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="I98" s="1" t="s">
         <v>3409</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="J98" s="1" t="s">
         <v>3410</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>3411</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3412</v>
-      </c>
-      <c r="D99" s="4" t="s">
+        <v>3411</v>
+      </c>
+      <c r="G99" s="37" t="s">
+        <v>3411</v>
+      </c>
+      <c r="J99" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="F99" s="37" t="s">
-        <v>3412</v>
       </c>
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>3413</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>3406</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="J100" s="1" t="s">
         <v>3414</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>3408</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>3409</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>3416</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="G101" s="4" t="s">
         <v>3417</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>3418</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="I101" s="1" t="s">
         <v>3419</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>3420</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>3421</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26157,169 +26287,169 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>3426</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="C111" s="4" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>3427</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>2314</v>
-      </c>
-      <c r="D111" s="4" t="s">
+      <c r="H111" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>3426</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>3427</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="F112" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>3430</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>3431</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="I112" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="J112" s="1" t="s">
         <v>3433</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>3434</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>3435</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>3436</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="G113" s="4" t="s">
         <v>3437</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="H113" s="4" t="s">
         <v>3438</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="I113" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="J113" s="1" t="s">
         <v>3440</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>3441</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>3442</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="G114" s="4" t="s">
+        <v>3442</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>3442</v>
+      </c>
+      <c r="I114" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="J114" s="1" t="s">
         <v>3445</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>3443</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>3443</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>3446</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>3447</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>3448</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>3448</v>
-      </c>
       <c r="F115" s="4" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3448</v>
+        <v>3447</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>3447</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>3448</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>3449</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="G117" s="4" t="s">
         <v>3450</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="H117" s="4" t="s">
         <v>3451</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="J117" s="1" t="s">
         <v>3452</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>3453</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>3426</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>3427</v>
-      </c>
-      <c r="E118" s="4" t="s">
+      <c r="F118" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>3430</v>
+      </c>
+      <c r="H118" s="4" t="s">
         <v>3454</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>3455</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>3447</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>3448</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>
@@ -26339,7 +26469,7 @@
     <row r="134" ht="13.5" customHeight="1"/>
     <row r="135" ht="13.5" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A107:J107">
+  <conditionalFormatting sqref="A107:C107 D107:J107">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A107))=0</formula>
     </cfRule>
@@ -26347,11 +26477,11 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B13"/>
     <hyperlink r:id="rId2" ref="B75"/>
-    <hyperlink r:id="rId3" ref="F75"/>
+    <hyperlink r:id="rId3" ref="G75"/>
     <hyperlink r:id="rId4" ref="B88"/>
-    <hyperlink r:id="rId5" ref="F88"/>
+    <hyperlink r:id="rId5" ref="G88"/>
     <hyperlink r:id="rId6" ref="B99"/>
-    <hyperlink r:id="rId7" ref="F99"/>
+    <hyperlink r:id="rId7" ref="G99"/>
   </hyperlinks>
   <drawing r:id="rId8"/>
 </worksheet>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="3455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3458">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6098,6 +6098,15 @@
     <t>Använd enhetens distans</t>
   </si>
   <si>
+    <t>UI_Activity_List_ShowPausesAsResults</t>
+  </si>
+  <si>
+    <t>Show Pauses As Results</t>
+  </si>
+  <si>
+    <t>Visa pauser som resultat</t>
+  </si>
+  <si>
     <t>UI_Activity_List_ShowSummaryAverage</t>
   </si>
   <si>
@@ -6107,7 +6116,7 @@
     <t>Resumen Promedio</t>
   </si>
   <si>
-    <t>Medel sammanfattning</t>
+    <t>Medel sammanfattningsrad</t>
   </si>
   <si>
     <t>UI_Activity_List_ShowSummaryTotal</t>
@@ -6119,7 +6128,7 @@
     <t>Resumen Total</t>
   </si>
   <si>
-    <t>Totaler Sammanfattning</t>
+    <t>Totaler sammanfattningsrad</t>
   </si>
   <si>
     <t>UI_Activity_List_AddInBound</t>
@@ -19018,222 +19027,220 @@
         <v>2024</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="19" t="s">
-        <v>2025</v>
-      </c>
+      <c r="F47" s="19"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="J47" s="14" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="K47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>2027</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>2028</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="19" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="14" t="s">
+        <v>2029</v>
+      </c>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
         <v>2030</v>
       </c>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="19" t="s">
+      <c r="B49" s="5" t="s">
         <v>2031</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2032</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="19" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="J49" s="14" t="s">
         <v>2033</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="19" t="s">
         <v>2034</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="E50" s="12"/>
+      <c r="F50" s="19" t="s">
         <v>2036</v>
       </c>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="G50" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F51" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
-        <v>2037</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>2038</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="19" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="J51" s="5" t="s">
-        <v>2040</v>
-      </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>2041</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>2042</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="19" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="J52" s="5" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>2045</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>2046</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="19" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="J53" s="5" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="K53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>2049</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="19" t="s">
-        <v>81</v>
+        <v>2050</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="J54" s="5" t="s">
-        <v>79</v>
+        <v>2051</v>
       </c>
       <c r="K54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2051</v>
+        <v>79</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="19" t="s">
-        <v>2052</v>
+        <v>81</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="J55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
         <v>2053</v>
       </c>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="E56" s="4"/>
+      <c r="F56" s="19" t="s">
         <v>2055</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="J56" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
         <v>2057</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="B57" s="1" t="s">
         <v>2058</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>2059</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="F57" s="4" t="s">
         <v>2060</v>
       </c>
-      <c r="K56" s="1"/>
-    </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>2061</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>2062</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="19" t="s">
+      <c r="J57" s="1" t="s">
         <v>2063</v>
       </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="J57" s="14" t="s">
-        <v>2064</v>
-      </c>
-      <c r="K57" s="14"/>
+      <c r="K57" s="1"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>2065</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>2066</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="19" t="s">
-        <v>1957</v>
+        <v>2066</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -19243,186 +19250,186 @@
       <c r="K58" s="14"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>2068</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="E59" s="4"/>
       <c r="F59" s="19" t="s">
-        <v>2069</v>
-      </c>
-      <c r="G59" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="J59" s="14" t="s">
         <v>2070</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="K59" s="11"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>2071</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="F60" s="19" t="s">
         <v>2072</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="G60" s="4" t="s">
         <v>2073</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2074</v>
-      </c>
       <c r="H60" s="4" t="s">
-        <v>2075</v>
+        <v>401</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>2076</v>
+        <v>402</v>
       </c>
       <c r="K60" s="11"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="H61" s="4" t="s">
         <v>2078</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="19" t="s">
+      <c r="J61" s="11" t="s">
         <v>2079</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>2080</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>2081</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>2082</v>
       </c>
       <c r="K61" s="11"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="19" t="s">
+        <v>2082</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>2083</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="H62" s="4" t="s">
         <v>2084</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="J62" s="11" t="s">
         <v>2085</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>2086</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2087</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>2088</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>2089</v>
       </c>
       <c r="K62" s="11"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>2090</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="H63" s="4" t="s">
         <v>2091</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="J63" s="11" t="s">
         <v>2092</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="B64" s="11" t="s">
         <v>2094</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>2095</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>2096</v>
       </c>
-      <c r="K63" s="11"/>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>2097</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="H64" s="4" t="s">
         <v>2098</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="5" t="s">
+      <c r="J64" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="J64" s="14" t="s">
-        <v>2100</v>
-      </c>
-      <c r="K64" s="14"/>
+      <c r="K64" s="11"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>2101</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>2102</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="J65" s="14" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="K65" s="14"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>2105</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>2106</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="J66" s="14" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="K66" s="14"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>2109</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>2110</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
@@ -19430,356 +19437,359 @@
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="J67" s="32" t="s">
+      <c r="J67" s="14" t="s">
+        <v>2111</v>
+      </c>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="5" t="s">
+        <v>2113</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="J68" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K67" s="32"/>
-    </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F68" s="5" t="s">
+      <c r="K68" s="32"/>
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>2116</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="F69" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="K68" s="14"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="G69" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="J69" s="14" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G69" s="19" t="s">
+      <c r="B70" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="E70" s="19" t="s">
         <v>2122</v>
       </c>
-      <c r="J69" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1">
-      <c r="A71" s="1" t="s">
+      <c r="G70" s="19" t="s">
         <v>2124</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="H70" s="19" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>2126</v>
+      </c>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" ht="13.5" hidden="1" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>2125</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>2127</v>
-      </c>
-      <c r="G71" s="4" t="s">
+      <c r="C72" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>2129</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="F72" s="14" t="s">
         <v>2130</v>
       </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" ht="49.5" hidden="1" customHeight="1"/>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="G72" s="4" t="s">
         <v>2131</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="H72" s="4" t="s">
         <v>2132</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="J72" s="11" t="s">
         <v>2133</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" ht="49.5" hidden="1" customHeight="1"/>
+    <row r="74">
+      <c r="A74" s="1" t="s">
         <v>2134</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="B74" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="H73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>2136</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="F74" s="5" t="s">
         <v>2137</v>
       </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>2138</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>2139</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="5" t="s">
+      <c r="J74" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="J74" s="5" t="s">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="K74" s="5"/>
-    </row>
-    <row r="75" ht="25.5" customHeight="1">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="E75" s="4"/>
+      <c r="F75" s="5" t="s">
         <v>2143</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="J75" s="5" t="s">
         <v>2144</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="K75" s="5"/>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>2145</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="B76" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>2147</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="F76" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" ht="13.5" customHeight="1">
-      <c r="A76" s="1" t="s">
+      <c r="G76" s="4" t="s">
         <v>2149</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="H76" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="J76" s="11" t="s">
         <v>2151</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>2152</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>2153</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>2154</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>2155</v>
       </c>
       <c r="K76" s="11"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>2156</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="H77" s="4" t="s">
         <v>2157</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="J77" s="11" t="s">
         <v>2158</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>2160</v>
       </c>
-      <c r="H77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>2161</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="F78" s="5" t="s">
         <v>2162</v>
       </c>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" ht="25.5" customHeight="1">
-      <c r="A78" s="1" t="s">
+      <c r="G78" s="4" t="s">
         <v>2163</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="H78" s="4" t="s">
         <v>2164</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="J78" s="11" t="s">
         <v>2165</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="E79" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="F79" s="5" t="s">
         <v>2169</v>
       </c>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" ht="84.75" customHeight="1">
-      <c r="A79" s="1" t="s">
+      <c r="G79" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="H79" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>2172</v>
       </c>
-      <c r="F79" s="34" t="s">
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" ht="84.75" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>2173</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="B80" s="11" t="s">
         <v>2174</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="E80" s="11" t="s">
         <v>2175</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="F80" s="34" t="s">
         <v>2176</v>
       </c>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" ht="44.25" hidden="1" customHeight="1"/>
-    <row r="81" ht="1.5" customHeight="1">
-      <c r="A81" s="1" t="s">
+      <c r="G80" s="4" t="s">
         <v>2177</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="H80" s="4" t="s">
         <v>2178</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="J80" s="11" t="s">
         <v>2179</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" ht="44.25" hidden="1" customHeight="1"/>
+    <row r="82" ht="1.5" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="B82" s="11" t="s">
         <v>2181</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="F82" s="14" t="s">
         <v>2183</v>
       </c>
-      <c r="K81" s="11"/>
-    </row>
-    <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" s="19" t="s">
+      <c r="G82" s="4" t="s">
         <v>2184</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="H82" s="4" t="s">
         <v>2185</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="J82" s="11" t="s">
         <v>2186</v>
       </c>
-      <c r="J82" s="19" t="s">
-        <v>2187</v>
-      </c>
-      <c r="K82" s="19"/>
+      <c r="K82" s="11"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="19" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>2188</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="F83" s="19" t="s">
         <v>2189</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="J83" s="19" t="s">
         <v>2190</v>
-      </c>
-      <c r="J83" s="19" t="s">
-        <v>2191</v>
       </c>
       <c r="K83" s="19"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="19" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B84" s="19" t="s">
         <v>2192</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="F84" s="19" t="s">
         <v>2193</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="J84" s="19" t="s">
         <v>2194</v>
-      </c>
-      <c r="J84" s="19" t="s">
-        <v>2195</v>
       </c>
       <c r="K84" s="19"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="19" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B85" s="19" t="s">
         <v>2196</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="F85" s="19" t="s">
         <v>2197</v>
       </c>
-      <c r="F85" s="19" t="s">
+      <c r="J85" s="19" t="s">
         <v>2198</v>
-      </c>
-      <c r="J85" s="19" t="s">
-        <v>2199</v>
       </c>
       <c r="K85" s="19"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="19" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B86" s="19" t="s">
         <v>2200</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="F86" s="19" t="s">
         <v>2201</v>
       </c>
-      <c r="F86" s="19" t="s">
+      <c r="J86" s="19" t="s">
         <v>2202</v>
-      </c>
-      <c r="J86" s="19" t="s">
-        <v>2203</v>
       </c>
       <c r="K86" s="19"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>2204</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>2205</v>
@@ -19794,246 +19804,243 @@
         <v>2207</v>
       </c>
       <c r="B88" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>2208</v>
       </c>
-      <c r="F88" s="19" t="s">
+      <c r="J88" s="19" t="s">
         <v>2209</v>
-      </c>
-      <c r="J88" s="19" t="s">
-        <v>2210</v>
       </c>
       <c r="K88" s="19"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="19" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B89" s="19" t="s">
         <v>2211</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="F89" s="19" t="s">
         <v>2212</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="J89" s="19" t="s">
         <v>2213</v>
-      </c>
-      <c r="J89" s="19" t="s">
-        <v>2214</v>
       </c>
       <c r="K89" s="19"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="19" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B90" s="19" t="s">
         <v>2215</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="F90" s="19" t="s">
         <v>2216</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="J90" s="19" t="s">
         <v>2217</v>
       </c>
-      <c r="J90" s="19" t="s">
+      <c r="K90" s="19"/>
+    </row>
+    <row r="91" ht="18.75" customHeight="1">
+      <c r="A91" s="19" t="s">
         <v>2218</v>
       </c>
-      <c r="K90" s="19"/>
-    </row>
-    <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="4" t="s">
+      <c r="B91" s="19" t="s">
         <v>2219</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="F91" s="19" t="s">
         <v>2220</v>
       </c>
-      <c r="F91" s="19" t="s">
+      <c r="J91" s="19" t="s">
         <v>2221</v>
       </c>
-      <c r="J91" s="4" t="s">
+      <c r="K91" s="19"/>
+    </row>
+    <row r="92" ht="18.75" customHeight="1">
+      <c r="A92" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="K91" s="4"/>
-    </row>
-    <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>2223</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="F92" s="19" t="s">
         <v>2224</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="14" t="s">
+      <c r="J92" s="4" t="s">
         <v>2225</v>
       </c>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="J92" s="14" t="s">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" ht="18.75" customHeight="1">
+      <c r="A93" s="5" t="s">
         <v>2226</v>
       </c>
-      <c r="K92" s="14"/>
-    </row>
-    <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="14" t="s">
         <v>2227</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="E93" s="13"/>
+      <c r="F93" s="14" t="s">
         <v>2228</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="G93" s="12"/>
+      <c r="H93" s="13"/>
+      <c r="J93" s="14" t="s">
         <v>2229</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="K93" s="14"/>
+    </row>
+    <row r="94" ht="18.75" customHeight="1">
+      <c r="A94" s="1" t="s">
         <v>2230</v>
       </c>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13" t="s">
+      <c r="B94" s="11" t="s">
         <v>2231</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="E94" s="13" t="s">
         <v>2232</v>
       </c>
-      <c r="K93" s="11"/>
-    </row>
-    <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="5" t="s">
+      <c r="F94" s="14" t="s">
         <v>2233</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>1394</v>
-      </c>
-      <c r="E94" s="4"/>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="12"/>
+      <c r="H94" s="13" t="s">
         <v>2234</v>
       </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="J94" s="14" t="s">
+      <c r="J94" s="11" t="s">
         <v>2235</v>
       </c>
-      <c r="K94" s="14"/>
+      <c r="K94" s="11"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>2236</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>2237</v>
+        <v>1394</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="J95" s="14" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K95" s="14"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="5" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>2240</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>2241</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="J96" s="14" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K96" s="14"/>
+    </row>
+    <row r="97" ht="18.75" customHeight="1">
+      <c r="A97" s="5" t="s">
         <v>2243</v>
       </c>
-      <c r="K96" s="14"/>
-    </row>
-    <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>2244</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="E97" s="4"/>
+      <c r="F97" s="5" t="s">
         <v>2245</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="J97" s="14" t="s">
         <v>2246</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="K97" s="14"/>
+    </row>
+    <row r="98" ht="18.75" customHeight="1">
+      <c r="A98" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13" t="s">
+      <c r="B98" s="11" t="s">
         <v>2248</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="E98" s="13" t="s">
         <v>2249</v>
       </c>
-      <c r="K97" s="11"/>
-    </row>
-    <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" s="5" t="s">
+      <c r="F98" s="14" t="s">
         <v>2250</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="G98" s="12"/>
+      <c r="H98" s="13" t="s">
         <v>2251</v>
       </c>
-      <c r="E98" s="19"/>
-      <c r="F98" s="5" t="s">
+      <c r="J98" s="11" t="s">
         <v>2252</v>
       </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="J98" s="14" t="s">
-        <v>2253</v>
-      </c>
-      <c r="K98" s="14"/>
+      <c r="K98" s="11"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>2254</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>2255</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="5" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="J99" s="14" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="K99" s="14"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="5" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>2258</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>2259</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="5" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="J100" s="14" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K100" s="14"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>2262</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="E101" s="19"/>
+      <c r="F101" s="5" t="s">
         <v>2263</v>
-      </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19" t="s">
-        <v>2264</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="J101" s="14" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="K101" s="14"/>
     </row>
@@ -20044,403 +20051,421 @@
       <c r="B102" s="5" t="s">
         <v>2266</v>
       </c>
-      <c r="E102" s="4"/>
+      <c r="E102" s="19"/>
       <c r="F102" s="19" t="s">
         <v>2267</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="J102" s="5" t="s">
+      <c r="J102" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="K102" s="14"/>
+    </row>
+    <row r="103" ht="18.75" customHeight="1">
+      <c r="A103" s="5" t="s">
         <v>2268</v>
       </c>
-      <c r="K102" s="5"/>
-    </row>
-    <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="5" t="s">
         <v>2269</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="E103" s="4"/>
+      <c r="F103" s="19" t="s">
         <v>2270</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="J103" s="5" t="s">
         <v>2271</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="K103" s="5"/>
+    </row>
+    <row r="104" ht="18.75" customHeight="1">
+      <c r="A104" s="1" t="s">
         <v>2272</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4" t="s">
+      <c r="B104" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="J103" s="11" t="s">
+      <c r="E104" s="4" t="s">
         <v>2274</v>
       </c>
-      <c r="K103" s="11"/>
-    </row>
-    <row r="104" ht="1.5" customHeight="1">
-      <c r="A104" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="G104" s="4"/>
+      <c r="H104" s="4" t="s">
         <v>2276</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="J104" s="11" t="s">
         <v>2277</v>
       </c>
-      <c r="F104" s="14" t="s">
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" ht="1.5" customHeight="1">
+      <c r="A105" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="B105" s="11" t="s">
         <v>2279</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="J104" s="11" t="s">
+      <c r="F105" s="14" t="s">
         <v>2281</v>
       </c>
-      <c r="K104" s="11"/>
-    </row>
-    <row r="105" ht="13.5" customHeight="1">
-      <c r="A105" s="5" t="s">
+      <c r="G105" s="4" t="s">
         <v>2282</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="H105" s="4" t="s">
         <v>2283</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="33" t="s">
+      <c r="J105" s="11" t="s">
         <v>2284</v>
       </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="J105" s="5" t="s">
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" ht="13.5" customHeight="1">
+      <c r="A106" s="5" t="s">
         <v>2285</v>
       </c>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="14" t="s">
         <v>2286</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="33" t="s">
         <v>2287</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="J106" s="5" t="s">
         <v>2288</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="K106" s="5"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>2292</v>
       </c>
-    </row>
-    <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="5" t="s">
+      <c r="G107" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="H107" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="33" t="s">
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="J107" s="5" t="s">
-        <v>2296</v>
-      </c>
-      <c r="K107" s="5"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>2297</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>2298</v>
       </c>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="33" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="J108" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>2301</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>2302</v>
       </c>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="33" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="J109" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K109" s="30"/>
+      <c r="J109" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="K109" s="5"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B110" s="11" t="s">
+      <c r="A110" s="5" t="s">
         <v>2304</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E110" s="4" t="s">
+      <c r="B110" s="14" t="s">
         <v>2305</v>
       </c>
+      <c r="C110" s="4"/>
+      <c r="E110" s="4"/>
       <c r="F110" s="33" t="s">
         <v>2306</v>
       </c>
-      <c r="G110" s="4" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="J110" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K110" s="30"/>
+    </row>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>2307</v>
-      </c>
-      <c r="H110" s="4" t="s">
-        <v>2308</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K110" s="1"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B111" s="30" t="s">
-        <v>2309</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F111" s="35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G111" s="17" t="s">
+      <c r="E111" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="F111" s="33" t="s">
+        <v>2309</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>2310</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>2311</v>
       </c>
-      <c r="I111" s="18"/>
-      <c r="J111" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K111" s="30"/>
+      <c r="J111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>440</v>
+      <c r="A112" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>2312</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="D112" s="18"/>
+      <c r="E112" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>2313</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>2314</v>
+      </c>
+      <c r="I112" s="18"/>
+      <c r="J112" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K112" s="30"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>2312</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>2313</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>2314</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K112" s="1"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="4" t="s">
-        <v>2316</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>2309</v>
-      </c>
-      <c r="F113" s="19" t="s">
+      <c r="F114" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="J113" s="32" t="s">
+      <c r="J114" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K113" s="32"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>2317</v>
-      </c>
+      <c r="K114" s="32"/>
     </row>
     <row r="116">
       <c r="A116" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="H116" s="4" t="s">
+      <c r="H117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I116" s="4" t="s">
+      <c r="I117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="J116" s="4" t="s">
+      <c r="J117" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="K116" s="4"/>
-    </row>
-    <row r="117" hidden="1"/>
-    <row r="118" hidden="1">
-      <c r="A118" s="1" t="s">
-        <v>2318</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>2319</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>2320</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>2321</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>2322</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>2324</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>2325</v>
-      </c>
-      <c r="K118" s="11"/>
-    </row>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" hidden="1"/>
     <row r="119" hidden="1">
       <c r="A119" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>2326</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="H119" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>2320</v>
-      </c>
-      <c r="E119" s="11" t="s">
+      <c r="J119" s="11" t="s">
         <v>2328</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>2329</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>2330</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>2331</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>2332</v>
       </c>
       <c r="K119" s="11"/>
     </row>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G120" s="11" t="s">
         <v>2333</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="H120" s="4" t="s">
         <v>2334</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="J120" s="11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" hidden="1">
+      <c r="A121" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="E120" s="12"/>
-      <c r="F120" s="34" t="s">
-        <v>2335</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>2336</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>2337</v>
-      </c>
-      <c r="J120" s="11" t="s">
+      <c r="E121" s="12"/>
+      <c r="F121" s="34" t="s">
         <v>2338</v>
       </c>
-      <c r="K120" s="11"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1"/>
+      <c r="G121" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>2340</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>2341</v>
+      </c>
+      <c r="K121" s="11"/>
+    </row>
     <row r="186" ht="15.75" customHeight="1"/>
     <row r="187" ht="15.75" customHeight="1"/>
     <row r="188" ht="15.75" customHeight="1"/>
-    <row r="213">
-      <c r="E213" s="36"/>
-      <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
-      <c r="I213" s="36"/>
-    </row>
-    <row r="216" ht="20.25" customHeight="1"/>
-    <row r="217">
-      <c r="E217" s="8"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="214">
+      <c r="E214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="36"/>
+    </row>
+    <row r="217" ht="20.25" customHeight="1"/>
+    <row r="218">
+      <c r="E218" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A116:K116">
+  <conditionalFormatting sqref="A117:K117">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A116))=0</formula>
+      <formula>LEN(TRIM(A117))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G105 H6:H9 I6:I105 J6:K101 H11:H105 J103:K105 D107:G113 H107:H113 I107:I113 J107:K113">
+  <conditionalFormatting sqref="D6:G106 H6:H9 I6:I106 J6:K102 H11:H106 J104:K106 D108:G114 H108:H114 I108:I114 J108:K114">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20511,7 +20536,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20537,20 +20562,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20562,464 +20587,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -21042,160 +21067,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21203,41 +21228,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21249,16 +21274,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21266,68 +21291,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21338,25 +21363,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="42">
@@ -21370,16 +21395,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21387,7 +21412,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21410,25 +21435,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="45">
@@ -21439,42 +21464,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="47">
@@ -21485,13 +21510,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21511,10 +21536,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21525,103 +21550,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21643,121 +21668,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21766,7 +21791,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21774,45 +21799,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>2656</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2654</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2650</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21820,140 +21845,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>2664</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2680</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="68">
@@ -21961,68 +21986,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22045,170 +22070,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="80">
@@ -22222,16 +22247,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22276,16 +22301,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22293,10 +22318,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22322,10 +22347,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22334,7 +22359,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22379,24 +22404,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22453,7 +22478,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22477,7 +22502,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22487,62 +22512,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2784</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>2785</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2781</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22558,18 +22583,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22581,54 +22606,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22641,31 +22666,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22678,31 +22703,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22715,31 +22740,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22752,31 +22777,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22789,100 +22814,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>2859</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2860</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2856</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2857</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2853</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22895,123 +22920,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23024,192 +23049,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23222,31 +23247,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23259,31 +23284,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23296,54 +23321,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2934</v>
+        <v>2937</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23356,28 +23381,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2942</v>
+        <v>2945</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23393,31 +23418,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23430,31 +23455,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23467,31 +23492,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23504,28 +23529,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23538,31 +23563,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23575,54 +23600,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23635,82 +23660,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23718,38 +23743,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>3013</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>3014</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3010</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>3011</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3007</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23762,100 +23787,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3015</v>
+        <v>3018</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23868,31 +23893,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23905,31 +23930,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23942,100 +23967,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="F58" s="11" t="s">
+        <v>3063</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3060</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>3061</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3057</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24048,123 +24073,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3064</v>
+        <v>3067</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3071</v>
+        <v>3074</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24177,31 +24202,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="G64" s="11" t="s">
+        <v>3092</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>3089</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>3086</v>
-      </c>
       <c r="I64" s="11" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24214,60 +24239,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="11" t="s">
+        <v>3101</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>3098</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>3095</v>
-      </c>
       <c r="H66" s="11" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24280,18 +24305,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24303,19 +24328,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24327,7 +24352,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24340,31 +24365,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24377,16 +24402,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24401,7 +24426,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24414,51 +24439,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24518,10 +24543,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24534,13 +24559,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24553,13 +24578,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24572,28 +24597,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24607,25 +24632,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24639,36 +24664,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24681,31 +24706,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24718,25 +24743,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24818,7 +24843,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24829,54 +24854,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24884,39 +24909,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24929,771 +24954,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3187</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3184</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>3205</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3200</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3201</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3202</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>3220</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>3217</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3232</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3234</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3236</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3242</v>
+        <v>3245</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3243</v>
+        <v>3246</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3248</v>
+        <v>3251</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3253</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>3254</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3248</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3249</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>3251</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3258</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3255</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3262</v>
+        <v>3265</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3263</v>
+        <v>3266</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3264</v>
+        <v>3267</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3268</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3270</v>
+        <v>3273</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3271</v>
+        <v>3274</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>3276</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>3270</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3272</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3273</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="C44" s="41"/>
       <c r="F44" s="1" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3303</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3305</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3306</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3307</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3308</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3352</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3353</v>
+        <v>3356</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25706,12 +25731,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25721,80 +25746,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25802,115 +25827,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25920,80 +25945,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26001,137 +26026,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3187</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>3184</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3187</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3188</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3189</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3184</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3191</v>
+        <v>3194</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3192</v>
+        <v>3195</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3193</v>
+        <v>3196</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26139,7 +26164,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26149,36 +26174,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26186,57 +26211,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26287,34 +26312,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26322,134 +26347,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="3459">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6102,6 +6102,9 @@
   </si>
   <si>
     <t>Show Pauses As Results</t>
+  </si>
+  <si>
+    <t>Mostrar pausas como resultados</t>
   </si>
   <si>
     <t>Visa pauser som resultat</t>
@@ -19027,69 +19030,71 @@
         <v>2024</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="19"/>
+      <c r="F47" s="19" t="s">
+        <v>2025</v>
+      </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="J47" s="14" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="K47" s="14"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="19" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="J48" s="14" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="K48" s="14"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="19" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="J49" s="14" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="K49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="19" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="19" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="K50" s="11"/>
     </row>
@@ -19119,61 +19124,61 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="19" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="J52" s="5" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="19" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="J53" s="5" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="K53" s="5"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="19" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="J54" s="5" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="K54" s="5"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>79</v>
@@ -19191,70 +19196,70 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="19" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="J56" s="5" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="K56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="19" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="J58" s="14" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="K58" s="14"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="19" t="s">
@@ -19263,7 +19268,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="J59" s="14" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="K59" s="14"/>
     </row>
@@ -19275,13 +19280,13 @@
         <v>397</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>401</v>
@@ -19293,13 +19298,13 @@
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>159</v>
@@ -19308,150 +19313,150 @@
         <v>160</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="K61" s="11"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="19" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="K62" s="11"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="K63" s="11"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="K64" s="11"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="J65" s="14" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="K65" s="14"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="J66" s="14" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="K66" s="14"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="J67" s="14" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="K67" s="14"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -19462,25 +19467,25 @@
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="K69" s="14"/>
     </row>
@@ -19489,735 +19494,735 @@
         <v>410</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="K70" s="5"/>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1"/>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>847</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="K72" s="11"/>
     </row>
     <row r="73" ht="49.5" hidden="1" customHeight="1"/>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="J75" s="5" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="K75" s="5"/>
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="K76" s="11"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="K77" s="11"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="K78" s="11"/>
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="K79" s="11"/>
     </row>
     <row r="80" ht="84.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="F80" s="34" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="K80" s="11"/>
     </row>
     <row r="81" ht="44.25" hidden="1" customHeight="1"/>
     <row r="82" ht="1.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="K82" s="11"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="J83" s="19" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="K83" s="19"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="K84" s="19"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="K85" s="19"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="K86" s="19"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="K87" s="19"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="K88" s="19"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="K89" s="19"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="K90" s="19"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="K91" s="19"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="K92" s="4"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="E93" s="13"/>
       <c r="F93" s="14" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="G93" s="12"/>
       <c r="H93" s="13"/>
       <c r="J93" s="14" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="K93" s="14"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="13" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="J94" s="11" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="K94" s="11"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>1394</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="J95" s="14" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="K95" s="14"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="J96" s="14" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="K96" s="14"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="J97" s="14" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="K97" s="14"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="G98" s="12"/>
       <c r="H98" s="13" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="K98" s="11"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="E99" s="19"/>
       <c r="F99" s="5" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="J99" s="14" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="K99" s="14"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="5" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="J100" s="14" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="K100" s="14"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="5" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="J101" s="14" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="K101" s="14"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="19" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="J102" s="14" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="K102" s="14"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="19" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="J103" s="5" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="K103" s="5"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="K104" s="11"/>
     </row>
     <row r="105" ht="1.5" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="K105" s="11"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
       <c r="A106" s="5" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="C106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="33" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="J106" s="5" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="K106" s="5"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="33" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="J108" s="5" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="33" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="J109" s="5" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="33" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -20231,22 +20236,22 @@
         <v>425</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F111" s="33" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>432</v>
@@ -20258,7 +20263,7 @@
         <v>433</v>
       </c>
       <c r="B112" s="30" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>427</v>
@@ -20271,10 +20276,10 @@
         <v>1410</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="I112" s="18"/>
       <c r="J112" s="30" t="s">
@@ -20293,16 +20298,16 @@
         <v>427</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>445</v>
@@ -20311,10 +20316,10 @@
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="F114" s="19" t="s">
         <v>1410</v>
@@ -20329,7 +20334,7 @@
         <v>1570</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="117">
@@ -20368,80 +20373,80 @@
     <row r="118" hidden="1"/>
     <row r="119" hidden="1">
       <c r="A119" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="K119" s="11"/>
     </row>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="K120" s="11"/>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1642</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="34" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="K121" s="11"/>
     </row>
@@ -20536,7 +20541,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20562,20 +20567,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20587,464 +20592,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -21067,160 +21072,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>2480</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2479</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>2478</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21228,41 +21233,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21274,16 +21279,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21291,68 +21296,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>2552</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>2551</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>2552</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2550</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21363,25 +21368,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="42">
@@ -21395,16 +21400,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21412,7 +21417,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21435,25 +21440,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="45">
@@ -21464,42 +21469,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="47">
@@ -21510,13 +21515,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21536,10 +21541,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21550,103 +21555,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21668,121 +21673,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21791,7 +21796,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21799,45 +21804,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>2656</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2658</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>2655</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2656</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2657</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21845,140 +21850,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>2668</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>2667</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>2687</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>2684</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>2685</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>2686</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="68">
@@ -21986,68 +21991,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22070,170 +22075,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="80">
@@ -22247,16 +22252,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22301,16 +22306,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22318,10 +22323,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22347,10 +22352,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22359,7 +22364,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22404,24 +22409,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22478,7 +22483,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22502,7 +22507,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22512,62 +22517,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22583,18 +22588,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22606,54 +22611,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22666,31 +22671,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22703,31 +22708,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>2825</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>2824</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22740,31 +22745,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22777,31 +22782,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22814,100 +22819,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>2859</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>2860</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2861</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2857</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>2858</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>2859</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2860</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2856</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22920,123 +22925,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23049,192 +23054,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23247,31 +23252,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23284,31 +23289,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>2930</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>2929</v>
-      </c>
       <c r="H33" s="11" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23321,54 +23326,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23381,28 +23386,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>2947</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>2946</v>
-      </c>
       <c r="H36" s="11" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23418,31 +23423,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23455,31 +23460,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>2959</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>2958</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23492,31 +23497,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23529,28 +23534,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23563,31 +23568,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23600,54 +23605,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23660,82 +23665,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23743,38 +23748,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>3012</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3013</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>3014</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>3015</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3011</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>3012</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>3013</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>3014</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3010</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23787,100 +23792,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23893,31 +23898,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>3038</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>3037</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23930,31 +23935,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23967,100 +23972,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3065</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3061</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>3062</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>3063</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>3064</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3060</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24073,123 +24078,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24202,31 +24207,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="E64" s="11" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>3092</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>3093</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>3090</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>3091</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>3092</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>3089</v>
-      </c>
       <c r="I64" s="11" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24239,60 +24244,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="E65" s="11" t="s">
+        <v>3096</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>3095</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>3094</v>
-      </c>
       <c r="G65" s="11" t="s">
+        <v>3096</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>3095</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>3094</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3101</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>3102</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>3099</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>3100</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>3101</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>3098</v>
-      </c>
       <c r="H66" s="11" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24305,18 +24310,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24328,19 +24333,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24352,7 +24357,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24365,31 +24370,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24402,16 +24407,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24426,7 +24431,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24439,51 +24444,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>3126</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>3125</v>
-      </c>
       <c r="F72" s="11" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24543,10 +24548,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24559,13 +24564,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24578,13 +24583,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24597,28 +24602,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24632,25 +24637,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24664,36 +24669,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24706,31 +24711,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24743,25 +24748,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24843,7 +24848,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24854,54 +24859,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24909,39 +24914,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24954,771 +24959,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3188</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3191</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>3208</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>3206</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>3207</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>3241</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>3240</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3259</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3258</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>3279</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>3273</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3276</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>3277</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>3278</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C44" s="41"/>
       <c r="F44" s="1" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>3314</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>3313</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>3346</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>3344</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>3345</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25731,12 +25736,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25746,80 +25751,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25827,115 +25832,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25945,80 +25950,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26026,137 +26031,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>3394</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>3395</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>3393</v>
-      </c>
       <c r="H87" s="4" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3193</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3188</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3191</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26164,7 +26169,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26174,36 +26179,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26211,57 +26216,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26312,34 +26317,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26347,134 +26352,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>3446</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>3445</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -6360,13 +6360,13 @@
     <t>UI_Activity_List_SwimLap</t>
   </si>
   <si>
-    <t>Swim - Pool</t>
+    <t>Splits - Swim</t>
   </si>
   <si>
     <t>Natación - Piscina</t>
   </si>
   <si>
-    <t>Simmning - Bassäng</t>
+    <t>Etapper - Simmning</t>
   </si>
   <si>
     <t>UI_Activity_List_SWOLF</t>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4291" uniqueCount="3459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="3462">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6966,6 +6966,15 @@
   </si>
   <si>
     <t>Prediktera tid för distans</t>
+  </si>
+  <si>
+    <t>UI_Settings_RouteTransparency</t>
+  </si>
+  <si>
+    <t>Route Transparency</t>
+  </si>
+  <si>
+    <t>Rutt genomskinlighet</t>
   </si>
   <si>
     <t>UI_Settings_StoppedCategoryOverride</t>
@@ -20202,275 +20211,292 @@
       </c>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="33" t="s">
-        <v>2303</v>
-      </c>
+      <c r="F109" s="33"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="J109" s="5" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="5" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>2305</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>2306</v>
       </c>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="33" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="J110" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K110" s="30"/>
+      <c r="J110" s="5" t="s">
+        <v>2307</v>
+      </c>
+      <c r="K110" s="5"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="5" t="s">
         <v>2308</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="B111" s="14" t="s">
         <v>2309</v>
       </c>
+      <c r="C111" s="4"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="33" t="s">
         <v>2310</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="J111" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K111" s="30"/>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>2311</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>2312</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>2313</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G112" s="17" t="s">
+      <c r="E112" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>2313</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>2314</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>2315</v>
       </c>
-      <c r="I112" s="18"/>
-      <c r="J112" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K112" s="30"/>
+      <c r="J112" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>440</v>
+      <c r="A113" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>2316</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="18"/>
+      <c r="E113" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="I113" s="18"/>
+      <c r="J113" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>2316</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>2317</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>2318</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>2320</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>2313</v>
-      </c>
-      <c r="F114" s="19" t="s">
+      <c r="F115" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="J114" s="32" t="s">
+      <c r="J115" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K114" s="32"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>2321</v>
-      </c>
+      <c r="K115" s="32"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" hidden="1"/>
-    <row r="119" hidden="1">
-      <c r="A119" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>2326</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>2327</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>2328</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>2329</v>
-      </c>
-      <c r="K119" s="11"/>
-    </row>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" hidden="1"/>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>2329</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>2330</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="H120" s="4" t="s">
         <v>2331</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E120" s="11" t="s">
+      <c r="J120" s="11" t="s">
         <v>2332</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>2333</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>2334</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>2335</v>
-      </c>
-      <c r="J120" s="11" t="s">
-        <v>2336</v>
       </c>
       <c r="K120" s="11"/>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>2335</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>2337</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="H121" s="4" t="s">
         <v>2338</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="J121" s="11" t="s">
+        <v>2339</v>
+      </c>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" hidden="1">
+      <c r="A122" s="1" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="34" t="s">
-        <v>2339</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>2340</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>2341</v>
-      </c>
-      <c r="J121" s="11" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="34" t="s">
         <v>2342</v>
       </c>
-      <c r="K121" s="11"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1"/>
+      <c r="G122" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>2344</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>2345</v>
+      </c>
+      <c r="K122" s="11"/>
+    </row>
     <row r="187" ht="15.75" customHeight="1"/>
     <row r="188" ht="15.75" customHeight="1"/>
     <row r="189" ht="15.75" customHeight="1"/>
-    <row r="214">
-      <c r="E214" s="36"/>
-      <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="36"/>
-    </row>
-    <row r="217" ht="20.25" customHeight="1"/>
-    <row r="218">
-      <c r="E218" s="8"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="215">
+      <c r="E215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="36"/>
+    </row>
+    <row r="218" ht="20.25" customHeight="1"/>
+    <row r="219">
+      <c r="E219" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A117:K117">
+  <conditionalFormatting sqref="A118:K118">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A117))=0</formula>
+      <formula>LEN(TRIM(A118))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G106 H6:H9 I6:I106 J6:K102 H11:H106 J104:K106 D108:G114 H108:H114 I108:I114 J108:K114">
+  <conditionalFormatting sqref="D6:G106 H6:H9 I6:I106 J6:K102 H11:H106 J104:K106 D108:G115 H108:H115 I108:I115 J108:K115">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20541,7 +20567,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20567,20 +20593,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20592,464 +20618,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -21072,160 +21098,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21233,41 +21259,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21279,16 +21305,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21296,68 +21322,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21368,25 +21394,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="42">
@@ -21400,16 +21426,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21417,7 +21443,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21440,25 +21466,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="45">
@@ -21469,42 +21495,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="47">
@@ -21515,13 +21541,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21541,10 +21567,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21555,103 +21581,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21673,121 +21699,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21796,7 +21822,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21804,45 +21830,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2657</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2658</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2654</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21850,140 +21876,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>2671</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>2665</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>2690</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="68">
@@ -21991,68 +22017,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22075,170 +22101,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="80">
@@ -22252,16 +22278,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22306,16 +22332,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22323,10 +22349,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22352,10 +22378,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22364,7 +22390,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22409,24 +22435,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22483,7 +22509,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22507,7 +22533,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22517,62 +22543,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2788</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>2789</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2785</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22588,18 +22614,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22611,54 +22637,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22671,31 +22697,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22708,31 +22734,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22745,31 +22771,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22782,31 +22808,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22819,100 +22845,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2860</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2861</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2857</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22925,123 +22951,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23054,192 +23080,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23252,31 +23278,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23289,31 +23315,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23326,54 +23352,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2934</v>
+        <v>2937</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2942</v>
+        <v>2945</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23386,28 +23412,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23423,31 +23449,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23460,31 +23486,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23497,31 +23523,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23534,28 +23560,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23568,31 +23594,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23605,54 +23631,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23665,82 +23691,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23748,38 +23774,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3011</v>
+        <v>3014</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>3013</v>
+        <v>3016</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>3017</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>3018</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3014</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>3015</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3011</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23792,100 +23818,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23898,31 +23924,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23935,31 +23961,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23972,100 +23998,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>3063</v>
+        <v>3066</v>
       </c>
       <c r="F58" s="11" t="s">
+        <v>3067</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3068</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3064</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>3065</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3061</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24078,123 +24104,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3071</v>
+        <v>3074</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24207,31 +24233,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3092</v>
+        <v>3095</v>
       </c>
       <c r="G64" s="11" t="s">
+        <v>3096</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>3093</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>3090</v>
-      </c>
       <c r="I64" s="11" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24244,60 +24270,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3101</v>
+        <v>3104</v>
       </c>
       <c r="F66" s="11" t="s">
+        <v>3105</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>3102</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>3099</v>
-      </c>
       <c r="H66" s="11" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24310,18 +24336,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24333,19 +24359,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24357,7 +24383,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24370,31 +24396,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24407,16 +24433,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24431,7 +24457,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24444,51 +24470,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24548,10 +24574,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24564,13 +24590,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24583,13 +24609,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24602,28 +24628,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24637,25 +24663,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24669,36 +24695,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24711,31 +24737,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24748,25 +24774,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24848,7 +24874,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24859,54 +24885,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24914,39 +24940,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24977,7 +25003,7 @@
         <v>2295</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>2296</v>
@@ -24985,745 +25011,745 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3191</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>3209</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3205</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3206</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3223</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>3224</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3220</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>3221</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>3243</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3240</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>3241</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3248</v>
+        <v>3251</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3249</v>
+        <v>3252</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3250</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3253</v>
+        <v>3256</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3257</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3257</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>3258</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3254</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>3255</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3261</v>
+        <v>3264</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3262</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3259</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3268</v>
+        <v>3271</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3270</v>
+        <v>3273</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3271</v>
+        <v>3274</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3277</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3279</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>3280</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>3274</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3276</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3277</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3279</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="C44" s="41"/>
       <c r="F44" s="1" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3302</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3303</v>
+        <v>3306</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3314</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>3315</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3312</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3314</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3353</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25736,12 +25762,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25769,7 +25795,7 @@
         <v>2295</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>2296</v>
@@ -25777,54 +25803,54 @@
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25832,115 +25858,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25968,7 +25994,7 @@
         <v>2295</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>2296</v>
@@ -25976,54 +26002,54 @@
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>2292</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26031,137 +26057,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3191</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3190</v>
+        <v>3193</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3196</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3191</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3193</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3188</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26169,7 +26195,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26179,36 +26205,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26216,57 +26242,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26317,34 +26343,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26352,134 +26378,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3458</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294" uniqueCount="3462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3458">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6355,18 +6355,6 @@
   </si>
   <si>
     <t>Typ av armtag</t>
-  </si>
-  <si>
-    <t>UI_Activity_List_SwimLap</t>
-  </si>
-  <si>
-    <t>Splits - Swim</t>
-  </si>
-  <si>
-    <t>Natación - Piscina</t>
-  </si>
-  <si>
-    <t>Etapper - Simmning</t>
   </si>
   <si>
     <t>UI_Activity_List_SWOLF</t>
@@ -19447,296 +19435,293 @@
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="J67" s="14" t="s">
+      <c r="J67" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="K67" s="32"/>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>2112</v>
       </c>
-      <c r="K67" s="14"/>
-    </row>
-    <row r="68" ht="13.5" customHeight="1">
-      <c r="A68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>2113</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>2114</v>
-      </c>
-      <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
         <v>2114</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="J68" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="K68" s="32"/>
-    </row>
-    <row r="69" ht="13.5" customHeight="1">
+      <c r="G68" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>2117</v>
+      </c>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2115</v>
+        <v>410</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2116</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>2117</v>
+        <v>2118</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>2119</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2118</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>2119</v>
-      </c>
-      <c r="H69" s="4" t="s">
         <v>2120</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="G69" s="19" t="s">
         <v>2121</v>
       </c>
-      <c r="K69" s="14"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="H69" s="19" t="s">
         <v>2122</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="J69" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" ht="13.5" hidden="1" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>2124</v>
       </c>
-      <c r="G70" s="19" t="s">
+      <c r="B71" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>2125</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="E71" s="4" t="s">
         <v>2126</v>
       </c>
-      <c r="J70" s="5" t="s">
+      <c r="F71" s="14" t="s">
         <v>2127</v>
       </c>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" ht="13.5" hidden="1" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1">
-      <c r="A72" s="1" t="s">
+      <c r="G71" s="4" t="s">
         <v>2128</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C72" s="1" t="s">
+      <c r="H71" s="4" t="s">
         <v>2129</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="J71" s="11" t="s">
         <v>2130</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" ht="49.5" hidden="1" customHeight="1"/>
+    <row r="73">
+      <c r="A73" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="B73" s="5" t="s">
         <v>2132</v>
       </c>
-      <c r="H72" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>2133</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="F73" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" ht="49.5" hidden="1" customHeight="1"/>
+      <c r="G73" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>2135</v>
+      <c r="A74" s="5" t="s">
+        <v>2138</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>2136</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>2137</v>
-      </c>
+        <v>2139</v>
+      </c>
+      <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
-        <v>2138</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>2139</v>
-      </c>
-      <c r="H74" s="4" t="s">
         <v>2140</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="J74" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="5" t="s">
+      <c r="K74" s="5"/>
+    </row>
+    <row r="75" ht="25.5" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>2144</v>
+      </c>
       <c r="F75" s="5" t="s">
-        <v>2144</v>
-      </c>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="J75" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="K75" s="5"/>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
+      <c r="G75" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>2148</v>
+      </c>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="K76" s="11"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" ht="13.5" customHeight="1">
+    <row r="78" ht="25.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>2162</v>
+        <v>2164</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>2165</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" ht="25.5" customHeight="1">
+    <row r="79" ht="84.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2167</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>2168</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F79" s="5" t="s">
         <v>2170</v>
       </c>
+      <c r="B79" s="11" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>2173</v>
+      </c>
       <c r="G79" s="4" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" ht="84.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>2174</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>2175</v>
-      </c>
-      <c r="E80" s="11" t="s">
-        <v>2176</v>
-      </c>
-      <c r="F80" s="34" t="s">
+    <row r="80" ht="44.25" hidden="1" customHeight="1"/>
+    <row r="81" ht="1.5" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="B81" s="11" t="s">
         <v>2178</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>2179</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="F81" s="14" t="s">
         <v>2180</v>
       </c>
-      <c r="K80" s="11"/>
-    </row>
-    <row r="81" ht="44.25" hidden="1" customHeight="1"/>
-    <row r="82" ht="1.5" customHeight="1">
-      <c r="A82" s="1" t="s">
+      <c r="G81" s="4" t="s">
         <v>2181</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="H81" s="4" t="s">
         <v>2182</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="J81" s="11" t="s">
         <v>2183</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" ht="18.75" customHeight="1">
+      <c r="A82" s="19" t="s">
         <v>2184</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="B82" s="19" t="s">
         <v>2185</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="F82" s="19" t="s">
         <v>2186</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="J82" s="19" t="s">
         <v>2187</v>
       </c>
-      <c r="K82" s="11"/>
+      <c r="K82" s="19"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="19" t="s">
@@ -19803,22 +19788,22 @@
         <v>2204</v>
       </c>
       <c r="B87" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="19" t="s">
         <v>2205</v>
       </c>
-      <c r="F87" s="19" t="s">
+      <c r="J87" s="19" t="s">
         <v>2206</v>
-      </c>
-      <c r="J87" s="19" t="s">
-        <v>2207</v>
       </c>
       <c r="K87" s="19"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="19" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B88" s="19" t="s">
         <v>2208</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>2209</v>
@@ -19859,81 +19844,84 @@
       <c r="K90" s="19"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="4" t="s">
         <v>2219</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="4" t="s">
         <v>2220</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>2221</v>
       </c>
-      <c r="J91" s="19" t="s">
+      <c r="J91" s="4" t="s">
         <v>2222</v>
       </c>
-      <c r="K91" s="19"/>
+      <c r="K91" s="4"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="5" t="s">
         <v>2223</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="14" t="s">
         <v>2224</v>
       </c>
-      <c r="F92" s="19" t="s">
+      <c r="E92" s="13"/>
+      <c r="F92" s="14" t="s">
         <v>2225</v>
       </c>
-      <c r="J92" s="4" t="s">
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
+      <c r="J92" s="14" t="s">
         <v>2226</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="14"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="11" t="s">
         <v>2228</v>
       </c>
-      <c r="E93" s="13"/>
+      <c r="E93" s="13" t="s">
+        <v>2229</v>
+      </c>
       <c r="F93" s="14" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c r="J93" s="14" t="s">
-        <v>2230</v>
-      </c>
-      <c r="K93" s="14"/>
+      <c r="H93" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>2232</v>
+      </c>
+      <c r="K93" s="11"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="1" t="s">
-        <v>2231</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>2232</v>
-      </c>
-      <c r="E94" s="13" t="s">
+      <c r="A94" s="5" t="s">
         <v>2233</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="B94" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="5" t="s">
         <v>2234</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13" t="s">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="J94" s="14" t="s">
         <v>2235</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>2236</v>
-      </c>
-      <c r="K94" s="11"/>
+      <c r="K94" s="14"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="5" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>2237</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>1394</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
@@ -19965,44 +19953,44 @@
       <c r="K96" s="14"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="11" t="s">
         <v>2245</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="5" t="s">
+      <c r="E97" s="13" t="s">
         <v>2246</v>
       </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="J97" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>2247</v>
       </c>
-      <c r="K97" s="14"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="13" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K97" s="11"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" s="1" t="s">
-        <v>2248</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E98" s="13" t="s">
+      <c r="A98" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="F98" s="14" t="s">
+      <c r="B98" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="G98" s="12"/>
-      <c r="H98" s="13" t="s">
+      <c r="E98" s="19"/>
+      <c r="F98" s="5" t="s">
         <v>2252</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="J98" s="14" t="s">
         <v>2253</v>
       </c>
-      <c r="K98" s="11"/>
+      <c r="K98" s="14"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="5" t="s">
@@ -20048,140 +20036,141 @@
         <v>2263</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="19" t="s">
         <v>2264</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="J101" s="14" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="K101" s="14"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>2266</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="E102" s="4"/>
+      <c r="F102" s="19" t="s">
         <v>2267</v>
-      </c>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19" t="s">
-        <v>2268</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="J102" s="14" t="s">
-        <v>2267</v>
-      </c>
-      <c r="K102" s="14"/>
+      <c r="J102" s="5" t="s">
+        <v>2268</v>
+      </c>
+      <c r="K102" s="5"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="1" t="s">
         <v>2269</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="19" t="s">
+      <c r="E103" s="4" t="s">
         <v>2271</v>
       </c>
+      <c r="F103" s="1" t="s">
+        <v>2272</v>
+      </c>
       <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="J103" s="5" t="s">
-        <v>2272</v>
-      </c>
-      <c r="K103" s="5"/>
-    </row>
-    <row r="104" ht="18.75" customHeight="1">
+      <c r="H103" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>2274</v>
+      </c>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" ht="1.5" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>2273</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>2274</v>
+        <v>2275</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>2276</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2275</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>2277</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>2279</v>
+      </c>
       <c r="H104" s="4" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" ht="1.5" customHeight="1">
-      <c r="A105" s="1" t="s">
-        <v>2279</v>
-      </c>
-      <c r="B105" s="11" t="s">
-        <v>2280</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>2281</v>
-      </c>
-      <c r="F105" s="14" t="s">
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="A105" s="5" t="s">
         <v>2282</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="B105" s="14" t="s">
         <v>2283</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="C105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="33" t="s">
         <v>2284</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="J105" s="5" t="s">
         <v>2285</v>
       </c>
-      <c r="K105" s="11"/>
-    </row>
-    <row r="106" ht="13.5" customHeight="1">
-      <c r="A106" s="5" t="s">
+      <c r="K105" s="5"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="C106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="33" t="s">
+      <c r="C106" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="J106" s="5" t="s">
+      <c r="F106" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="I106" s="1"/>
+      <c r="J106" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="F107" s="1" t="s">
+    </row>
+    <row r="107" ht="13.5" customHeight="1">
+      <c r="A107" s="5" t="s">
         <v>2293</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="B107" s="14" t="s">
         <v>2294</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="C107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="33" t="s">
         <v>2295</v>
       </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1" t="s">
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="J107" s="5" t="s">
         <v>2296</v>
       </c>
+      <c r="K107" s="5"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
@@ -20192,26 +20181,26 @@
       </c>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="33" t="s">
-        <v>2299</v>
-      </c>
+      <c r="F108" s="33"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="J108" s="5" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="K108" s="5"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
       <c r="A109" s="5" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>2301</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>2302</v>
       </c>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="33"/>
+      <c r="F109" s="33" t="s">
+        <v>2302</v>
+      </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="J109" s="5" t="s">
@@ -20233,270 +20222,251 @@
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="J110" s="5" t="s">
+      <c r="J110" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K110" s="30"/>
+    </row>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>2307</v>
       </c>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="5" t="s">
+      <c r="C111" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E111" s="4" t="s">
         <v>2308</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="F111" s="33" t="s">
         <v>2309</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="33" t="s">
+      <c r="G111" s="4" t="s">
         <v>2310</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="J111" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K111" s="30"/>
-    </row>
-    <row r="112" ht="13.5" customHeight="1">
-      <c r="A112" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="H111" s="4" t="s">
         <v>2311</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>2312</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>2312</v>
-      </c>
-      <c r="F112" s="33" t="s">
+      <c r="D112" s="18"/>
+      <c r="E112" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G112" s="17" t="s">
         <v>2313</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="H112" s="4" t="s">
         <v>2314</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K112" s="1"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K112" s="30"/>
     </row>
     <row r="113">
-      <c r="A113" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B113" s="30" t="s">
-        <v>2316</v>
+      <c r="A113" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F113" s="35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G113" s="17" t="s">
+      <c r="E113" s="4" t="s">
+        <v>2315</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>2316</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>2318</v>
       </c>
-      <c r="I113" s="18"/>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="F114" s="19" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J114" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K113" s="30"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="F114" s="5" t="s">
+      <c r="K114" s="32"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>2320</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>2321</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>2322</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K114" s="1"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>2323</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F115" s="19" t="s">
-        <v>1410</v>
-      </c>
-      <c r="J115" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="K115" s="32"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>1570</v>
+        <v>1571</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1571</v>
       </c>
       <c r="F117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" hidden="1"/>
+    <row r="119" hidden="1">
+      <c r="A119" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="E119" s="4" t="s">
         <v>2324</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" hidden="1"/>
+      <c r="F119" s="14" t="s">
+        <v>2325</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K119" s="11"/>
+    </row>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
-        <v>2325</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>2326</v>
+        <v>2329</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>2330</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2327</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>2328</v>
+        <v>2323</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>2331</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>2329</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>2330</v>
+        <v>2332</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>2333</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="K120" s="11"/>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="1" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>2327</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>2335</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>2336</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>2337</v>
+        <v>1642</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="34" t="s">
+        <v>2338</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>2339</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="K121" s="11"/>
     </row>
-    <row r="122" hidden="1">
-      <c r="A122" s="1" t="s">
-        <v>2340</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>2341</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="34" t="s">
-        <v>2342</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>2343</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>2344</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>2345</v>
-      </c>
-      <c r="K122" s="11"/>
-    </row>
+    <row r="186" ht="15.75" customHeight="1"/>
     <row r="187" ht="15.75" customHeight="1"/>
     <row r="188" ht="15.75" customHeight="1"/>
     <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="215">
-      <c r="E215" s="36"/>
-      <c r="G215" s="36"/>
-      <c r="H215" s="36"/>
-      <c r="I215" s="36"/>
-    </row>
-    <row r="218" ht="20.25" customHeight="1"/>
-    <row r="219">
-      <c r="E219" s="8"/>
+    <row r="214">
+      <c r="E214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="36"/>
+    </row>
+    <row r="217" ht="20.25" customHeight="1"/>
+    <row r="218">
+      <c r="E218" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A118:K118">
+  <conditionalFormatting sqref="A117:K117">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A118))=0</formula>
+      <formula>LEN(TRIM(A117))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G106 H6:H9 I6:I106 J6:K102 H11:H106 J104:K106 D108:G115 H108:H115 I108:I115 J108:K115">
+  <conditionalFormatting sqref="D6:G105 H6:H9 I6:I105 J6:K101 H11:H105 J103:K105 D107:G114 H107:H114 I107:I114 J107:K114">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20567,7 +20537,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20593,20 +20563,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20618,464 +20588,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2347</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>2348</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>2349</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="J7" s="11" t="s">
         <v>2350</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>2351</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2352</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>2353</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>2354</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>2352</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>2355</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="H8" s="4" t="s">
         <v>2356</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="J8" s="11" t="s">
         <v>2357</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>2358</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2359</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>2360</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>2361</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>2359</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2360</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>2362</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="H9" s="4" t="s">
         <v>2363</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="J9" s="11" t="s">
         <v>2364</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>2365</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>2366</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>2367</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>2368</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2366</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>2369</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="H10" s="4" t="s">
         <v>2370</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="J10" s="11" t="s">
         <v>2371</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>2372</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>2373</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>2374</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>2375</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>2376</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="H11" s="4" t="s">
         <v>2377</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="J11" s="11" t="s">
         <v>2378</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>2379</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2381</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>2382</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>2380</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2382</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2383</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>2384</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="J12" s="11" t="s">
         <v>2385</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>2386</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2387</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>2388</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>2389</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
+        <v>2386</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2387</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>2389</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>2390</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>2391</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="J13" s="11" t="s">
         <v>2392</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>2393</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>2395</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>2396</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2394</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>2397</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="H14" s="4" t="s">
         <v>2398</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="J14" s="11" t="s">
         <v>2399</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>2401</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>2402</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>2403</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
+        <v>2400</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>2401</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>2404</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>2405</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>2406</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>2407</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>2408</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>2409</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2414</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>2417</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="H18" s="4" t="s">
         <v>2418</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="J18" s="11" t="s">
         <v>2419</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2420</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>2421</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>2422</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>2423</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>2421</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="H19" s="4" t="s">
         <v>2425</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="J19" s="11" t="s">
         <v>2426</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2427</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>2428</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>2429</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>2430</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2430</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>2431</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="H20" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="J20" s="11" t="s">
         <v>2433</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>2434</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>2435</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>2436</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>2437</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>2435</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>2438</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="H21" s="4" t="s">
         <v>2439</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="J21" s="11" t="s">
         <v>2440</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>2441</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>2442</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>2443</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>2444</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>2442</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>2445</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="H22" s="4" t="s">
         <v>2446</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="J22" s="11" t="s">
         <v>2447</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>2448</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>2449</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>2450</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2449</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>2451</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>2452</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="H23" s="4" t="s">
         <v>2453</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="J23" s="11" t="s">
         <v>2454</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>2455</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>2456</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>2457</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>2458</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>2456</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2458</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>2459</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="H24" s="4" t="s">
         <v>2460</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="J24" s="11" t="s">
         <v>2461</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>2462</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>2463</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>2464</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>2463</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2464</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>2466</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="H25" s="4" t="s">
         <v>2467</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="J25" s="11" t="s">
         <v>2468</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>2469</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>2470</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>2471</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>2472</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>2473</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="H26" s="4" t="s">
         <v>2474</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="J26" s="11" t="s">
         <v>2475</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>2476</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>2477</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>2478</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>2479</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -21098,160 +21068,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>2486</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="H29" s="4" t="s">
         <v>2487</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>2488</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>2489</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>2490</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>2491</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>2492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>2492</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>2493</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="H30" s="4" t="s">
         <v>2494</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="J30" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>2496</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>2497</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>2498</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>2499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>2505</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>2506</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="H32" s="4" t="s">
+        <v>2495</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>2508</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>2509</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>2510</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>2499</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>2511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>2512</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="H33" s="4" t="s">
         <v>2513</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="J33" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>2515</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>2516</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>2517</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>2518</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>2517</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>2519</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>2520</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>2521</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>2522</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>2523</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>2524</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21259,41 +21229,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21305,16 +21275,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21322,68 +21292,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>2539</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="H38" s="4" t="s">
         <v>2540</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="J38" s="1" t="s">
         <v>2541</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>2542</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>2543</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>2544</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>2545</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>2546</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="H39" s="4" t="s">
         <v>2547</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="J39" s="1" t="s">
         <v>2548</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>2549</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>2550</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>2551</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>2552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>2550</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2554</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>2555</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>2556</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2554</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>2557</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21394,25 +21364,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>2556</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>2558</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>2559</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>2560</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>2561</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>2562</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>2563</v>
       </c>
     </row>
     <row r="42">
@@ -21426,16 +21396,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21443,7 +21413,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21466,25 +21436,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2566</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>2569</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="H44" s="4" t="s">
         <v>2570</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="J44" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>2573</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>2574</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>2575</v>
       </c>
     </row>
     <row r="45">
@@ -21495,42 +21465,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>2580</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>2583</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>2584</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>2585</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>2586</v>
       </c>
     </row>
     <row r="47">
@@ -21541,13 +21511,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21567,10 +21537,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21581,103 +21551,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>2596</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>2597</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>2600</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>2601</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>2602</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>2603</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>2604</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="H51" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="J51" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>2607</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2608</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>2609</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>2611</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="H52" s="4" t="s">
         <v>2612</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="J52" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>2614</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>2615</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>2616</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21699,121 +21669,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>2624</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>2625</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>2626</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="J55" s="1" t="s">
         <v>2628</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>2629</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>2630</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>2631</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>2633</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>2634</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>2635</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>2636</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>2637</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>2638</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>2639</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>2639</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>2640</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>2641</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>2642</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>2643</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>2644</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>2645</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>2646</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="J58" s="1" t="s">
         <v>2648</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>2649</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>2650</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>2651</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>2652</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21822,7 +21792,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21830,45 +21800,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>2654</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>2655</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>2656</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="H60" s="4" t="s">
         <v>2657</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>2658</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>2659</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2660</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2661</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21876,140 +21846,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>2667</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>2668</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>2668</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>2669</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2670</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>2671</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>2671</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>2672</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="H63" s="4" t="s">
         <v>2673</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="J63" s="1" t="s">
         <v>2674</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>2675</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>2676</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>2677</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>2678</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>2679</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="H64" s="4" t="s">
         <v>2680</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="J64" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>2682</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>2683</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>2684</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>2685</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>2683</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2685</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>2686</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>2687</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>2687</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>2688</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>2689</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>2690</v>
-      </c>
       <c r="J65" s="1" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>2690</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>2691</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="H66" s="4" t="s">
         <v>2692</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="J66" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>2694</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>2695</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>2696</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>2697</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J67" s="1" t="s">
         <v>2698</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>2698</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>2699</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>2700</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>2701</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>2702</v>
       </c>
     </row>
     <row r="68">
@@ -22017,68 +21987,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>2703</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="J68" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>2705</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>2706</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>2707</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22101,170 +22071,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>2724</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>2725</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="J73" s="1" t="s">
         <v>2727</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>2728</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>2729</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>2731</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2729</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>2732</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="J74" s="1" t="s">
         <v>2734</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>2735</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>2736</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>2737</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>2738</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>2739</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="H75" s="4" t="s">
         <v>2740</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="J75" s="1" t="s">
         <v>2741</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>2742</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>2743</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>2744</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>2746</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>2748</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>2749</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>2750</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>2751</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>2752</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>2753</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>2755</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>2756</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>2757</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2768</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="80">
@@ -22278,16 +22248,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22332,16 +22302,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22349,10 +22319,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22378,10 +22348,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22390,7 +22360,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22435,24 +22405,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22509,7 +22479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22533,7 +22503,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22543,62 +22513,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>2786</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>2788</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>2789</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>2790</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>2795</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>2796</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>2797</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>2798</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>2799</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>2800</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2801</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>2802</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22614,18 +22584,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22637,54 +22607,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>2810</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>2811</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>2812</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>2813</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>2814</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>2815</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>2816</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>2817</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>2818</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22697,31 +22667,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>2819</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>2820</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>2821</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>2822</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>2823</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2824</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>2825</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>2826</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22734,31 +22704,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22771,31 +22741,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>2830</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>2831</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>2832</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>2833</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>2834</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>2835</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>2836</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>2837</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22808,31 +22778,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>2836</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>2837</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>2838</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>2839</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>2840</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>2841</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>2842</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>2843</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>2844</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>2845</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22845,100 +22815,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>2857</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>2858</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>2859</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>2860</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>2861</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>2863</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2864</v>
-      </c>
       <c r="I18" s="11" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22951,123 +22921,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>2879</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>2880</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>2881</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>2882</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>2883</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>2884</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>2885</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>2886</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>2887</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23080,192 +23050,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>2916</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>2917</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>2918</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>2919</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>2920</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>2921</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>2922</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>2923</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23278,31 +23248,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>2924</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>2925</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>2926</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>2927</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>2928</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>2929</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>2930</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>2931</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23315,31 +23285,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23352,54 +23322,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>2939</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>2940</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>2941</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>2942</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>2943</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>2944</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>2945</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>2946</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23412,28 +23382,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>2947</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="G36" s="11" t="s">
+        <v>2946</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>2948</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>2949</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>2950</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>2951</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>2950</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>2952</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23449,31 +23419,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>2951</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>2953</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>2954</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>2955</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>2956</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>2957</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>2958</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>2959</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>2960</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23486,31 +23456,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23523,31 +23493,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>2964</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>2965</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>2966</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>2967</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>2968</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>2969</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>2970</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>2971</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>2972</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23560,28 +23530,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>2972</v>
+      </c>
+      <c r="F40" s="11" t="s">
         <v>2973</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>2974</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>2975</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>2976</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>2977</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>2978</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>2979</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>2980</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23594,31 +23564,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>2323</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>2979</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>2981</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>2982</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>2327</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>2983</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>2984</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>2985</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>2986</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>2987</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>2988</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23631,54 +23601,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23691,82 +23661,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23774,38 +23744,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>3013</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>3014</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D48" s="11" t="s">
+      <c r="H48" s="11" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>3015</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>3016</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>3017</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>3018</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3014</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>3019</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23818,100 +23788,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>3032</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>3033</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>3034</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>3035</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>3036</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>3037</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>3038</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>3039</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23924,31 +23894,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23961,31 +23931,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23998,100 +23968,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3062</v>
+      </c>
+      <c r="F58" s="11" t="s">
         <v>3063</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>3064</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D58" s="11" t="s">
+      <c r="H58" s="11" t="s">
+        <v>3060</v>
+      </c>
+      <c r="I58" s="11" t="s">
         <v>3065</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>3066</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>3068</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3064</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>3069</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24104,123 +24074,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24233,31 +24203,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>3090</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>3091</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>3092</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>3093</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>3094</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>3095</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>3096</v>
-      </c>
       <c r="H64" s="11" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24270,60 +24240,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F66" s="11" t="s">
         <v>3101</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="G66" s="11" t="s">
+        <v>3098</v>
+      </c>
+      <c r="H66" s="11" t="s">
         <v>3102</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D66" s="11" t="s">
+      <c r="I66" s="1" t="s">
         <v>3103</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>3104</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>3105</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>3102</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>3106</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>3107</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24336,18 +24306,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24359,19 +24329,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24383,7 +24353,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24396,31 +24366,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>3113</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>3114</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>3115</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>3116</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="I69" s="1" t="s">
         <v>3117</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>3118</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>3119</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>3120</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>3121</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24433,16 +24403,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24457,7 +24427,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24470,51 +24440,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24574,10 +24544,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24590,13 +24560,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24609,13 +24579,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24628,28 +24598,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>3136</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>3137</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>3138</v>
       </c>
-      <c r="C82" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>3139</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>3140</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>3141</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>3142</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>3143</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24663,25 +24633,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>3143</v>
+      </c>
+      <c r="F83" s="11" t="s">
         <v>3144</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="G83" s="4" t="s">
         <v>3145</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>3146</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>3147</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>3148</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>3149</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24695,36 +24665,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>3149</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>3150</v>
+      </c>
+      <c r="F85" s="11" t="s">
         <v>3151</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>3152</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>3153</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>3154</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>3155</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>3156</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>3157</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>3158</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24737,31 +24707,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>3158</v>
+      </c>
+      <c r="G86" s="11" t="s">
         <v>3159</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>2812</v>
-      </c>
-      <c r="D86" s="11" t="s">
+      <c r="H86" s="11" t="s">
+        <v>2993</v>
+      </c>
+      <c r="I86" s="11" t="s">
         <v>3160</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>3161</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>3162</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>3163</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>2997</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>3164</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24774,25 +24744,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24874,7 +24844,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24885,54 +24855,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>3168</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>3169</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>3177</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24940,39 +24910,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24985,771 +24955,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>2295</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>3192</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3195</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3196</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3197</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>3200</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>3201</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>3205</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>3206</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>3207</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>3202</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>3206</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>3207</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>3211</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>3212</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>3213</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="I23" s="21" t="s">
         <v>3214</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>3215</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>3216</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>3218</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>3219</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>3220</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>3221</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>3222</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>3223</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>3224</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>3225</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>3226</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="H26" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>3224</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>3228</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3228</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>3229</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>3230</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="J27" s="1" t="s">
         <v>3231</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>3222</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>3232</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>3234</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>3240</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>3243</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>3244</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3243</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>3247</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>3248</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>3249</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>3253</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>3254</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>3256</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>3257</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>3258</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>3260</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3253</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>3256</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3257</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>3258</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>3262</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>3263</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3266</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3267</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3268</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>3269</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>3270</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>3271</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>3272</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>3273</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>3275</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>3276</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>3277</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>3278</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>3280</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>3273</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>3277</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>3278</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3279</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3280</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>3281</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>3284</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="I40" s="1" t="s">
         <v>3285</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>3286</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>3289</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>3290</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>3291</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>3292</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>3293</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>3293</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>3296</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>3297</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
       <c r="C44" s="41"/>
       <c r="F44" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>3301</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>3302</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>3303</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>3304</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>3305</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3303</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>3304</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>3305</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>3306</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3307</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>3308</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>3309</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>3310</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>3311</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>3313</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>3316</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>3308</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3310</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>3312</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>3313</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3316</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>3317</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>3319</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>3321</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>3324</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>3325</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>3326</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>3327</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>3328</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>3329</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>3330</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>3331</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>3332</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>3333</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>3334</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>3335</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>3337</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>3338</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>3339</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>3340</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>3341</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>3342</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>3343</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>3344</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>3345</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>3346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3359</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25762,12 +25732,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3364</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25777,80 +25747,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="I70" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>2295</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>3168</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>3169</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>3172</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="J72" s="1" t="s">
         <v>3177</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25858,115 +25828,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3364</v>
+      </c>
+      <c r="H74" s="4" t="s">
         <v>3365</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>3366</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>3367</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>3368</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>3369</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>3370</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>3371</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3372</v>
+        <v>3368</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>3372</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>3373</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="H76" s="4" t="s">
         <v>3374</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>3376</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>3377</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>3378</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>3379</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>3380</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>3379</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="H77" s="4" t="s">
         <v>3381</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>3383</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>3384</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>3385</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>3386</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>3387</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="H78" s="4" t="s">
         <v>3388</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>3389</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="J78" s="1" t="s">
         <v>3390</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>3391</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>3392</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>3393</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>3394</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3395</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25976,80 +25946,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="I83" s="1" t="s">
+        <v>3182</v>
+      </c>
+      <c r="J83" s="1" t="s">
         <v>2292</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>2293</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>2294</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>2295</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>2296</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>3169</v>
       </c>
-      <c r="C84" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F84" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>3170</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>3171</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>3396</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>3173</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>3174</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3173</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3174</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="J85" s="1" t="s">
         <v>3177</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>3178</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>3179</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>3180</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>3181</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26057,137 +26027,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I87" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>3398</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>3399</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>3397</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>3400</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>3401</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>3402</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>3403</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>3189</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>3190</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="G89" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I89" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3195</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3196</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3197</v>
-      </c>
       <c r="J89" s="1" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>3192</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3195</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3196</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3197</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>3197</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>3200</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>3201</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>3204</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>3402</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>3403</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>3405</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>3406</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>3407</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>3408</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>3409</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>3410</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26195,7 +26165,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3411</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26205,36 +26175,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3365</v>
+        <v>3361</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>3409</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>3411</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>3412</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="J98" s="1" t="s">
         <v>3413</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>3414</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>3415</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>3416</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>3417</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>3418</v>
+        <v>3414</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26242,57 +26212,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3419</v>
+        <v>3415</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3412</v>
+        <v>3408</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3413</v>
+        <v>3409</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3414</v>
+        <v>3410</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3415</v>
+        <v>3411</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3420</v>
+        <v>3416</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3421</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3388</v>
+        <v>3384</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>3418</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3419</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>3420</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>3421</v>
+      </c>
+      <c r="I101" s="1" t="s">
         <v>3422</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="J101" s="1" t="s">
         <v>3423</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>3424</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>3425</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>3426</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>3427</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3381</v>
+        <v>3377</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3428</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26343,34 +26313,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3429</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3430</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3431</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3433</v>
+        <v>3429</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3434</v>
+        <v>3430</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3435</v>
+        <v>3431</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26378,134 +26348,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>3432</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="G112" s="4" t="s">
         <v>3433</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="H112" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="J112" s="1" t="s">
         <v>3436</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>3437</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>3438</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>3439</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>3440</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>3439</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>3440</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>3441</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="I113" s="1" t="s">
         <v>3442</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="J113" s="1" t="s">
         <v>3443</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>3444</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>3446</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>3447</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J114" s="1" t="s">
         <v>3448</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3449</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>3450</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>3449</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>3451</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>3452</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3373</v>
+        <v>3369</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>3455</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>3456</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>3457</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>3458</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>3459</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3432</v>
+        <v>3428</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G118" s="4" t="s">
         <v>3433</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>3460</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>3437</v>
-      </c>
       <c r="H118" s="4" t="s">
-        <v>3461</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3453</v>
+        <v>3449</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3454</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="3458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="3461">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6921,6 +6921,15 @@
   </si>
   <si>
     <t>Lutningsjusterat tempo</t>
+  </si>
+  <si>
+    <t>UI_Settings_MaxChartResults</t>
+  </si>
+  <si>
+    <t>Max Chart Results</t>
+  </si>
+  <si>
+    <t>Max resultat i diagram</t>
   </si>
   <si>
     <t>UI_Settings_PageControl_linkInformativeUrl_Text</t>
@@ -20130,58 +20139,57 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="5" t="s">
         <v>2286</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="5" t="s">
         <v>2287</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="5" t="s">
         <v>2288</v>
       </c>
-      <c r="F106" s="1" t="s">
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>2291</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>2292</v>
       </c>
-    </row>
-    <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="5" t="s">
+      <c r="G107" s="1" t="s">
         <v>2293</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="H107" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="33" t="s">
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="J107" s="5" t="s">
-        <v>2296</v>
-      </c>
-      <c r="K107" s="5"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>2297</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>2298</v>
       </c>
       <c r="C108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="33"/>
+      <c r="F108" s="33" t="s">
+        <v>2298</v>
+      </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="J108" s="5" t="s">
@@ -20198,275 +20206,292 @@
       </c>
       <c r="C109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="33" t="s">
-        <v>2302</v>
-      </c>
+      <c r="F109" s="33"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="J109" s="5" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="K109" s="5"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="5" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>2304</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>2305</v>
       </c>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="33" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="J110" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K110" s="30"/>
+      <c r="J110" s="5" t="s">
+        <v>2306</v>
+      </c>
+      <c r="K110" s="5"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="A111" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B111" s="11" t="s">
+      <c r="A111" s="5" t="s">
         <v>2307</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E111" s="4" t="s">
+      <c r="B111" s="14" t="s">
         <v>2308</v>
       </c>
+      <c r="C111" s="4"/>
+      <c r="E111" s="4"/>
       <c r="F111" s="33" t="s">
         <v>2309</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="J111" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K111" s="30"/>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>2310</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>2311</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K111" s="1"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B112" s="30" t="s">
-        <v>2312</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F112" s="35" t="s">
-        <v>1410</v>
-      </c>
-      <c r="G112" s="17" t="s">
+      <c r="E112" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="F112" s="33" t="s">
+        <v>2312</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>2313</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>2314</v>
       </c>
-      <c r="I112" s="18"/>
-      <c r="J112" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K112" s="30"/>
+      <c r="J112" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>440</v>
+      <c r="A113" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>2315</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="18"/>
+      <c r="E113" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F113" s="35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G113" s="17" t="s">
+        <v>2316</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="I113" s="18"/>
+      <c r="J113" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K113" s="30"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>2318</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>2319</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>2320</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>2321</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>2315</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>2316</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>2318</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K113" s="1"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>2312</v>
-      </c>
-      <c r="F114" s="19" t="s">
+      <c r="F115" s="19" t="s">
         <v>1410</v>
       </c>
-      <c r="J114" s="32" t="s">
+      <c r="J115" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K114" s="32"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>1570</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>2320</v>
-      </c>
+      <c r="K115" s="32"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="J117" s="4" t="s">
+      <c r="J118" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="K117" s="4"/>
-    </row>
-    <row r="118" hidden="1"/>
-    <row r="119" hidden="1">
-      <c r="A119" s="1" t="s">
-        <v>2321</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>2322</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>2324</v>
-      </c>
-      <c r="F119" s="14" t="s">
-        <v>2325</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>2326</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>2327</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>2328</v>
-      </c>
-      <c r="K119" s="11"/>
-    </row>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" hidden="1"/>
     <row r="120" hidden="1">
       <c r="A120" s="1" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>2328</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>2329</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="H120" s="4" t="s">
         <v>2330</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>2323</v>
-      </c>
-      <c r="E120" s="11" t="s">
+      <c r="J120" s="11" t="s">
         <v>2331</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>2332</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>2333</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>2334</v>
-      </c>
-      <c r="J120" s="11" t="s">
-        <v>2335</v>
       </c>
       <c r="K120" s="11"/>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2326</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>2335</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>2336</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="H121" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="J121" s="11" t="s">
+        <v>2338</v>
+      </c>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" hidden="1">
+      <c r="A122" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="34" t="s">
-        <v>2338</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>2339</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>2340</v>
-      </c>
-      <c r="J121" s="11" t="s">
+      <c r="E122" s="12"/>
+      <c r="F122" s="34" t="s">
         <v>2341</v>
       </c>
-      <c r="K121" s="11"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1"/>
+      <c r="G122" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>2343</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>2344</v>
+      </c>
+      <c r="K122" s="11"/>
+    </row>
     <row r="187" ht="15.75" customHeight="1"/>
     <row r="188" ht="15.75" customHeight="1"/>
     <row r="189" ht="15.75" customHeight="1"/>
-    <row r="214">
-      <c r="E214" s="36"/>
-      <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="36"/>
-    </row>
-    <row r="217" ht="20.25" customHeight="1"/>
-    <row r="218">
-      <c r="E218" s="8"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="215">
+      <c r="E215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="36"/>
+    </row>
+    <row r="218" ht="20.25" customHeight="1"/>
+    <row r="219">
+      <c r="E219" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A117:K117">
+  <conditionalFormatting sqref="A118:K118">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A117))=0</formula>
+      <formula>LEN(TRIM(A118))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G105 H6:H9 I6:I105 J6:K101 H11:H105 J103:K105 D107:G114 H107:H114 I107:I114 J107:K114">
+  <conditionalFormatting sqref="D6:G105 H6:H9 I6:I105 J6:K101 H11:H105 J103:K105 D108:G115 H108:H115 I108:I115 J108:K115">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20537,7 +20562,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20563,20 +20588,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20588,464 +20613,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1886</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1410</v>
@@ -21068,160 +21093,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1348</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21229,41 +21254,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21275,16 +21300,16 @@
         <v>1507</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1509</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1512</v>
@@ -21292,68 +21317,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21364,25 +21389,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="42">
@@ -21396,16 +21421,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21413,7 +21438,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21436,25 +21461,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="45">
@@ -21465,42 +21490,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="47">
@@ -21511,13 +21536,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21537,10 +21562,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21551,103 +21576,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21669,121 +21694,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -21792,7 +21817,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -21800,45 +21825,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>2659</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2656</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2657</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2653</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -21846,140 +21871,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>2670</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>2667</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>2664</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>2686</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="68">
@@ -21987,68 +22012,68 @@
         <v>1790</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22071,170 +22096,170 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="80">
@@ -22248,16 +22273,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22302,16 +22327,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22319,10 +22344,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22348,10 +22373,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22360,7 +22385,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22405,24 +22430,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22479,7 +22504,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22503,7 +22528,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22513,62 +22538,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="40" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="40" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2787</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>2788</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2784</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="40" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22584,18 +22609,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="40" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="11" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
@@ -22607,54 +22632,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="40" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="11" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="4" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="41"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="40" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22667,31 +22692,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="40" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22704,31 +22729,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="40" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22741,31 +22766,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22778,31 +22803,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22815,100 +22840,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="11" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="11" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="41"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="11" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="11" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="41"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="40" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="11" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="11" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="41"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="40" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="G18" s="11" t="s">
+        <v>2862</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2859</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2860</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2856</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -22921,123 +22946,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="40" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="11" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
       <c r="I19" s="11" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="41"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="40" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="11" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="11" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="41"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="40" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="11" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="11" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="41"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="40" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="11" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
       <c r="I22" s="11" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="41"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="40" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23050,192 +23075,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="40" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="11" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="11" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="41"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="40" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="11" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="11" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="41"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="40" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="11" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="11" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="41"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="40" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="11" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="11" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="41"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="40" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="11" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="11" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="41"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="40" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="11" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="11" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="41"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="40" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="11" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="11" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="41"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="40" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23248,31 +23273,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="40" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23285,31 +23310,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="40" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23322,54 +23347,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="40" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="11" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
       <c r="I34" s="11" t="s">
-        <v>2934</v>
+        <v>2937</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="41"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="40" t="s">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2942</v>
+        <v>2945</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23382,28 +23407,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="40" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23419,31 +23444,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="40" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23456,31 +23481,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="40" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23493,31 +23518,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="40" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23530,28 +23555,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="40" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23564,31 +23589,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="40" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23601,54 +23626,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="11" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="11" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="41"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="40" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1683</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1686</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23661,82 +23686,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="40" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="11" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
       <c r="I44" s="11" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="41"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="40" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="11" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
       <c r="I45" s="11" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="41"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="40" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="11" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="11" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="41"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="40" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -23744,38 +23769,38 @@
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="11" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="41"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="40" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>3011</v>
+        <v>3014</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>3012</v>
+        <v>3015</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>3017</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3013</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>3014</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3010</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3015</v>
+        <v>3018</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -23788,100 +23813,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="40" t="s">
-        <v>3016</v>
+        <v>3019</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3017</v>
+        <v>3020</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="11" t="s">
-        <v>3018</v>
+        <v>3021</v>
       </c>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="11" t="s">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="41"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="40" t="s">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3021</v>
+        <v>3024</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="11" t="s">
-        <v>3022</v>
+        <v>3025</v>
       </c>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11" t="s">
-        <v>3023</v>
+        <v>3026</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="41"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="40" t="s">
-        <v>3024</v>
+        <v>3027</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3025</v>
+        <v>3028</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="11" t="s">
-        <v>3026</v>
+        <v>3029</v>
       </c>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11" t="s">
-        <v>3027</v>
+        <v>3030</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="41"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="40" t="s">
-        <v>3028</v>
+        <v>3031</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3029</v>
+        <v>3032</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3030</v>
+        <v>3033</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3031</v>
+        <v>3034</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3032</v>
+        <v>3035</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3033</v>
+        <v>3036</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3034</v>
+        <v>3037</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3035</v>
+        <v>3038</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -23894,31 +23919,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="40" t="s">
-        <v>3036</v>
+        <v>3039</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3038</v>
+        <v>3041</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3039</v>
+        <v>3042</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23931,31 +23956,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="40" t="s">
-        <v>3040</v>
+        <v>3043</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3041</v>
+        <v>3044</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3042</v>
+        <v>3045</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3043</v>
+        <v>3046</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -23968,100 +23993,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="40" t="s">
-        <v>3044</v>
+        <v>3047</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3045</v>
+        <v>3048</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3046</v>
+        <v>3049</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="11" t="s">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="11" t="s">
-        <v>3048</v>
+        <v>3051</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="41"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>3049</v>
+        <v>3052</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3050</v>
+        <v>3053</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3051</v>
+        <v>3054</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="11" t="s">
-        <v>3052</v>
+        <v>3055</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="11" t="s">
-        <v>3053</v>
+        <v>3056</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="41"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="40" t="s">
-        <v>3054</v>
+        <v>3057</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3055</v>
+        <v>3058</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3056</v>
+        <v>3059</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="11" t="s">
-        <v>3057</v>
+        <v>3060</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="11" t="s">
-        <v>3058</v>
+        <v>3061</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="41"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="40" t="s">
-        <v>3059</v>
+        <v>3062</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3060</v>
+        <v>3063</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3061</v>
+        <v>3064</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>3062</v>
+        <v>3065</v>
       </c>
       <c r="F58" s="11" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3067</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3063</v>
       </c>
-      <c r="G58" s="11" t="s">
-        <v>3064</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3060</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3065</v>
+        <v>3068</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24074,123 +24099,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="40" t="s">
-        <v>3066</v>
+        <v>3069</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3067</v>
+        <v>3070</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="11" t="s">
-        <v>3068</v>
+        <v>3071</v>
       </c>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="11" t="s">
-        <v>3069</v>
+        <v>3072</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="41"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="40" t="s">
-        <v>3070</v>
+        <v>3073</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3071</v>
+        <v>3074</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="11" t="s">
-        <v>3072</v>
+        <v>3075</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="11" t="s">
-        <v>3073</v>
+        <v>3076</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="41"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="40" t="s">
-        <v>3074</v>
+        <v>3077</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="11" t="s">
-        <v>3076</v>
+        <v>3079</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="11" t="s">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="41"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>3078</v>
+        <v>3081</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="11" t="s">
-        <v>3080</v>
+        <v>3083</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
       <c r="I62" s="11" t="s">
-        <v>3081</v>
+        <v>3084</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="41"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>3082</v>
+        <v>3085</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1694</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3083</v>
+        <v>3086</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3084</v>
+        <v>3087</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3085</v>
+        <v>3088</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3086</v>
+        <v>3089</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24203,31 +24228,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>3087</v>
+        <v>3090</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3088</v>
+        <v>3091</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3090</v>
+        <v>3093</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3091</v>
+        <v>3094</v>
       </c>
       <c r="G64" s="11" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>3092</v>
       </c>
-      <c r="H64" s="11" t="s">
-        <v>3089</v>
-      </c>
       <c r="I64" s="11" t="s">
-        <v>3089</v>
+        <v>3092</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24240,60 +24265,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>3093</v>
+        <v>3096</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3095</v>
+        <v>3098</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3094</v>
+        <v>3097</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3096</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>3097</v>
+        <v>3100</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3098</v>
+        <v>3101</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3099</v>
+        <v>3102</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3100</v>
+        <v>3103</v>
       </c>
       <c r="F66" s="11" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>3101</v>
       </c>
-      <c r="G66" s="11" t="s">
-        <v>3098</v>
-      </c>
       <c r="H66" s="11" t="s">
-        <v>3102</v>
+        <v>3105</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24306,18 +24331,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>3104</v>
+        <v>3107</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="11" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -24329,19 +24354,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>3107</v>
+        <v>3110</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24353,7 +24378,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3109</v>
+        <v>3112</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24366,31 +24391,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>3110</v>
+        <v>3113</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3111</v>
+        <v>3114</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3112</v>
+        <v>3115</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3113</v>
+        <v>3116</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3114</v>
+        <v>3117</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3116</v>
+        <v>3119</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3117</v>
+        <v>3120</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24403,16 +24428,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>3118</v>
+        <v>3121</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1697</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1698</v>
@@ -24427,7 +24452,7 @@
         <v>1697</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24440,51 +24465,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>3120</v>
+        <v>3123</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="11" t="s">
-        <v>3122</v>
+        <v>3125</v>
       </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="4" t="s">
-        <v>3123</v>
+        <v>3126</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="41"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>3124</v>
+        <v>3127</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3126</v>
+        <v>3129</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3125</v>
+        <v>3128</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3127</v>
+        <v>3130</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24544,10 +24569,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>3128</v>
+        <v>3131</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24560,13 +24585,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="42" t="s">
-        <v>3129</v>
+        <v>3132</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3130</v>
+        <v>3133</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24579,13 +24604,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3131</v>
+        <v>3134</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3132</v>
+        <v>3135</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24598,28 +24623,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>3133</v>
+        <v>3136</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3134</v>
+        <v>3137</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3135</v>
+        <v>3138</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3136</v>
+        <v>3139</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3138</v>
+        <v>3141</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3139</v>
+        <v>3142</v>
       </c>
       <c r="I82" s="41"/>
       <c r="J82" s="2" t="str">
@@ -24633,25 +24658,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="40" t="s">
-        <v>3140</v>
+        <v>3143</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3141</v>
+        <v>3144</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3142</v>
+        <v>3145</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3143</v>
+        <v>3146</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3144</v>
+        <v>3147</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3145</v>
+        <v>3148</v>
       </c>
       <c r="I83" s="41"/>
       <c r="J83" s="2" t="str">
@@ -24665,36 +24690,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3146</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="40" t="s">
-        <v>3147</v>
+        <v>3150</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3148</v>
+        <v>3151</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3149</v>
+        <v>3152</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3150</v>
+        <v>3153</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3151</v>
+        <v>3154</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3152</v>
+        <v>3155</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3153</v>
+        <v>3156</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24707,31 +24732,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="40" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3157</v>
+        <v>3160</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3158</v>
+        <v>3161</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3160</v>
+        <v>3163</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24744,25 +24769,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="40" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3161</v>
+        <v>3164</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3162</v>
+        <v>3165</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24844,7 +24869,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3163</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -24855,54 +24880,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -24910,39 +24935,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3178</v>
+        <v>3181</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3179</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>3181</v>
+        <v>3184</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -24955,771 +24980,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3183</v>
+        <v>3186</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3184</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3187</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3190</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3191</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3206</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>3208</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3205</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3209</v>
+        <v>3212</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3212</v>
+        <v>3215</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3213</v>
+        <v>3216</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3214</v>
+        <v>3217</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3215</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3216</v>
+        <v>3219</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3217</v>
+        <v>3220</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3219</v>
+        <v>3222</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3220</v>
+        <v>3223</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3221</v>
+        <v>3224</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3222</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>3223</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3218</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>3220</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>3224</v>
+        <v>3227</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3225</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3226</v>
+        <v>3229</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3218</v>
+        <v>3221</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3228</v>
+        <v>3231</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3229</v>
+        <v>3232</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3230</v>
+        <v>3233</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3231</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3232</v>
+        <v>3235</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3233</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3234</v>
+        <v>3237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3235</v>
+        <v>3238</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3236</v>
+        <v>3239</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3238</v>
+        <v>3241</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3239</v>
+        <v>3242</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>3241</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>3242</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3239</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>3240</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3243</v>
+        <v>3246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3244</v>
+        <v>3247</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3245</v>
+        <v>3248</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3246</v>
+        <v>3249</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3247</v>
+        <v>3250</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3248</v>
+        <v>3251</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3249</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3250</v>
+        <v>3253</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3251</v>
+        <v>3254</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3252</v>
+        <v>3255</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3253</v>
+        <v>3256</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3254</v>
+        <v>3257</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3256</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>3257</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3252</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3253</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>3254</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>3255</v>
+        <v>3258</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3258</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3259</v>
+        <v>3262</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3260</v>
+        <v>3263</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3261</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3262</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3258</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3265</v>
+        <v>3268</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3266</v>
+        <v>3269</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3267</v>
+        <v>3270</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3268</v>
+        <v>3271</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3269</v>
+        <v>3272</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3270</v>
+        <v>3273</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3271</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3272</v>
+        <v>3275</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3273</v>
+        <v>3276</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3274</v>
+        <v>3277</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3275</v>
+        <v>3278</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3276</v>
+        <v>3279</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>3279</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>3273</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3276</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3278</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3280</v>
+        <v>3283</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3281</v>
+        <v>3284</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3282</v>
+        <v>3285</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3284</v>
+        <v>3287</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3285</v>
+        <v>3288</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3286</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3287</v>
+        <v>3290</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3294</v>
+        <v>3297</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3288</v>
+        <v>3291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3290</v>
+        <v>3293</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3291</v>
+        <v>3294</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3292</v>
+        <v>3295</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3293</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3295</v>
+        <v>3298</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3296</v>
+        <v>3299</v>
       </c>
       <c r="C44" s="41"/>
       <c r="F44" s="1" t="s">
-        <v>3297</v>
+        <v>3300</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3298</v>
+        <v>3301</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3299</v>
+        <v>3302</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3300</v>
+        <v>3303</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3301</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3302</v>
+        <v>3305</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3303</v>
+        <v>3306</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3305</v>
+        <v>3308</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3306</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3307</v>
+        <v>3310</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3308</v>
+        <v>3311</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3309</v>
+        <v>3312</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3310</v>
+        <v>3313</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3311</v>
+        <v>3314</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3311</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3312</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3313</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>3314</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3310</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3311</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>3312</v>
+        <v>3315</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3313</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3315</v>
+        <v>3318</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3316</v>
+        <v>3319</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3317</v>
+        <v>3320</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3318</v>
+        <v>3321</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3319</v>
+        <v>3322</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3320</v>
+        <v>3323</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3321</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3322</v>
+        <v>3325</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3323</v>
+        <v>3326</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3324</v>
+        <v>3327</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3325</v>
+        <v>3328</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3327</v>
+        <v>3330</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3328</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3329</v>
+        <v>3332</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3330</v>
+        <v>3333</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3331</v>
+        <v>3334</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3332</v>
+        <v>3335</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3333</v>
+        <v>3336</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3335</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3336</v>
+        <v>3339</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3337</v>
+        <v>3340</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3338</v>
+        <v>3341</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3339</v>
+        <v>3342</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3340</v>
+        <v>3343</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3341</v>
+        <v>3344</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3342</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3343</v>
+        <v>3346</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3346</v>
+        <v>3349</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3345</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3347</v>
+        <v>3350</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3348</v>
+        <v>3351</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3349</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3350</v>
+        <v>3353</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3351</v>
+        <v>3354</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3352</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3353</v>
+        <v>3356</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3354</v>
+        <v>3357</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3355</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3356</v>
+        <v>3359</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3357</v>
+        <v>3360</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3358</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25732,12 +25757,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3359</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3360</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25747,80 +25772,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3168</v>
+        <v>3171</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -25828,115 +25853,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3362</v>
+        <v>3365</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3363</v>
+        <v>3366</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3364</v>
+        <v>3367</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3365</v>
+        <v>3368</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3366</v>
+        <v>3369</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3367</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>3368</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3370</v>
+        <v>3373</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3371</v>
+        <v>3374</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3372</v>
+        <v>3375</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3373</v>
+        <v>3376</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3374</v>
+        <v>3377</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3375</v>
+        <v>3378</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3376</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3378</v>
+        <v>3381</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3379</v>
+        <v>3382</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3380</v>
+        <v>3383</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3381</v>
+        <v>3384</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3382</v>
+        <v>3385</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3383</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3385</v>
+        <v>3388</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3386</v>
+        <v>3389</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3388</v>
+        <v>3391</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3389</v>
+        <v>3392</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3390</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3391</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -25946,80 +25971,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3182</v>
+        <v>3185</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3164</v>
+        <v>3167</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3165</v>
+        <v>3168</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3166</v>
+        <v>3169</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3167</v>
+        <v>3170</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3392</v>
+        <v>3395</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3169</v>
+        <v>3172</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3170</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3171</v>
+        <v>3174</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3172</v>
+        <v>3175</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3173</v>
+        <v>3176</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3174</v>
+        <v>3177</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3176</v>
+        <v>3179</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3177</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26027,137 +26052,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3394</v>
+        <v>3397</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3395</v>
+        <v>3398</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3393</v>
+        <v>3396</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>3396</v>
+        <v>3399</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3397</v>
+        <v>3400</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3398</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>3399</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3185</v>
+        <v>3188</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3190</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>3191</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3188</v>
+        <v>3191</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3186</v>
+        <v>3189</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3189</v>
+        <v>3192</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3194</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3195</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3190</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3191</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3192</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3187</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3194</v>
+        <v>3197</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3195</v>
+        <v>3198</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3196</v>
+        <v>3199</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3197</v>
+        <v>3200</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3198</v>
+        <v>3201</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3199</v>
+        <v>3202</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3400</v>
+        <v>3403</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3401</v>
+        <v>3404</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3402</v>
+        <v>3405</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3403</v>
+        <v>3406</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3404</v>
+        <v>3407</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3405</v>
+        <v>3408</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3406</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26165,7 +26190,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3407</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26175,36 +26200,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3361</v>
+        <v>3364</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3412</v>
+        <v>3415</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3413</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3180</v>
+        <v>3183</v>
       </c>
       <c r="B99" s="37" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26212,57 +26237,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3415</v>
+        <v>3418</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3408</v>
+        <v>3411</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3409</v>
+        <v>3412</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3410</v>
+        <v>3413</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3411</v>
+        <v>3414</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3416</v>
+        <v>3419</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3417</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3418</v>
+        <v>3421</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3419</v>
+        <v>3422</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3420</v>
+        <v>3423</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3421</v>
+        <v>3424</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3422</v>
+        <v>3425</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3423</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3377</v>
+        <v>3380</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3424</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26313,34 +26338,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3425</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3426</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3427</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3430</v>
+        <v>3433</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3431</v>
+        <v>3434</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26348,134 +26373,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3432</v>
+        <v>3435</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3434</v>
+        <v>3437</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3435</v>
+        <v>3438</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3436</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3437</v>
+        <v>3440</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3438</v>
+        <v>3441</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3439</v>
+        <v>3442</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3440</v>
+        <v>3443</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3441</v>
+        <v>3444</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3442</v>
+        <v>3445</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3443</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3444</v>
+        <v>3447</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3446</v>
+        <v>3449</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3445</v>
+        <v>3448</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3447</v>
+        <v>3450</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3448</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3369</v>
+        <v>3372</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3451</v>
+        <v>3454</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3452</v>
+        <v>3455</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3453</v>
+        <v>3456</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3454</v>
+        <v>3457</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3455</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3428</v>
+        <v>3431</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3429</v>
+        <v>3432</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3456</v>
+        <v>3459</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3433</v>
+        <v>3436</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3457</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3449</v>
+        <v>3452</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3450</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="3467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="3468">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6056,7 +6056,7 @@
     <t>UI_Activity_List_ShowOnlyMarkedResultsOnMap</t>
   </si>
   <si>
-    <t>Show Only Marked Results On Map</t>
+    <t>Show Only Selected Results On Route</t>
   </si>
   <si>
     <t>Mostrar sólo resultados seleccionados en el mapa</t>
@@ -6068,7 +6068,7 @@
     <t>UI_Activity_List_ShowSplitPointsOnMap</t>
   </si>
   <si>
-    <t>Show Split Points On Map</t>
+    <t>Show Split Points On Route</t>
   </si>
   <si>
     <t>Mostrar puntos de vueltas en el mapa</t>
@@ -6140,7 +6140,7 @@
     <t>UI_Activity_List_AddInBound</t>
   </si>
   <si>
-    <t>Add InBound activities as results</t>
+    <t>Add InBound Activities as Results</t>
   </si>
   <si>
     <t>Agregar actividades de entrada como resultados</t>
@@ -6209,7 +6209,7 @@
     <t>UI_Activity_List_ExcludeResult</t>
   </si>
   <si>
-    <t>Exclude result from list</t>
+    <t>Exclude Results from List</t>
   </si>
   <si>
     <t>Ergebnis aus der Liste ausschließen</t>
@@ -6246,6 +6246,9 @@
   </si>
   <si>
     <t>Antal längder</t>
+  </si>
+  <si>
+    <t>Limit activities to those selected in list</t>
   </si>
   <si>
     <t>Aktivitäten auf die in der Liste ausgewählten beschränken</t>
@@ -6318,7 +6321,7 @@
     <t>UI_Activity_List_Splits</t>
   </si>
   <si>
-    <t>Mark other sub Trails or splits in list</t>
+    <t>Select Similar Splits</t>
   </si>
   <si>
     <t>Markiere in der Liste andere Sub-Trails oder Zwischenzeiten</t>
@@ -6333,7 +6336,7 @@
     <t>Identificare altre sezioni di Trails oppure sezioni nella lista</t>
   </si>
   <si>
-    <t>Markera liknade trail eller etapper i listan</t>
+    <t>Välj liknade subresultat</t>
   </si>
   <si>
     <t>UI_Activity_List_StrokeCount</t>
@@ -19188,7 +19191,7 @@
       <c r="A51" s="19" t="s">
         <v>2036</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>2037</v>
       </c>
       <c r="E51" s="12"/>
@@ -19331,7 +19334,7 @@
       <c r="A58" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>2060</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -19394,17 +19397,17 @@
       <c r="A61" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>397</v>
+      <c r="B61" s="5" t="s">
+        <v>2073</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>401</v>
@@ -19417,13 +19420,13 @@
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>159</v>
@@ -19432,138 +19435,138 @@
         <v>160</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="19" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="K64" s="11"/>
       <c r="L64" s="11"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>2095</v>
-      </c>
-      <c r="B65" s="11" t="s">
         <v>2096</v>
       </c>
+      <c r="B65" s="14" t="s">
+        <v>2097</v>
+      </c>
       <c r="E65" s="4" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2100</v>
-      </c>
-      <c r="J65" s="11" t="s">
         <v>2101</v>
+      </c>
+      <c r="J65" s="14" t="s">
+        <v>2102</v>
       </c>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="J66" s="14" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="J67" s="14" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -19575,25 +19578,25 @@
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
@@ -19603,22 +19606,22 @@
         <v>410</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="H70" s="19" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -19626,47 +19629,47 @@
     <row r="71" ht="13.5" hidden="1" customHeight="1"/>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="14" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="J72" s="14" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="J73" s="14" t="s">
         <v>179</v>
@@ -19677,169 +19680,169 @@
     <row r="74" ht="49.5" hidden="1" customHeight="1"/>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="5" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="J76" s="5" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
     </row>
     <row r="80" ht="25.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="K80" s="11"/>
       <c r="L80" s="11"/>
     </row>
     <row r="81" ht="84.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="K81" s="11"/>
       <c r="L81" s="11"/>
@@ -19847,587 +19850,587 @@
     <row r="82" ht="44.25" hidden="1" customHeight="1"/>
     <row r="83" ht="1.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="K83" s="11"/>
       <c r="L83" s="11"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="J84" s="19" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="J85" s="19" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="J86" s="19" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="J87" s="19" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="J88" s="19" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>78</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="K89" s="19"/>
       <c r="L89" s="19"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="J92" s="19" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="K92" s="19"/>
       <c r="L92" s="19"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="14" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="G94" s="12"/>
       <c r="H94" s="13"/>
       <c r="J94" s="14" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="G95" s="12"/>
       <c r="H95" s="13" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>1395</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="J96" s="14" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="J97" s="14" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="5" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="J98" s="14" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="G99" s="12"/>
       <c r="H99" s="13" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E100" s="19"/>
       <c r="F100" s="5" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="J100" s="14" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="K100" s="14"/>
       <c r="L100" s="14"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E101" s="19"/>
       <c r="F101" s="5" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="J101" s="14" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="E102" s="19"/>
       <c r="F102" s="5" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="J102" s="14" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="K102" s="14"/>
       <c r="L102" s="14"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E103" s="19"/>
       <c r="F103" s="19" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="J103" s="14" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="19" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="J104" s="5" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
     </row>
     <row r="105" ht="18.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="K105" s="11"/>
       <c r="L105" s="11"/>
     </row>
     <row r="106" ht="1.5" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
     </row>
     <row r="107" ht="13.5" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="C107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="33" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
       <c r="J107" s="5" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="C108" s="1"/>
       <c r="F108" s="5" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="5" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="110" ht="13.5" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="C110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="33" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="J110" s="5" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="C111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="33" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="J111" s="5" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" ht="13.5" customHeight="1">
       <c r="A112" s="5" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="C112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="33" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
       <c r="J112" s="5" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
     </row>
     <row r="113" ht="13.5" customHeight="1">
       <c r="A113" s="5" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="C113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="33" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -20442,22 +20445,22 @@
         <v>425</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="F114" s="33" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>432</v>
@@ -20470,7 +20473,7 @@
         <v>433</v>
       </c>
       <c r="B115" s="30" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>427</v>
@@ -20483,10 +20486,10 @@
         <v>1411</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="I115" s="18"/>
       <c r="J115" s="30" t="s">
@@ -20506,16 +20509,16 @@
         <v>427</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>445</v>
@@ -20525,10 +20528,10 @@
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="F117" s="19" t="s">
         <v>1411</v>
@@ -20544,7 +20547,7 @@
         <v>1571</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="120">
@@ -20584,82 +20587,82 @@
     <row r="121" hidden="1"/>
     <row r="122" hidden="1">
       <c r="A122" s="1" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
     </row>
     <row r="123" hidden="1">
       <c r="A123" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
     </row>
     <row r="124" hidden="1">
       <c r="A124" s="1" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1643</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="34" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
@@ -20755,7 +20758,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20781,20 +20784,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20806,464 +20809,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1887</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1411</v>
@@ -21286,160 +21289,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>2487</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>2486</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>2485</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1349</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21447,41 +21450,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21493,16 +21496,16 @@
         <v>1508</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1513</v>
@@ -21510,68 +21513,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>2559</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2557</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21582,25 +21585,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="42">
@@ -21614,16 +21617,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21631,7 +21634,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21654,25 +21657,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="45">
@@ -21683,42 +21686,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="47">
@@ -21729,13 +21732,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21755,10 +21758,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21769,103 +21772,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21887,121 +21890,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -22010,7 +22013,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -22018,45 +22021,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>2664</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>2665</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2661</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>2662</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>2663</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>2664</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2660</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -22064,140 +22067,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2673</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>2674</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>2671</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>2693</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>2692</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>2693</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="68">
@@ -22205,70 +22208,70 @@
         <v>1791</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="37" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22291,172 +22294,172 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="33" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="80">
@@ -22470,16 +22473,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22524,16 +22527,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22541,10 +22544,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22570,10 +22573,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22582,7 +22585,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22627,24 +22630,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22701,7 +22704,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -22725,7 +22728,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="39" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -22735,62 +22738,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="41" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22806,18 +22809,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="11" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
@@ -22829,54 +22832,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="11" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="4" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="42"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -22889,31 +22892,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22926,31 +22929,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>2834</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>2833</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -22963,31 +22966,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="41" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23000,31 +23003,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="41" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23037,100 +23040,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="41" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
       <c r="F15" s="11" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="11" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="42"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="41" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="11" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="11" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="42"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="41" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="11" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="42"/>
       <c r="I17" s="11" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="42"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="41" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="E18" s="11" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>2868</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>2870</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2866</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>2867</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>2868</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>2869</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2865</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -23143,123 +23146,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="41" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
       <c r="F19" s="11" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
       <c r="I19" s="11" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="42"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="41" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="11" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="11" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="42"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="41" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42"/>
       <c r="F21" s="11" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="11" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="42"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="41" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
       <c r="F22" s="11" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="11" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="42"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="41" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23272,192 +23275,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="42"/>
       <c r="F24" s="11" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="11" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="42"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="41" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="42"/>
       <c r="F25" s="11" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="11" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="42"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="41" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
       <c r="F26" s="11" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
       <c r="I26" s="11" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="42"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="41" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="11" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="11" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="42"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="41" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
       <c r="F28" s="11" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="11" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="42"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="41" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
       <c r="F29" s="11" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="11" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="42"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="41" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
       <c r="F30" s="11" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="11" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="42"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="41" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -23470,31 +23473,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="41" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23507,31 +23510,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="41" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>2940</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>2939</v>
       </c>
-      <c r="G33" s="11" t="s">
-        <v>2938</v>
-      </c>
       <c r="H33" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -23544,54 +23547,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="41" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
       <c r="F34" s="11" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
       <c r="I34" s="11" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="42"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="41" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -23604,28 +23607,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="41" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>2957</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>2956</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>2955</v>
-      </c>
       <c r="H36" s="11" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23641,31 +23644,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="41" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23678,31 +23681,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="41" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
+        <v>2969</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>2968</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>2967</v>
-      </c>
       <c r="H38" s="11" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23715,31 +23718,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="41" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23752,28 +23755,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="41" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23786,31 +23789,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="41" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -23823,54 +23826,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="41" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
       <c r="F42" s="11" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="42"/>
       <c r="I42" s="11" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="42"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="41" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1684</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1687</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -23883,82 +23886,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="41" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
       <c r="F44" s="11" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="G44" s="42"/>
       <c r="H44" s="42"/>
       <c r="I44" s="11" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="42"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="41" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
       <c r="F45" s="11" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="G45" s="42"/>
       <c r="H45" s="42"/>
       <c r="I45" s="11" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="42"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="41" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
       <c r="F46" s="11" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="G46" s="42"/>
       <c r="H46" s="42"/>
       <c r="I46" s="11" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="42"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="41" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -23966,38 +23969,38 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="11" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="42"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="41" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D48" s="11" t="s">
+        <v>3021</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>3022</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>3023</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>3024</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3020</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>3021</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>3023</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>3019</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -24010,100 +24013,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="41" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
       <c r="F49" s="11" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="11" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="42"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="41" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="11" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="G50" s="42"/>
       <c r="H50" s="42"/>
       <c r="I50" s="11" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="42"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="41" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
       <c r="F51" s="11" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="G51" s="42"/>
       <c r="H51" s="42"/>
       <c r="I51" s="11" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="42"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="41" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -24116,31 +24119,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="41" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>3048</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>3047</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>3046</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -24153,31 +24156,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="41" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -24190,100 +24193,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="41" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="11" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="G55" s="42"/>
       <c r="H55" s="42"/>
       <c r="I55" s="11" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="42"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="41" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="D56" s="42"/>
       <c r="E56" s="42"/>
       <c r="F56" s="11" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="G56" s="42"/>
       <c r="H56" s="42"/>
       <c r="I56" s="11" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="42"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="41" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
       <c r="F57" s="11" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="11" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="42"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="41" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>3072</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>3073</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>3074</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3070</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>3071</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>3072</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>3073</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>3069</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24296,123 +24299,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="41" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D59" s="42"/>
       <c r="E59" s="42"/>
       <c r="F59" s="11" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="G59" s="42"/>
       <c r="H59" s="42"/>
       <c r="I59" s="11" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="42"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="41" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
       <c r="F60" s="11" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="42"/>
       <c r="I60" s="11" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="42"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="41" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="42"/>
       <c r="F61" s="11" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="G61" s="42"/>
       <c r="H61" s="42"/>
       <c r="I61" s="11" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="42"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="41" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D62" s="42"/>
       <c r="E62" s="42"/>
       <c r="F62" s="11" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="G62" s="42"/>
       <c r="H62" s="42"/>
       <c r="I62" s="11" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="42"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="41" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1696</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1696</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -24425,31 +24428,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="41" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="E64" s="11" t="s">
+        <v>3100</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>3101</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>3102</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>3099</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>3100</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>3101</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>3098</v>
-      </c>
       <c r="I64" s="11" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -24462,60 +24465,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="41" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E65" s="11" t="s">
+        <v>3105</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>3104</v>
       </c>
-      <c r="F65" s="11" t="s">
-        <v>3103</v>
-      </c>
       <c r="G65" s="11" t="s">
+        <v>3105</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>3104</v>
       </c>
-      <c r="H65" s="11" t="s">
-        <v>3103</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="41" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>3111</v>
+      </c>
+      <c r="G66" s="11" t="s">
         <v>3108</v>
       </c>
-      <c r="E66" s="11" t="s">
-        <v>3109</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>3110</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>3107</v>
-      </c>
       <c r="H66" s="11" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -24528,18 +24531,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="41" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D67" s="42"/>
       <c r="E67" s="42"/>
       <c r="F67" s="11" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="G67" s="42"/>
       <c r="H67" s="42"/>
@@ -24551,19 +24554,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="41" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24575,7 +24578,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -24588,31 +24591,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="41" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24625,16 +24628,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="41" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1698</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1699</v>
@@ -24649,7 +24652,7 @@
         <v>1698</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -24662,51 +24665,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="41" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
       <c r="D71" s="42"/>
       <c r="E71" s="42"/>
       <c r="F71" s="11" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="G71" s="42"/>
       <c r="H71" s="42"/>
       <c r="I71" s="4" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="42"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="41" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D72" s="11" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>3135</v>
       </c>
-      <c r="E72" s="11" t="s">
-        <v>3134</v>
-      </c>
       <c r="F72" s="11" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24766,10 +24769,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="41" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -24782,13 +24785,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="43" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24801,13 +24804,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="41" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -24820,28 +24823,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="41" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="I82" s="42"/>
       <c r="J82" s="2" t="str">
@@ -24855,25 +24858,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="41" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="I83" s="42"/>
       <c r="J83" s="2" t="str">
@@ -24887,36 +24890,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="41" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -24929,31 +24932,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="41" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -24966,25 +24969,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="41" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -25066,7 +25069,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -25077,54 +25080,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -25132,39 +25135,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -25177,771 +25180,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3197</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3201</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>3217</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3211</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>3216</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>3250</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3244</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>3246</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3247</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>3248</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>3249</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3268</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3269</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>3270</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>3271</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3272</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3273</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3267</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3283</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>3288</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>3282</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3283</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>3286</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>3287</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="C44" s="42"/>
       <c r="F44" s="1" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>3323</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3317</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>3322</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>3354</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>3355</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>3353</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>3354</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25954,12 +25957,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25969,80 +25972,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -26050,115 +26053,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -26168,80 +26171,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26249,137 +26252,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>3402</v>
-      </c>
       <c r="H87" s="4" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="G88" s="38" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3202</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3203</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3197</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>3195</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>3198</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>3199</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>3200</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3201</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26387,7 +26390,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26397,36 +26400,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="G99" s="38" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26434,57 +26437,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26535,34 +26538,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26570,134 +26573,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="F114" s="1" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>3455</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>3454</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="3468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="3472">
   <si>
     <t>CountryCode</t>
   </si>
@@ -6687,6 +6687,18 @@
   </si>
   <si>
     <t>Differens</t>
+  </si>
+  <si>
+    <t>UI_Chart_PaceInverted</t>
+  </si>
+  <si>
+    <t>Pace Inverted</t>
+  </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>Tempo Inverterat</t>
   </si>
   <si>
     <t>UI_Chart_SelectedGraphs</t>
@@ -10660,7 +10672,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
@@ -10764,6 +10776,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -19976,7 +19991,7 @@
       <c r="B90" s="19" t="s">
         <v>2213</v>
       </c>
-      <c r="F90" s="19" t="s">
+      <c r="F90" s="35" t="s">
         <v>2214</v>
       </c>
       <c r="J90" s="19" t="s">
@@ -20018,88 +20033,85 @@
       <c r="L92" s="19"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="19" t="s">
         <v>2224</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="19" t="s">
         <v>2225</v>
       </c>
       <c r="F93" s="19" t="s">
         <v>2226</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="J93" s="19" t="s">
         <v>2227</v>
       </c>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>2228</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="4" t="s">
         <v>2229</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="19" t="s">
         <v>2230</v>
       </c>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="J94" s="14" t="s">
+      <c r="J94" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>2232</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="14" t="s">
         <v>2233</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="13"/>
+      <c r="F95" s="14" t="s">
         <v>2234</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="G95" s="12"/>
+      <c r="H95" s="13"/>
+      <c r="J95" s="14" t="s">
         <v>2235</v>
       </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13" t="s">
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+    </row>
+    <row r="96" ht="18.75" customHeight="1">
+      <c r="A96" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="B96" s="11" t="s">
         <v>2237</v>
       </c>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-    </row>
-    <row r="96" ht="18.75" customHeight="1">
-      <c r="A96" s="5" t="s">
+      <c r="E96" s="13" t="s">
         <v>2238</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="14" t="s">
         <v>2239</v>
       </c>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="J96" s="14" t="s">
+      <c r="G96" s="12"/>
+      <c r="H96" s="13" t="s">
         <v>2240</v>
       </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
+      <c r="J96" s="11" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>2242</v>
+        <v>1395</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
@@ -20133,46 +20145,46 @@
       <c r="L98" s="14"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="4"/>
+      <c r="F99" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="F99" s="14" t="s">
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="J99" s="14" t="s">
         <v>2252</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13" t="s">
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+    </row>
+    <row r="100" ht="18.75" customHeight="1">
+      <c r="A100" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>2254</v>
       </c>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-    </row>
-    <row r="100" ht="18.75" customHeight="1">
-      <c r="A100" s="5" t="s">
+      <c r="E100" s="13" t="s">
         <v>2255</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="F100" s="14" t="s">
         <v>2256</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="5" t="s">
+      <c r="G100" s="12"/>
+      <c r="H100" s="13" t="s">
         <v>2257</v>
       </c>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="J100" s="14" t="s">
+      <c r="J100" s="11" t="s">
         <v>2258</v>
       </c>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
@@ -20220,165 +20232,164 @@
         <v>2268</v>
       </c>
       <c r="E103" s="19"/>
-      <c r="F103" s="19" t="s">
+      <c r="F103" s="5" t="s">
         <v>2269</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
       <c r="J103" s="14" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2271</v>
-      </c>
-      <c r="E104" s="4"/>
+        <v>2272</v>
+      </c>
+      <c r="E104" s="19"/>
       <c r="F104" s="19" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="J104" s="5" t="s">
-        <v>2273</v>
-      </c>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
+      <c r="J104" s="14" t="s">
+        <v>2272</v>
+      </c>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
     </row>
     <row r="105" ht="18.75" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="5" t="s">
         <v>2274</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="4"/>
+      <c r="F105" s="19" t="s">
         <v>2276</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="J105" s="5" t="s">
         <v>2277</v>
       </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" ht="18.75" customHeight="1">
+      <c r="A106" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="J105" s="11" t="s">
+      <c r="B106" s="1" t="s">
         <v>2279</v>
       </c>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-    </row>
-    <row r="106" ht="1.5" customHeight="1">
-      <c r="A106" s="1" t="s">
+      <c r="E106" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="F106" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="G106" s="4"/>
+      <c r="H106" s="4" t="s">
         <v>2282</v>
       </c>
-      <c r="F106" s="14" t="s">
+      <c r="J106" s="11" t="s">
         <v>2283</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>2284</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>2285</v>
-      </c>
-      <c r="J106" s="11" t="s">
-        <v>2286</v>
       </c>
       <c r="K106" s="11"/>
       <c r="L106" s="11"/>
     </row>
-    <row r="107" ht="13.5" customHeight="1">
-      <c r="A107" s="5" t="s">
+    <row r="107" ht="1.5" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F107" s="14" t="s">
         <v>2287</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="G107" s="4" t="s">
         <v>2288</v>
       </c>
-      <c r="C107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="33" t="s">
+      <c r="H107" s="4" t="s">
         <v>2289</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="J107" s="5" t="s">
+      <c r="J107" s="11" t="s">
         <v>2290</v>
       </c>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-    </row>
-    <row r="108">
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" ht="13.5" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>2291</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="14" t="s">
         <v>2292</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="F108" s="5" t="s">
+      <c r="C108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="33" t="s">
         <v>2293</v>
       </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
       <c r="J108" s="5" t="s">
         <v>2294</v>
       </c>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="5" t="s">
         <v>2295</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>2296</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="1"/>
+      <c r="F109" s="5" t="s">
         <v>2297</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="5" t="s">
         <v>2298</v>
       </c>
-      <c r="G109" s="1" t="s">
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>2301</v>
       </c>
-    </row>
-    <row r="110" ht="13.5" customHeight="1">
-      <c r="A110" s="5" t="s">
+      <c r="F110" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="G110" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="33" t="s">
+      <c r="H110" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="J110" s="5" t="s">
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
       <c r="A111" s="5" t="s">
@@ -20434,260 +20445,280 @@
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="J113" s="30" t="s">
+      <c r="J113" s="5" t="s">
+        <v>2317</v>
+      </c>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="33" t="s">
+        <v>2320</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="J114" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-    </row>
-    <row r="114" ht="13.5" customHeight="1">
-      <c r="A114" s="1" t="s">
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="A115" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>2318</v>
-      </c>
-      <c r="F114" s="33" t="s">
-        <v>2319</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>2320</v>
-      </c>
-      <c r="H114" s="4" t="s">
+      <c r="B115" s="11" t="s">
         <v>2321</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>2322</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="F115" s="35" t="s">
-        <v>1411</v>
-      </c>
-      <c r="G115" s="17" t="s">
+      <c r="E115" s="4" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F115" s="33" t="s">
         <v>2323</v>
       </c>
+      <c r="G115" s="4" t="s">
+        <v>2324</v>
+      </c>
       <c r="H115" s="4" t="s">
-        <v>2324</v>
-      </c>
-      <c r="I115" s="18"/>
-      <c r="J115" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
+        <v>2325</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>440</v>
+      <c r="A116" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>2326</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>2326</v>
-      </c>
-      <c r="G116" s="1" t="s">
+      <c r="D116" s="18"/>
+      <c r="E116" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F116" s="36" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G116" s="17" t="s">
         <v>2327</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>2328</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="I116" s="18"/>
+      <c r="J116" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>2329</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>2330</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>2332</v>
+      </c>
+      <c r="J117" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>2329</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F117" s="19" t="s">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>2326</v>
+      </c>
+      <c r="F118" s="19" t="s">
         <v>1411</v>
       </c>
-      <c r="J117" s="32" t="s">
+      <c r="J118" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="K117" s="32"/>
-      <c r="L117" s="32"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>2330</v>
-      </c>
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
     </row>
     <row r="120">
       <c r="A120" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="I121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J121" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-    </row>
-    <row r="121" hidden="1"/>
-    <row r="122" hidden="1">
-      <c r="A122" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>2331</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>2332</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>2333</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>2129</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>2334</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>2335</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>2336</v>
-      </c>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-    </row>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" hidden="1"/>
     <row r="123" hidden="1">
       <c r="A123" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>2337</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="F123" s="14" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>2338</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>2332</v>
-      </c>
-      <c r="E123" s="11" t="s">
+      <c r="H123" s="4" t="s">
         <v>2339</v>
       </c>
-      <c r="F123" s="14" t="s">
+      <c r="J123" s="11" t="s">
         <v>2340</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>2341</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>2342</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>2343</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
     </row>
     <row r="124" hidden="1">
       <c r="A124" s="1" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>2344</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="G124" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E124" s="12"/>
-      <c r="F124" s="34" t="s">
+      <c r="H124" s="4" t="s">
         <v>2346</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="J124" s="11" t="s">
         <v>2347</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>2348</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>2349</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="11"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="125" hidden="1">
+      <c r="A125" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="34" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>2351</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>2352</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>2353</v>
+      </c>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+    </row>
     <row r="190" ht="15.75" customHeight="1"/>
     <row r="191" ht="15.75" customHeight="1"/>
     <row r="192" ht="15.75" customHeight="1"/>
-    <row r="217">
-      <c r="E217" s="36"/>
-      <c r="G217" s="36"/>
-      <c r="H217" s="36"/>
-      <c r="I217" s="36"/>
-    </row>
-    <row r="220" ht="20.25" customHeight="1"/>
-    <row r="221">
-      <c r="E221" s="8"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="218">
+      <c r="E218" s="37"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="37"/>
+      <c r="I218" s="37"/>
+    </row>
+    <row r="221" ht="20.25" customHeight="1"/>
+    <row r="222">
+      <c r="E222" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A120:L120">
+  <conditionalFormatting sqref="A121:L121">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A120))=0</formula>
+      <formula>LEN(TRIM(A121))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:G107 H6:H9 I6:I107 J6:L103 H11:H107 J105:L107 D110:L117">
+  <conditionalFormatting sqref="D6:G108 H6:H9 I6:I108 J6:L104 H11:H108 J106:L108 D111:L118">
     <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D6))=0</formula>
     </cfRule>
@@ -20758,7 +20789,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
@@ -20784,20 +20815,20 @@
         <v>503</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>505</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="H6" s="17" t="s">
         <v>438</v>
@@ -20809,464 +20840,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>341</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>1887</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1411</v>
@@ -21289,160 +21320,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>991</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1349</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>438</v>
@@ -21450,41 +21481,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="4" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="11" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="J36" s="12"/>
     </row>
@@ -21496,16 +21527,16 @@
         <v>1508</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1513</v>
@@ -21513,68 +21544,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>438</v>
@@ -21585,25 +21616,25 @@
         <v>245</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="42">
@@ -21617,16 +21648,16 @@
         <v>427</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>258</v>
@@ -21634,7 +21665,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -21657,25 +21688,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="45">
@@ -21686,42 +21717,42 @@
         <v>277</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="47">
@@ -21732,13 +21763,13 @@
         <v>316</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>319</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>321</v>
@@ -21758,10 +21789,10 @@
         <v>349</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>352</v>
@@ -21772,103 +21803,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="1" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="17" t="s">
@@ -21890,121 +21921,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="11" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="J54" s="12"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -22013,7 +22044,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -22021,45 +22052,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
       <c r="H60" s="4" t="s">
+        <v>2669</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2665</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2661</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>362</v>
@@ -22067,140 +22098,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="68">
@@ -22208,70 +22239,70 @@
         <v>1791</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="4" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="E70" s="12"/>
-      <c r="F70" s="37" t="s">
-        <v>2721</v>
+      <c r="F70" s="38" t="s">
+        <v>2725</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="1" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -22294,172 +22325,172 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="33" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
       <c r="G72" s="12"/>
       <c r="H72" s="1" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2750</v>
+        <v>2754</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="J76" s="12"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="J77" s="12"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="J78" s="12"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="80">
@@ -22473,16 +22504,16 @@
         <v>427</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>430</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>432</v>
@@ -22527,16 +22558,16 @@
         <v>427</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>443</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>445</v>
@@ -22544,10 +22575,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2780</v>
-      </c>
-      <c r="B83" s="38" t="s">
-        <v>2781</v>
+        <v>2784</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>2785</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>438</v>
@@ -22573,10 +22604,10 @@
         <v>455</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>458</v>
@@ -22585,7 +22616,7 @@
         <v>459</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>462</v>
@@ -22630,24 +22661,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -22655,11 +22686,11 @@
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="136">
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
     </row>
     <row r="140">
       <c r="E140" s="8"/>
@@ -22697,103 +22728,103 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>2790</v>
+      <c r="C1" s="41" t="s">
+        <v>2794</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="39" t="s">
-        <v>2791</v>
+      <c r="A3" s="40" t="s">
+        <v>2795</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>2792</v>
+      <c r="A5" s="42" t="s">
+        <v>2796</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="41" t="s">
-        <v>2797</v>
+      <c r="A6" s="42" t="s">
+        <v>2801</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2798</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2794</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="41" t="s">
-        <v>2801</v>
+      <c r="A7" s="42" t="s">
+        <v>2805</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>438</v>
@@ -22802,833 +22833,833 @@
         <f>IF(#REF!=1,K7,L7)</f>
         <v>#REF!</v>
       </c>
-      <c r="K7" s="42" t="str">
+      <c r="K7" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="41" t="s">
-        <v>2809</v>
+      <c r="A8" s="42" t="s">
+        <v>2813</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="11" t="s">
-        <v>2811</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+        <v>2815</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
       <c r="I8" s="4" t="s">
         <v>438</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="42"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="41" t="s">
-        <v>2812</v>
+      <c r="A9" s="42" t="s">
+        <v>2816</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="11" t="s">
-        <v>2814</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+        <v>2818</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="4" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="41" t="s">
-        <v>2816</v>
+      <c r="A10" s="42" t="s">
+        <v>2820</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="42" t="str">
+      <c r="K10" s="43" t="str">
         <f t="shared" ref="K10:K12" si="2">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="41" t="s">
-        <v>2825</v>
+      <c r="A11" s="42" t="s">
+        <v>2829</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="42" t="str">
+      <c r="K11" s="43" t="str">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="41" t="s">
-        <v>2833</v>
+      <c r="A12" s="42" t="s">
+        <v>2837</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K12" s="42" t="str">
+      <c r="K12" s="43" t="str">
         <f t="shared" si="2"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="41" t="s">
-        <v>2836</v>
+      <c r="A13" s="42" t="s">
+        <v>2840</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K13" s="42" t="str">
+      <c r="K13" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(A80,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),A80,CHAR(34),");")</f>
         <v>this.btnScan.Text=Resources.Resources.ResourceManager.GetString("btnScan_Text");</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="41" t="s">
-        <v>2844</v>
+      <c r="A14" s="42" t="s">
+        <v>2848</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="K14" s="42" t="str">
+      <c r="K14" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="41" t="s">
-        <v>2852</v>
+      <c r="A15" s="42" t="s">
+        <v>2856</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="11" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+        <v>2858</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="11" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="41" t="s">
-        <v>2856</v>
+      <c r="A16" s="42" t="s">
+        <v>2860</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
       <c r="F16" s="11" t="s">
-        <v>2858</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+        <v>2862</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="11" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="42"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>2860</v>
+      <c r="A17" s="42" t="s">
+        <v>2864</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="11" t="s">
-        <v>2862</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+        <v>2866</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="11" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="K17" s="42"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
-      <c r="A18" s="41" t="s">
-        <v>2864</v>
+      <c r="A18" s="42" t="s">
+        <v>2868</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="H18" s="11" t="s">
+        <v>2874</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>2870</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>2866</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
         <v>#REF!</v>
       </c>
-      <c r="K18" s="42" t="str">
+      <c r="K18" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="41" t="s">
-        <v>2871</v>
+      <c r="A19" s="42" t="s">
+        <v>2875</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="11" t="s">
-        <v>2873</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+        <v>2877</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="11" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="41" t="s">
-        <v>2875</v>
+      <c r="A20" s="42" t="s">
+        <v>2879</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="11" t="s">
-        <v>2877</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+        <v>2881</v>
+      </c>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="11" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
-      <c r="A21" s="41" t="s">
-        <v>2879</v>
+      <c r="A21" s="42" t="s">
+        <v>2883</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="11" t="s">
-        <v>2881</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+        <v>2885</v>
+      </c>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="11" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="41" t="s">
-        <v>2883</v>
+      <c r="A22" s="42" t="s">
+        <v>2887</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="11" t="s">
-        <v>2885</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+        <v>2889</v>
+      </c>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="11" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="41" t="s">
-        <v>2886</v>
+      <c r="A23" s="42" t="s">
+        <v>2890</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
         <v>#REF!</v>
       </c>
-      <c r="K23" s="42" t="str">
+      <c r="K23" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="41" t="s">
-        <v>2894</v>
+      <c r="A24" s="42" t="s">
+        <v>2898</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="11" t="s">
-        <v>2896</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+        <v>2900</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="11" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="42"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
-      <c r="A25" s="41" t="s">
-        <v>2898</v>
+      <c r="A25" s="42" t="s">
+        <v>2902</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="11" t="s">
-        <v>2900</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+        <v>2904</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="11" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="41" t="s">
-        <v>2902</v>
+      <c r="A26" s="42" t="s">
+        <v>2906</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="11" t="s">
-        <v>2904</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+        <v>2908</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
       <c r="I26" s="11" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="K26" s="42"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
-      <c r="A27" s="41" t="s">
-        <v>2906</v>
+      <c r="A27" s="42" t="s">
+        <v>2910</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="11" t="s">
-        <v>2908</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+        <v>2912</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="11" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="42"/>
+      <c r="K27" s="43"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
-      <c r="A28" s="41" t="s">
-        <v>2910</v>
+      <c r="A28" s="42" t="s">
+        <v>2914</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
       <c r="F28" s="11" t="s">
-        <v>2912</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+        <v>2916</v>
+      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="11" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="42"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
-      <c r="A29" s="41" t="s">
-        <v>2914</v>
+      <c r="A29" s="42" t="s">
+        <v>2918</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
       <c r="F29" s="11" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+        <v>2920</v>
+      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
       <c r="I29" s="11" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="42"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>2918</v>
+      <c r="A30" s="42" t="s">
+        <v>2922</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
       <c r="F30" s="11" t="s">
-        <v>2920</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+        <v>2924</v>
+      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
       <c r="I30" s="11" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="42"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
-      <c r="A31" s="41" t="s">
-        <v>2922</v>
+      <c r="A31" s="42" t="s">
+        <v>2926</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
         <v>#REF!</v>
       </c>
-      <c r="K31" s="42" t="str">
+      <c r="K31" s="43" t="str">
         <f t="shared" ref="K31:K33" si="4">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
-      <c r="A32" s="41" t="s">
-        <v>2930</v>
+      <c r="A32" s="42" t="s">
+        <v>2934</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="K32" s="42" t="str">
+      <c r="K32" s="43" t="str">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
-      <c r="A33" s="41" t="s">
-        <v>2938</v>
+      <c r="A33" s="42" t="s">
+        <v>2942</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="42" t="str">
+      <c r="K33" s="43" t="str">
         <f t="shared" si="4"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
-      <c r="A34" s="41" t="s">
-        <v>2941</v>
+      <c r="A34" s="42" t="s">
+        <v>2945</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="11" t="s">
-        <v>2943</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
+        <v>2947</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="11" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="42"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="41" t="s">
-        <v>2945</v>
+      <c r="A35" s="42" t="s">
+        <v>2949</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>2948</v>
+        <v>2952</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
         <v>#REF!</v>
       </c>
-      <c r="K35" s="42" t="str">
+      <c r="K35" s="43" t="str">
         <f t="shared" ref="K35:K41" si="6">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
-      <c r="A36" s="41" t="s">
-        <v>2953</v>
+      <c r="A36" s="42" t="s">
+        <v>2957</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>2955</v>
+        <v>2959</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>2957</v>
+        <v>2961</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>362</v>
@@ -23637,936 +23668,936 @@
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K36" s="42" t="str">
+      <c r="K36" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" ht="21.0" customHeight="1">
-      <c r="A37" s="41" t="s">
-        <v>2959</v>
+      <c r="A37" s="42" t="s">
+        <v>2963</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K37" s="42" t="str">
+      <c r="K37" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
-      <c r="A38" s="41" t="s">
-        <v>2967</v>
+      <c r="A38" s="42" t="s">
+        <v>2971</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K38" s="42" t="str">
+      <c r="K38" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
-      <c r="A39" s="41" t="s">
-        <v>2971</v>
+      <c r="A39" s="42" t="s">
+        <v>2975</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>2972</v>
+        <v>2976</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>2973</v>
+        <v>2977</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>2974</v>
+        <v>2978</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>2975</v>
+        <v>2979</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K39" s="42" t="str">
+      <c r="K39" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="40" ht="21.0" customHeight="1">
-      <c r="A40" s="41" t="s">
-        <v>2979</v>
+      <c r="A40" s="42" t="s">
+        <v>2983</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>2980</v>
+        <v>2984</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>2982</v>
+        <v>2986</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>2984</v>
+        <v>2988</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>2985</v>
+        <v>2989</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K40" s="42" t="str">
+      <c r="K40" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
-      <c r="A41" s="41" t="s">
-        <v>2987</v>
+      <c r="A41" s="42" t="s">
+        <v>2991</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
         <v>#REF!</v>
       </c>
-      <c r="K41" s="42" t="str">
+      <c r="K41" s="43" t="str">
         <f t="shared" si="6"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
-      <c r="A42" s="41" t="s">
-        <v>2995</v>
+      <c r="A42" s="42" t="s">
+        <v>2999</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="11" t="s">
-        <v>2997</v>
-      </c>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
+        <v>3001</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
       <c r="I42" s="11" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="42"/>
+      <c r="K42" s="43"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
-      <c r="A43" s="41" t="s">
-        <v>2999</v>
+      <c r="A43" s="42" t="s">
+        <v>3003</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>1684</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>1687</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>3004</v>
+        <v>3008</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="42" t="str">
+      <c r="K43" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
-      <c r="A44" s="41" t="s">
-        <v>3005</v>
+      <c r="A44" s="42" t="s">
+        <v>3009</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="11" t="s">
-        <v>3006</v>
-      </c>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
+        <v>3010</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
       <c r="I44" s="11" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="J44" s="2"/>
-      <c r="K44" s="42"/>
+      <c r="K44" s="43"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
-      <c r="A45" s="41" t="s">
-        <v>3008</v>
+      <c r="A45" s="42" t="s">
+        <v>3012</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="11" t="s">
-        <v>3010</v>
-      </c>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
+        <v>3014</v>
+      </c>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="11" t="s">
-        <v>3011</v>
+        <v>3015</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="K45" s="42"/>
+      <c r="K45" s="43"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
-      <c r="A46" s="41" t="s">
-        <v>3012</v>
+      <c r="A46" s="42" t="s">
+        <v>3016</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>3013</v>
+        <v>3017</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
       <c r="F46" s="11" t="s">
-        <v>3014</v>
-      </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
+        <v>3018</v>
+      </c>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="11" t="s">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="J46" s="2"/>
-      <c r="K46" s="42"/>
+      <c r="K46" s="43"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="41" t="s">
-        <v>3016</v>
+      <c r="A47" s="42" t="s">
+        <v>3020</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="11" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="J47" s="2"/>
-      <c r="K47" s="42"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="41" t="s">
-        <v>3019</v>
+      <c r="A48" s="42" t="s">
+        <v>3023</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="G48" s="11" t="s">
+        <v>3028</v>
+      </c>
+      <c r="H48" s="11" t="s">
         <v>3024</v>
       </c>
-      <c r="H48" s="11" t="s">
-        <v>3020</v>
-      </c>
       <c r="I48" s="11" t="s">
-        <v>3025</v>
+        <v>3029</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
         <v>#REF!</v>
       </c>
-      <c r="K48" s="42" t="str">
+      <c r="K48" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="41" t="s">
-        <v>3026</v>
+      <c r="A49" s="42" t="s">
+        <v>3030</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="11" t="s">
-        <v>3028</v>
-      </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+        <v>3032</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="11" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="J49" s="2"/>
-      <c r="K49" s="42"/>
+      <c r="K49" s="43"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="41" t="s">
-        <v>3030</v>
+      <c r="A50" s="42" t="s">
+        <v>3034</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
       <c r="F50" s="11" t="s">
-        <v>3032</v>
-      </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
+        <v>3036</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="11" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="43"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="41" t="s">
-        <v>3034</v>
+      <c r="A51" s="42" t="s">
+        <v>3038</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="11" t="s">
-        <v>3036</v>
-      </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+        <v>3040</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
       <c r="I51" s="11" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="42"/>
+      <c r="K51" s="43"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="41" t="s">
-        <v>3038</v>
+      <c r="A52" s="42" t="s">
+        <v>3042</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>3042</v>
+        <v>3046</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
         <v>#REF!</v>
       </c>
-      <c r="K52" s="42" t="str">
+      <c r="K52" s="43" t="str">
         <f t="shared" ref="K52:K54" si="8">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
-      <c r="A53" s="41" t="s">
-        <v>3046</v>
+      <c r="A53" s="42" t="s">
+        <v>3050</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="K53" s="42" t="str">
+      <c r="K53" s="43" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
-      <c r="A54" s="41" t="s">
-        <v>3050</v>
+      <c r="A54" s="42" t="s">
+        <v>3054</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
         <v>#REF!</v>
       </c>
-      <c r="K54" s="42" t="str">
+      <c r="K54" s="43" t="str">
         <f t="shared" si="8"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="41" t="s">
-        <v>3054</v>
+      <c r="A55" s="42" t="s">
+        <v>3058</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>3056</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+        <v>3060</v>
+      </c>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="11" t="s">
-        <v>3057</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+        <v>3061</v>
+      </c>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
       <c r="I55" s="11" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="42"/>
+      <c r="K55" s="43"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="41" t="s">
-        <v>3059</v>
+      <c r="A56" s="42" t="s">
+        <v>3063</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>3061</v>
-      </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
+        <v>3065</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="11" t="s">
-        <v>3062</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
+        <v>3066</v>
+      </c>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
       <c r="I56" s="11" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="J56" s="2"/>
-      <c r="K56" s="42"/>
+      <c r="K56" s="43"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="41" t="s">
-        <v>3064</v>
+      <c r="A57" s="42" t="s">
+        <v>3068</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>3066</v>
-      </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+        <v>3070</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="11" t="s">
-        <v>3067</v>
-      </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
+        <v>3071</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
       <c r="I57" s="11" t="s">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="J57" s="2"/>
-      <c r="K57" s="42"/>
+      <c r="K57" s="43"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="41" t="s">
-        <v>3069</v>
+      <c r="A58" s="42" t="s">
+        <v>3073</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="G58" s="11" t="s">
+        <v>3078</v>
+      </c>
+      <c r="H58" s="11" t="s">
         <v>3074</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>3070</v>
-      </c>
       <c r="I58" s="11" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
         <v>#REF!</v>
       </c>
-      <c r="K58" s="42" t="str">
+      <c r="K58" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
-      <c r="A59" s="41" t="s">
-        <v>3076</v>
+      <c r="A59" s="42" t="s">
+        <v>3080</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="11" t="s">
-        <v>3078</v>
-      </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+        <v>3082</v>
+      </c>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
       <c r="I59" s="11" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="42"/>
+      <c r="K59" s="43"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="41" t="s">
-        <v>3080</v>
+      <c r="A60" s="42" t="s">
+        <v>3084</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
       <c r="F60" s="11" t="s">
-        <v>3082</v>
-      </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
+        <v>3086</v>
+      </c>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
       <c r="I60" s="11" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="42"/>
+      <c r="K60" s="43"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
-      <c r="A61" s="41" t="s">
-        <v>3084</v>
+      <c r="A61" s="42" t="s">
+        <v>3088</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
       <c r="F61" s="11" t="s">
-        <v>3086</v>
-      </c>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
+        <v>3090</v>
+      </c>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="11" t="s">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="42"/>
+      <c r="K61" s="43"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
-      <c r="A62" s="41" t="s">
-        <v>3088</v>
+      <c r="A62" s="42" t="s">
+        <v>3092</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="11" t="s">
-        <v>3090</v>
-      </c>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
+        <v>3094</v>
+      </c>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
       <c r="I62" s="11" t="s">
-        <v>3091</v>
+        <v>3095</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="42"/>
+      <c r="K62" s="43"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="41" t="s">
-        <v>3092</v>
+      <c r="A63" s="42" t="s">
+        <v>3096</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>1695</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>3093</v>
+        <v>3097</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>1696</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>1696</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
         <v>#REF!</v>
       </c>
-      <c r="K63" s="42" t="str">
+      <c r="K63" s="43" t="str">
         <f t="shared" ref="K63:K64" si="10">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="41" t="s">
-        <v>3097</v>
+      <c r="A64" s="42" t="s">
+        <v>3101</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>3098</v>
+        <v>3102</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>3101</v>
+        <v>3105</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>3102</v>
+        <v>3106</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
         <v>#REF!</v>
       </c>
-      <c r="K64" s="42" t="str">
+      <c r="K64" s="43" t="str">
         <f t="shared" si="10"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
-      <c r="A65" s="41" t="s">
-        <v>3103</v>
+      <c r="A65" s="42" t="s">
+        <v>3107</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3106</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
-      <c r="A66" s="41" t="s">
-        <v>3107</v>
+      <c r="A66" s="42" t="s">
+        <v>3111</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
         <v>#REF!</v>
       </c>
-      <c r="K66" s="42" t="str">
+      <c r="K66" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
-      <c r="A67" s="41" t="s">
-        <v>3114</v>
+      <c r="A67" s="42" t="s">
+        <v>3118</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
       <c r="F67" s="11" t="s">
-        <v>3116</v>
-      </c>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+        <v>3120</v>
+      </c>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
       <c r="I67" s="4" t="s">
         <v>438</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="42"/>
+      <c r="K67" s="43"/>
     </row>
     <row r="68" ht="21.0" customHeight="1">
-      <c r="A68" s="41" t="s">
-        <v>3117</v>
+      <c r="A68" s="42" t="s">
+        <v>3121</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>85</v>
@@ -24578,66 +24609,66 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
         <v>#REF!</v>
       </c>
-      <c r="K68" s="42" t="str">
+      <c r="K68" s="43" t="str">
         <f t="shared" ref="K68:K70" si="12">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
-      <c r="A69" s="41" t="s">
-        <v>3120</v>
+      <c r="A69" s="42" t="s">
+        <v>3124</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="K69" s="42" t="str">
+      <c r="K69" s="43" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="41" t="s">
-        <v>3128</v>
+      <c r="A70" s="42" t="s">
+        <v>3132</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>1698</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1699</v>
@@ -24652,64 +24683,64 @@
         <v>1698</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
         <v>#REF!</v>
       </c>
-      <c r="K70" s="42" t="str">
+      <c r="K70" s="43" t="str">
         <f t="shared" si="12"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="41" t="s">
-        <v>3130</v>
+      <c r="A71" s="42" t="s">
+        <v>3134</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
+        <v>2798</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="11" t="s">
-        <v>3132</v>
-      </c>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
+        <v>3136</v>
+      </c>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
       <c r="I71" s="4" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="K71" s="42"/>
+      <c r="K71" s="43"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
-      <c r="A72" s="41" t="s">
-        <v>3134</v>
+      <c r="A72" s="42" t="s">
+        <v>3138</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>438</v>
@@ -24718,7 +24749,7 @@
         <f>IF(#REF!=1,K72,L72)</f>
         <v>#REF!</v>
       </c>
-      <c r="K72" s="42" t="str">
+      <c r="K72" s="43" t="str">
         <f>CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
@@ -24768,226 +24799,226 @@
       </c>
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
-      <c r="A79" s="41" t="s">
-        <v>3138</v>
+      <c r="A79" s="42" t="s">
+        <v>3142</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
         <v>#REF!</v>
       </c>
-      <c r="K79" s="42" t="str">
+      <c r="K79" s="43" t="str">
         <f t="shared" ref="K79:K83" si="14">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
-      <c r="A80" s="43" t="s">
-        <v>3139</v>
+      <c r="A80" s="44" t="s">
+        <v>3143</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="K80" s="42" t="str">
+      <c r="K80" s="43" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
-      <c r="A81" s="41" t="s">
-        <v>2818</v>
+      <c r="A81" s="42" t="s">
+        <v>2822</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="K81" s="42" t="str">
+      <c r="K81" s="43" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
-      <c r="A82" s="41" t="s">
-        <v>3143</v>
+      <c r="A82" s="42" t="s">
+        <v>3147</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>3149</v>
-      </c>
-      <c r="I82" s="42"/>
+        <v>3153</v>
+      </c>
+      <c r="I82" s="43"/>
       <c r="J82" s="2" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="K82" s="42" t="str">
+      <c r="K82" s="43" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
-      <c r="A83" s="41" t="s">
-        <v>3150</v>
+      <c r="A83" s="42" t="s">
+        <v>3154</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3155</v>
-      </c>
-      <c r="I83" s="42"/>
+        <v>3159</v>
+      </c>
+      <c r="I83" s="43"/>
       <c r="J83" s="2" t="str">
         <f t="shared" si="13"/>
         <v>#REF!</v>
       </c>
-      <c r="K83" s="42" t="str">
+      <c r="K83" s="43" t="str">
         <f t="shared" si="14"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="11" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
-      <c r="A85" s="41" t="s">
-        <v>3157</v>
+      <c r="A85" s="42" t="s">
+        <v>3161</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>3159</v>
+        <v>3163</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
         <v>#REF!</v>
       </c>
-      <c r="K85" s="42" t="str">
+      <c r="K85" s="43" t="str">
         <f t="shared" ref="K85:K87" si="16">CONCATENATE("this.",SUBSTITUTE(#REF!,"_","."),"=Resources.Resources.ResourceManager.GetString(",CHAR(34),#REF!,CHAR(34),");")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
-      <c r="A86" s="41" t="s">
-        <v>2938</v>
+      <c r="A86" s="42" t="s">
+        <v>2942</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="K86" s="42" t="str">
+      <c r="K86" s="43" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
-      <c r="A87" s="41" t="s">
-        <v>2999</v>
+      <c r="A87" s="42" t="s">
+        <v>3003</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="I87" s="11">
         <v>1.0</v>
@@ -24996,7 +25027,7 @@
         <f t="shared" si="15"/>
         <v>#REF!</v>
       </c>
-      <c r="K87" s="42" t="str">
+      <c r="K87" s="43" t="str">
         <f t="shared" si="16"/>
         <v>#REF!</v>
       </c>
@@ -25069,7 +25100,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -25080,54 +25111,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -25135,39 +25166,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>3191</v>
+        <v>3194</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>3195</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -25180,771 +25211,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3202</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>3218</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3214</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3231</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>3233</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3227</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3228</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3229</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>3251</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3245</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>3252</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3247</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3248</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>3267</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3262</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3263</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3277</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3272</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3273</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3268</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="11" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>3289</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>3283</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3284</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3285</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>3306</v>
-      </c>
-      <c r="C44" s="42"/>
+        <v>3310</v>
+      </c>
+      <c r="C44" s="43"/>
       <c r="F44" s="1" t="s">
-        <v>3307</v>
+        <v>3311</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3310</v>
+        <v>3314</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3311</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>3324</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3320</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3337</v>
+        <v>3341</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3338</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3339</v>
+        <v>3343</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3340</v>
+        <v>3344</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3341</v>
+        <v>3345</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3342</v>
+        <v>3346</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3343</v>
+        <v>3347</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3344</v>
+        <v>3348</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3345</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3346</v>
+        <v>3350</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3353</v>
+        <v>3357</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3355</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3356</v>
+        <v>3360</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3355</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3357</v>
+        <v>3361</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3358</v>
+        <v>3362</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3359</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3360</v>
+        <v>3364</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3362</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3363</v>
+        <v>3367</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3365</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3366</v>
+        <v>3370</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3367</v>
+        <v>3371</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3368</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -25957,12 +25988,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -25972,80 +26003,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -26053,115 +26084,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3372</v>
+        <v>3376</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3373</v>
+        <v>3377</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3374</v>
+        <v>3378</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3375</v>
+        <v>3379</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3376</v>
+        <v>3380</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3377</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>3378</v>
-      </c>
-      <c r="G75" s="38" t="s">
-        <v>3378</v>
+        <v>3194</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>3382</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>3382</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3381</v>
+        <v>3385</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3382</v>
+        <v>3386</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3384</v>
+        <v>3388</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3385</v>
+        <v>3389</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3386</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3390</v>
+        <v>3394</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3391</v>
+        <v>3395</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3392</v>
+        <v>3396</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3393</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3394</v>
+        <v>3398</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3395</v>
+        <v>3399</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3396</v>
+        <v>3400</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3397</v>
+        <v>3401</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3399</v>
+        <v>3403</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3400</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3401</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -26171,80 +26202,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26252,137 +26283,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3404</v>
+        <v>3408</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>3406</v>
+        <v>3410</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3407</v>
+        <v>3411</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3408</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B88" s="38" t="s">
-        <v>3409</v>
-      </c>
-      <c r="G88" s="38" t="s">
-        <v>3409</v>
+        <v>3194</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>3413</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>3413</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3202</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>3205</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3206</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3207</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3202</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3410</v>
+        <v>3414</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3411</v>
+        <v>3415</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3412</v>
+        <v>3416</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3413</v>
+        <v>3417</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3414</v>
+        <v>3418</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3415</v>
+        <v>3419</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3416</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26390,7 +26421,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3417</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26400,36 +26431,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3418</v>
+        <v>3422</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3419</v>
+        <v>3423</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3420</v>
+        <v>3424</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3421</v>
+        <v>3425</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3422</v>
+        <v>3426</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>3424</v>
-      </c>
-      <c r="G99" s="38" t="s">
-        <v>3424</v>
+        <v>3194</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>3428</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>3428</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>438</v>
@@ -26437,57 +26468,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3423</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3424</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>3425</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>3418</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>3419</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>3420</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>3421</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3427</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3394</v>
+        <v>3398</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3430</v>
+        <v>3434</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3432</v>
+        <v>3436</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3433</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -26538,34 +26569,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3435</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3436</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3437</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3440</v>
+        <v>3444</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3441</v>
+        <v>3445</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>438</v>
@@ -26573,134 +26604,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3442</v>
+        <v>3446</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3444</v>
+        <v>3448</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3445</v>
+        <v>3449</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3446</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3451</v>
+        <v>3455</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3453</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3454</v>
+        <v>3458</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3461</v>
+        <v>3465</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3462</v>
+        <v>3466</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3465</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3466</v>
+        <v>3470</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3467</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="3553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="3557">
   <si>
     <t>CountryCode</t>
   </si>
@@ -5595,6 +5595,12 @@
     <t>Non Required</t>
   </si>
   <si>
+    <t>No requerido</t>
+  </si>
+  <si>
+    <t>Non richiesto</t>
+  </si>
+  <si>
     <t>Inte obligatorisk</t>
   </si>
   <si>
@@ -6144,6 +6150,12 @@
   </si>
   <si>
     <t>Set Non Required Trail Points As Pauses</t>
+  </si>
+  <si>
+    <t>Ajustar los puntos del sendero no requeridos como pausas</t>
+  </si>
+  <si>
+    <t>Imposta i punti di Trails non richiesti come pause</t>
   </si>
   <si>
     <t>Hantera inte obligatoriska trail punkter som pauser</t>
@@ -18597,77 +18609,81 @@
       </c>
       <c r="C11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>1857</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>1858</v>
+      </c>
       <c r="J11" s="5" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>1859</v>
+        <v>1861</v>
       </c>
       <c r="C12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="15" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="10" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="C13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="15" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="10" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="C14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="15" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="10" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -18677,22 +18693,22 @@
         <v>246</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>428</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>252</v>
@@ -18714,10 +18730,10 @@
         <v>255</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1878</v>
+        <v>1880</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>1879</v>
+        <v>1881</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>258</v>
@@ -18730,29 +18746,29 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1881</v>
+        <v>1883</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>981</v>
@@ -18768,16 +18784,16 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>252</v>
@@ -18787,50 +18803,50 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1898</v>
+        <v>1900</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1900</v>
+        <v>1902</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>1902</v>
+        <v>1904</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -18862,101 +18878,101 @@
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>1904</v>
+        <v>1906</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>342</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>346</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1920</v>
+        <v>1922</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="29" t="s">
         <v>439</v>
       </c>
       <c r="F26" s="30" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G26" s="29" t="s">
         <v>1926</v>
       </c>
-      <c r="G26" s="29" t="s">
-        <v>1924</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="I26" s="28"/>
       <c r="J26" s="29" t="s">
@@ -18970,35 +18986,35 @@
         <v>1804</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
       <c r="A28" s="26" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>1826</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="33" t="s">
@@ -19022,207 +19038,207 @@
     </row>
     <row r="29" ht="15.0" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>1935</v>
+        <v>1937</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1944</v>
+        <v>1946</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1953</v>
+        <v>1955</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>1954</v>
+        <v>1956</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>1955</v>
+        <v>1957</v>
       </c>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1959</v>
+        <v>1961</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>1962</v>
+        <v>1964</v>
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1966</v>
+        <v>1968</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>1969</v>
+        <v>1971</v>
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1979</v>
+        <v>1981</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>1980</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>1978</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>1982</v>
+        <v>1984</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>479</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1534</v>
@@ -19247,377 +19263,381 @@
     </row>
     <row r="38" ht="13.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>1541</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>1993</v>
+        <v>1995</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>1999</v>
+        <v>2001</v>
       </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="34" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="10" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="10" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="10" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="10" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="E46" s="13"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>2041</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="10"/>
+      <c r="H46" s="10" t="s">
+        <v>2042</v>
+      </c>
       <c r="J46" s="15" t="s">
-        <v>2039</v>
+        <v>2043</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2041</v>
+        <v>2045</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="10" t="s">
-        <v>2042</v>
+        <v>2046</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="10" t="s">
-        <v>2043</v>
+        <v>2047</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2046</v>
+        <v>2050</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="10" t="s">
-        <v>2047</v>
+        <v>2051</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="10" t="s">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>2049</v>
+        <v>2053</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>2050</v>
+        <v>2054</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2051</v>
+        <v>2055</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="10" t="s">
-        <v>2052</v>
+        <v>2056</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="10" t="s">
-        <v>2053</v>
+        <v>2057</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>2054</v>
+        <v>2058</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2056</v>
+        <v>2060</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="10" t="s">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="10" t="s">
-        <v>2058</v>
+        <v>2062</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="10" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="10" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="10" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="10" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2071</v>
+        <v>2075</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="10" t="s">
-        <v>2072</v>
+        <v>2076</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="10" t="s">
-        <v>2073</v>
+        <v>2077</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>2074</v>
+        <v>2078</v>
       </c>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>2075</v>
+        <v>2079</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2076</v>
+        <v>2080</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="10" t="s">
-        <v>2077</v>
+        <v>2081</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>2078</v>
+        <v>2082</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>2079</v>
+        <v>2083</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>2080</v>
+        <v>2084</v>
       </c>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
@@ -19649,70 +19669,70 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>2081</v>
+        <v>2085</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2082</v>
+        <v>2086</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="10" t="s">
-        <v>2083</v>
+        <v>2087</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="10" t="s">
-        <v>2084</v>
+        <v>2088</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>2085</v>
+        <v>2089</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>2086</v>
+        <v>2090</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2087</v>
+        <v>2091</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="10" t="s">
-        <v>2088</v>
+        <v>2092</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="10" t="s">
-        <v>2089</v>
+        <v>2093</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>2090</v>
+        <v>2094</v>
       </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>2091</v>
+        <v>2095</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2092</v>
+        <v>2096</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="10" t="s">
-        <v>2093</v>
+        <v>2097</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="10" t="s">
-        <v>2094</v>
+        <v>2098</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>2095</v>
+        <v>2099</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>2096</v>
+        <v>2100</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>79</v>
@@ -19733,88 +19753,88 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2098</v>
+        <v>2102</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="10" t="s">
-        <v>2099</v>
+        <v>2103</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="10" t="s">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>2101</v>
+        <v>2105</v>
       </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2102</v>
+        <v>2106</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2103</v>
+        <v>2107</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2104</v>
+        <v>2108</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>2106</v>
+        <v>2110</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2107</v>
+        <v>2111</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>2108</v>
+        <v>2112</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>2109</v>
+        <v>2113</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2110</v>
+        <v>2114</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="10" t="s">
-        <v>2111</v>
+        <v>2115</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="10" t="s">
-        <v>2112</v>
+        <v>2116</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>2113</v>
+        <v>2117</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>2114</v>
+        <v>2118</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>2115</v>
+        <v>2119</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="10" t="s">
-        <v>1984</v>
+        <v>1986</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="10" t="s">
-        <v>2116</v>
+        <v>2120</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>2117</v>
+        <v>2121</v>
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -19824,16 +19844,16 @@
         <v>397</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2119</v>
+        <v>2123</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>2120</v>
+        <v>2124</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2121</v>
+        <v>2125</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>402</v>
@@ -19846,13 +19866,13 @@
     </row>
     <row r="65" ht="13.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>2122</v>
+        <v>2126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2123</v>
+        <v>2127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>2124</v>
+        <v>2128</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>159</v>
@@ -19861,146 +19881,146 @@
         <v>160</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2125</v>
+        <v>2129</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2126</v>
+        <v>2130</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>2127</v>
+        <v>2131</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>2128</v>
+        <v>2132</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2129</v>
+        <v>2133</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="10" t="s">
-        <v>2130</v>
+        <v>2134</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2131</v>
+        <v>2135</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2132</v>
+        <v>2136</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="12"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>2134</v>
+        <v>2138</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2135</v>
+        <v>2139</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2136</v>
+        <v>2140</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2137</v>
+        <v>2141</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2138</v>
+        <v>2142</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2139</v>
+        <v>2143</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>2140</v>
+        <v>2144</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>2142</v>
+        <v>2146</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>2144</v>
+        <v>2148</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2145</v>
+        <v>2149</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2146</v>
+        <v>2150</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>2147</v>
+        <v>2151</v>
       </c>
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>2148</v>
+        <v>2152</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
-        <v>2150</v>
+        <v>2154</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="10" t="s">
-        <v>2151</v>
+        <v>2155</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>2152</v>
+        <v>2156</v>
       </c>
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>2153</v>
+        <v>2157</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>2154</v>
+        <v>2158</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
-        <v>2155</v>
+        <v>2159</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="10" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="10" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="J71" s="33" t="s">
         <v>439</v>
@@ -20010,25 +20030,25 @@
     </row>
     <row r="72" ht="13.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
@@ -20038,22 +20058,22 @@
         <v>411</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -20061,49 +20081,49 @@
     <row r="74" ht="13.5" hidden="1" customHeight="1"/>
     <row r="75" ht="13.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="15" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="10" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2180</v>
+        <v>2184</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>2181</v>
+        <v>2185</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="J76" s="15" t="s">
         <v>180</v>
@@ -20114,171 +20134,171 @@
     <row r="77" ht="49.5" hidden="1" customHeight="1"/>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>2184</v>
+        <v>2188</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="5" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="5" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
     </row>
     <row r="80" ht="25.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
     </row>
     <row r="83" ht="25.5" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
     </row>
     <row r="84" ht="84.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="F84" s="35" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
@@ -20286,184 +20306,184 @@
     <row r="85" ht="44.25" hidden="1" customHeight="1"/>
     <row r="86" ht="1.5" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="10"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="K88" s="10"/>
       <c r="L88" s="10"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="K89" s="10"/>
       <c r="L89" s="10"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="K90" s="10"/>
       <c r="L90" s="10"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="K91" s="10"/>
       <c r="L91" s="10"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>82</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="K92" s="10"/>
       <c r="L92" s="10"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="K93" s="10"/>
       <c r="L93" s="10"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
       <c r="F94" s="36" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="K94" s="10"/>
       <c r="L94" s="10"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>226</v>
@@ -20472,7 +20492,7 @@
         <v>228</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="J95" s="10" t="s">
         <v>226</v>
@@ -20482,529 +20502,529 @@
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="F96" s="34" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="K96" s="10"/>
       <c r="L96" s="10"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
       <c r="K97" s="10"/>
       <c r="L97" s="10"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="15" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="G101" s="13"/>
       <c r="H101" s="34" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="G102" s="13"/>
       <c r="H102" s="14" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="K102" s="12"/>
       <c r="L102" s="12"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>1399</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="10" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="10" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
     <row r="105" ht="18.75" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="10" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
     </row>
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="G106" s="13"/>
       <c r="H106" s="14" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="K106" s="12"/>
       <c r="L106" s="12"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
       <c r="A107" s="5" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="E107" s="10"/>
       <c r="F107" s="5" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="10" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="K107" s="15"/>
       <c r="L107" s="15"/>
     </row>
     <row r="108" ht="18.75" customHeight="1">
       <c r="A108" s="5" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="E108" s="10"/>
       <c r="F108" s="5" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="10" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="K108" s="15"/>
       <c r="L108" s="15"/>
     </row>
     <row r="109" ht="18.75" customHeight="1">
       <c r="A109" s="5" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="E109" s="10"/>
       <c r="F109" s="5" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="10" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="K109" s="15"/>
       <c r="L109" s="15"/>
     </row>
     <row r="110" ht="18.75" customHeight="1">
       <c r="A110" s="5" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="E110" s="10"/>
       <c r="F110" s="10" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="10" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
     <row r="111" ht="18.75" customHeight="1">
       <c r="A111" s="5" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="10" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="10" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" ht="18.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
     </row>
     <row r="113" ht="1.5" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="K113" s="12"/>
       <c r="L113" s="12"/>
     </row>
     <row r="114" ht="13.5" customHeight="1">
       <c r="A114" s="5" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="C114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="34" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="10" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
       <c r="C115" s="1"/>
       <c r="F115" s="5" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="5" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="5" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="117" ht="13.5" customHeight="1">
       <c r="A117" s="5" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="C117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="34" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="10" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="C118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="34" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="10" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
     </row>
     <row r="119" ht="13.5" customHeight="1">
       <c r="A119" s="5" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
       <c r="C119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="34" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="10" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
       <c r="A120" s="5" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="C120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="34" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="10" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="J120" s="31" t="s">
         <v>439</v>
@@ -21017,22 +21037,22 @@
         <v>426</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>428</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="F121" s="34" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>433</v>
@@ -21045,7 +21065,7 @@
         <v>434</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>428</v>
@@ -21058,10 +21078,10 @@
         <v>1415</v>
       </c>
       <c r="G122" s="18" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="31" t="s">
@@ -21081,16 +21101,16 @@
         <v>428</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>446</v>
@@ -21100,10 +21120,10 @@
     </row>
     <row r="124">
       <c r="A124" s="4" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>1415</v>
@@ -21122,7 +21142,7 @@
         <v>1584</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="127">
@@ -21162,82 +21182,82 @@
     <row r="128" hidden="1"/>
     <row r="129" hidden="1">
       <c r="A129" s="1" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="K129" s="12"/>
       <c r="L129" s="12"/>
     </row>
     <row r="130" hidden="1">
       <c r="A130" s="1" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>2424</v>
+        <v>2428</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>2428</v>
+        <v>2432</v>
       </c>
       <c r="K130" s="12"/>
       <c r="L130" s="12"/>
     </row>
     <row r="131" hidden="1">
       <c r="A131" s="1" t="s">
-        <v>2429</v>
+        <v>2433</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>2430</v>
+        <v>2434</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1656</v>
       </c>
       <c r="E131" s="13"/>
       <c r="F131" s="35" t="s">
-        <v>2431</v>
+        <v>2435</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2432</v>
+        <v>2436</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>2434</v>
+        <v>2438</v>
       </c>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
@@ -21338,7 +21358,7 @@
     </row>
     <row r="5" ht="13.5" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>2435</v>
+        <v>2439</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>18</v>
@@ -21364,20 +21384,20 @@
         <v>504</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>506</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="18" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>439</v>
@@ -21389,464 +21409,464 @@
     </row>
     <row r="7" ht="13.5" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2439</v>
+        <v>2443</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2440</v>
+        <v>2444</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2441</v>
+        <v>2445</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2442</v>
+        <v>2446</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>2443</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>2445</v>
+        <v>2449</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>2450</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="9" ht="15.0" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2455</v>
+        <v>2459</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2456</v>
+        <v>2460</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>2457</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="10" ht="15.0" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2460</v>
+        <v>2464</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>2461</v>
+        <v>2465</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2462</v>
+        <v>2466</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>2463</v>
+        <v>2467</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>2465</v>
+        <v>2469</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>2466</v>
+        <v>2470</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>2468</v>
+        <v>2472</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>2470</v>
+        <v>2474</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>2471</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>2472</v>
+        <v>2476</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2474</v>
+        <v>2478</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>2477</v>
+        <v>2481</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>2478</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>2479</v>
+        <v>2483</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2480</v>
+        <v>2484</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2481</v>
+        <v>2485</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>2482</v>
+        <v>2486</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>2483</v>
+        <v>2487</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>2484</v>
+        <v>2488</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>2485</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>2486</v>
+        <v>2490</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>2487</v>
+        <v>2491</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2488</v>
+        <v>2492</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>2489</v>
+        <v>2493</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2490</v>
+        <v>2494</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2491</v>
+        <v>2495</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>2492</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>2494</v>
+        <v>2498</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>2495</v>
+        <v>2499</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>2497</v>
+        <v>2501</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>2499</v>
+        <v>2503</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>2500</v>
+        <v>2504</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>2501</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>2502</v>
+        <v>2506</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>342</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2503</v>
+        <v>2507</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>2504</v>
+        <v>2508</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>346</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>2505</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>2506</v>
+        <v>2510</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2507</v>
+        <v>2511</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2508</v>
+        <v>2512</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>2509</v>
+        <v>2513</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>2512</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>2513</v>
+        <v>2517</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2514</v>
+        <v>2518</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2515</v>
+        <v>2519</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2517</v>
+        <v>2521</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>2518</v>
+        <v>2522</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>2519</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>2520</v>
+        <v>2524</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2521</v>
+        <v>2525</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2522</v>
+        <v>2526</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>2523</v>
+        <v>2527</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>2525</v>
+        <v>2529</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>2526</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>2527</v>
+        <v>2531</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2528</v>
+        <v>2532</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2529</v>
+        <v>2533</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>2530</v>
+        <v>2534</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>2531</v>
+        <v>2535</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>2532</v>
+        <v>2536</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>2533</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>2534</v>
+        <v>2538</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>2537</v>
+        <v>2541</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>2538</v>
+        <v>2542</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>2539</v>
+        <v>2543</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>2540</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>2541</v>
+        <v>2545</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2542</v>
+        <v>2546</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2543</v>
+        <v>2547</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>2544</v>
+        <v>2548</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>2545</v>
+        <v>2549</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>2546</v>
+        <v>2550</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>2547</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>2548</v>
+        <v>2552</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2549</v>
+        <v>2553</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>2551</v>
+        <v>2555</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>2552</v>
+        <v>2556</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>2553</v>
+        <v>2557</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>2554</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="12" t="s">
-        <v>2555</v>
+        <v>2559</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2556</v>
+        <v>2560</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2557</v>
+        <v>2561</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>2558</v>
+        <v>2562</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>2559</v>
+        <v>2563</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>2560</v>
+        <v>2564</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>2561</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>2562</v>
+        <v>2566</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2563</v>
+        <v>2567</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2564</v>
+        <v>2568</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>2565</v>
+        <v>2569</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>2566</v>
+        <v>2570</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>2567</v>
+        <v>2571</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>2568</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>2569</v>
+        <v>2573</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1415</v>
@@ -21869,160 +21889,160 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>2570</v>
+        <v>2574</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>987</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>2572</v>
+        <v>2576</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>2571</v>
+        <v>2575</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>2574</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>2575</v>
+        <v>2579</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2576</v>
+        <v>2580</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2577</v>
+        <v>2581</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2579</v>
+        <v>2583</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2580</v>
+        <v>2584</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>2581</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>2582</v>
+        <v>2586</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2583</v>
+        <v>2587</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2584</v>
+        <v>2588</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>2585</v>
+        <v>2589</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>2586</v>
+        <v>2590</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>2587</v>
+        <v>2591</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>2589</v>
+        <v>2593</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2590</v>
+        <v>2594</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>1353</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>2591</v>
+        <v>2595</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2592</v>
+        <v>2596</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>2593</v>
+        <v>2597</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>2594</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>2595</v>
+        <v>2599</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2596</v>
+        <v>2600</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2597</v>
+        <v>2601</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>2598</v>
+        <v>2602</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2599</v>
+        <v>2603</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>2588</v>
+        <v>2592</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>2600</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>2601</v>
+        <v>2605</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2602</v>
+        <v>2606</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2603</v>
+        <v>2607</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>2604</v>
+        <v>2608</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2605</v>
+        <v>2609</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2606</v>
+        <v>2610</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>2607</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="34" ht="61.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>2608</v>
+        <v>2612</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>2609</v>
+        <v>2613</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>2610</v>
+        <v>2614</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2611</v>
+        <v>2615</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2612</v>
+        <v>2616</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>2613</v>
+        <v>2617</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>439</v>
@@ -22030,41 +22050,41 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>2614</v>
+        <v>2618</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2615</v>
+        <v>2619</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="4" t="s">
-        <v>2616</v>
+        <v>2620</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="36" ht="49.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>2621</v>
+        <v>2625</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="12" t="s">
-        <v>2622</v>
+        <v>2626</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2623</v>
+        <v>2627</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>2624</v>
+        <v>2628</v>
       </c>
       <c r="J36" s="13"/>
     </row>
@@ -22076,16 +22096,16 @@
         <v>1512</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2625</v>
+        <v>2629</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1514</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>2626</v>
+        <v>2630</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1517</v>
@@ -22093,68 +22113,68 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>2628</v>
+        <v>2632</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2629</v>
+        <v>2633</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2630</v>
+        <v>2634</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2633</v>
+        <v>2637</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>2634</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>2635</v>
+        <v>2639</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2636</v>
+        <v>2640</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2637</v>
+        <v>2641</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2638</v>
+        <v>2642</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>2639</v>
+        <v>2643</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>2641</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>2642</v>
+        <v>2646</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2644</v>
+        <v>2648</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2645</v>
+        <v>2649</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2646</v>
+        <v>2650</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>439</v>
@@ -22165,25 +22185,25 @@
         <v>246</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>428</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>2649</v>
+        <v>2653</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>2650</v>
+        <v>2654</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>2651</v>
+        <v>2655</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>2652</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="42">
@@ -22197,16 +22217,16 @@
         <v>428</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2653</v>
+        <v>2657</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>2654</v>
+        <v>2658</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>2655</v>
+        <v>2659</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>259</v>
@@ -22214,7 +22234,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>84</v>
@@ -22237,25 +22257,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>2662</v>
+        <v>2666</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>2663</v>
+        <v>2667</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>2664</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="45">
@@ -22266,42 +22286,42 @@
         <v>278</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2665</v>
+        <v>2669</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>2666</v>
+        <v>2670</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>2667</v>
+        <v>2671</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>278</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>2668</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>2669</v>
+        <v>2673</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2670</v>
+        <v>2674</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>2671</v>
+        <v>2675</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>2672</v>
+        <v>2676</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>2673</v>
+        <v>2677</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>2674</v>
+        <v>2678</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>2675</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="47">
@@ -22312,13 +22332,13 @@
         <v>317</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>2676</v>
+        <v>2680</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>320</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>2677</v>
+        <v>2681</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>322</v>
@@ -22338,10 +22358,10 @@
         <v>350</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2678</v>
+        <v>2682</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>2679</v>
+        <v>2683</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>353</v>
@@ -22352,103 +22372,103 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>2680</v>
+        <v>2684</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2681</v>
+        <v>2685</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="1" t="s">
-        <v>2682</v>
+        <v>2686</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>2683</v>
+        <v>2687</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2684</v>
+        <v>2688</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>2685</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>2686</v>
+        <v>2690</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2687</v>
+        <v>2691</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>2688</v>
+        <v>2692</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>2690</v>
+        <v>2694</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>2692</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>2693</v>
+        <v>2697</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2695</v>
+        <v>2699</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>2696</v>
+        <v>2700</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>2698</v>
+        <v>2702</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>2699</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>2700</v>
+        <v>2704</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2701</v>
+        <v>2705</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>2702</v>
+        <v>2706</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>2703</v>
+        <v>2707</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>2704</v>
+        <v>2708</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>2706</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>2707</v>
+        <v>2711</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>2708</v>
+        <v>2712</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>2709</v>
+        <v>2713</v>
       </c>
       <c r="D53" s="19"/>
       <c r="E53" s="18" t="s">
@@ -22470,121 +22490,121 @@
     </row>
     <row r="54" ht="84.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>2710</v>
+        <v>2714</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>2711</v>
+        <v>2715</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="12" t="s">
-        <v>2712</v>
+        <v>2716</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>2713</v>
+        <v>2717</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>2714</v>
+        <v>2718</v>
       </c>
       <c r="J54" s="13"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>2715</v>
+        <v>2719</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2716</v>
+        <v>2720</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>2717</v>
+        <v>2721</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>2718</v>
+        <v>2722</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>2719</v>
+        <v>2723</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2720</v>
+        <v>2724</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>2721</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>2722</v>
+        <v>2726</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2723</v>
+        <v>2727</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>2724</v>
+        <v>2728</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>2725</v>
+        <v>2729</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2726</v>
+        <v>2730</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>2727</v>
+        <v>2731</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>2728</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>2729</v>
+        <v>2733</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2730</v>
+        <v>2734</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>2731</v>
+        <v>2735</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>2732</v>
+        <v>2736</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>2733</v>
+        <v>2737</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>2734</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>2735</v>
+        <v>2739</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2736</v>
+        <v>2740</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>2743</v>
+        <v>2747</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>45</v>
@@ -22593,7 +22613,7 @@
         <v>46</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>2744</v>
+        <v>2748</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>49</v>
@@ -22601,45 +22621,45 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>2745</v>
+        <v>2749</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2746</v>
+        <v>2750</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>2747</v>
+        <v>2751</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>2748</v>
+        <v>2752</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>2749</v>
+        <v>2753</v>
       </c>
       <c r="H60" s="4" t="s">
+        <v>2754</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>2751</v>
+        <v>2755</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2752</v>
+        <v>2756</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>2753</v>
+        <v>2757</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>2754</v>
+        <v>2758</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>360</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>2755</v>
+        <v>2759</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>363</v>
@@ -22647,140 +22667,140 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>2756</v>
+        <v>2760</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>2760</v>
+        <v>2764</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>2757</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>2761</v>
+        <v>2765</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2762</v>
+        <v>2766</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>2763</v>
+        <v>2767</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>2766</v>
+        <v>2770</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>2767</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>2768</v>
+        <v>2772</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2769</v>
+        <v>2773</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>2770</v>
+        <v>2774</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>2771</v>
+        <v>2775</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>2772</v>
+        <v>2776</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>2773</v>
+        <v>2777</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>2774</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>2775</v>
+        <v>2779</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>2777</v>
+        <v>2781</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>2778</v>
+        <v>2782</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>2779</v>
+        <v>2783</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>2776</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>2780</v>
+        <v>2784</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2781</v>
+        <v>2785</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>2782</v>
+        <v>2786</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>2784</v>
+        <v>2788</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>2785</v>
+        <v>2789</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>2786</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2787</v>
+        <v>2791</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>2788</v>
+        <v>2792</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>2789</v>
+        <v>2793</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>2790</v>
+        <v>2794</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>2791</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="68">
@@ -22788,70 +22808,70 @@
         <v>1804</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2792</v>
+        <v>2796</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>2793</v>
+        <v>2797</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>2794</v>
+        <v>2798</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>2796</v>
+        <v>2800</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>2797</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>2798</v>
+        <v>2802</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2799</v>
+        <v>2803</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="4" t="s">
-        <v>2800</v>
+        <v>2804</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>2801</v>
+        <v>2805</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2803</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>2804</v>
+        <v>2808</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2805</v>
+        <v>2809</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="36" t="s">
-        <v>2806</v>
+        <v>2810</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="1" t="s">
-        <v>2807</v>
+        <v>2811</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2808</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="17" t="s">
-        <v>2809</v>
+        <v>2813</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>2810</v>
+        <v>2814</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -22874,172 +22894,172 @@
     </row>
     <row r="72" ht="32.25" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>2811</v>
+        <v>2815</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="34" t="s">
-        <v>2813</v>
+        <v>2817</v>
       </c>
       <c r="G72" s="13"/>
       <c r="H72" s="1" t="s">
-        <v>2814</v>
+        <v>2818</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>2815</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>2816</v>
+        <v>2820</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2817</v>
+        <v>2821</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>2819</v>
+        <v>2823</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>2820</v>
+        <v>2824</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2821</v>
+        <v>2825</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>2822</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>2823</v>
+        <v>2827</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2824</v>
+        <v>2828</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2826</v>
+        <v>2830</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2827</v>
+        <v>2831</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2828</v>
+        <v>2832</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>2829</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>2830</v>
+        <v>2834</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2831</v>
+        <v>2835</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2832</v>
+        <v>2836</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2833</v>
+        <v>2837</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>2834</v>
+        <v>2838</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>2835</v>
+        <v>2839</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2838</v>
+        <v>2842</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2839</v>
+        <v>2843</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2841</v>
+        <v>2845</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="J76" s="13"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>2843</v>
+        <v>2847</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2844</v>
+        <v>2848</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>2845</v>
+        <v>2849</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2846</v>
+        <v>2850</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2847</v>
+        <v>2851</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>2848</v>
+        <v>2852</v>
       </c>
       <c r="J77" s="13"/>
     </row>
     <row r="78" ht="61.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>2849</v>
+        <v>2853</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>2850</v>
+        <v>2854</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="4" t="s">
-        <v>2851</v>
+        <v>2855</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>2852</v>
+        <v>2856</v>
       </c>
       <c r="H78" s="14" t="s">
-        <v>2853</v>
+        <v>2857</v>
       </c>
       <c r="J78" s="13"/>
     </row>
     <row r="79" ht="61.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>2854</v>
+        <v>2858</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>2855</v>
+        <v>2859</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="4" t="s">
-        <v>2856</v>
+        <v>2860</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>2858</v>
+        <v>2862</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>2859</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="80">
@@ -23053,16 +23073,16 @@
         <v>428</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>431</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>2861</v>
+        <v>2865</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>433</v>
@@ -23107,16 +23127,16 @@
         <v>428</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>2862</v>
+        <v>2866</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>2863</v>
+        <v>2867</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>444</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>2864</v>
+        <v>2868</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>446</v>
@@ -23124,10 +23144,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>439</v>
@@ -23153,10 +23173,10 @@
         <v>456</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>2867</v>
+        <v>2871</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>459</v>
@@ -23165,7 +23185,7 @@
         <v>460</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>463</v>
@@ -23210,24 +23230,24 @@
     </row>
     <row r="89" hidden="1">
       <c r="A89" s="4" t="s">
-        <v>2870</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="90" hidden="1">
       <c r="A90" s="1" t="s">
-        <v>2871</v>
+        <v>2875</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2873</v>
+        <v>2877</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2874</v>
+        <v>2878</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>2836</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1"/>
@@ -23284,7 +23304,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>2875</v>
+        <v>2879</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -23308,7 +23328,7 @@
     <row r="2" ht="21.0" customHeight="1"/>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>2876</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
@@ -23318,62 +23338,62 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="42" t="s">
-        <v>2877</v>
+        <v>2881</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2878</v>
+        <v>2882</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2880</v>
+        <v>2884</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2881</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>2882</v>
+        <v>2886</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>2883</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>2879</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>2884</v>
+        <v>2888</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>2885</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>2886</v>
+        <v>2890</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>2887</v>
+        <v>2891</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>2889</v>
+        <v>2893</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>2890</v>
+        <v>2894</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>2892</v>
+        <v>2896</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>2893</v>
+        <v>2897</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>439</v>
@@ -23389,18 +23409,18 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>2894</v>
+        <v>2898</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>2895</v>
+        <v>2899</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="12" t="s">
-        <v>2896</v>
+        <v>2900</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
@@ -23412,54 +23432,54 @@
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>2897</v>
+        <v>2901</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>2898</v>
+        <v>2902</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="12" t="s">
-        <v>2899</v>
+        <v>2903</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="4" t="s">
-        <v>2900</v>
+        <v>2904</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="43"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="42" t="s">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>2902</v>
+        <v>2906</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>2904</v>
+        <v>2908</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>2905</v>
+        <v>2909</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>2906</v>
+        <v>2910</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>2907</v>
+        <v>2911</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>2908</v>
+        <v>2912</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>2909</v>
+        <v>2913</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" ref="J10:J14" si="1">IF(#REF!=1,K10,L10)</f>
@@ -23472,31 +23492,31 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="42" t="s">
-        <v>2910</v>
+        <v>2914</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>2911</v>
+        <v>2915</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>2912</v>
+        <v>2916</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>2913</v>
+        <v>2917</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>2914</v>
+        <v>2918</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>2915</v>
+        <v>2919</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>2916</v>
+        <v>2920</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>2917</v>
+        <v>2921</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23509,31 +23529,31 @@
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="42" t="s">
-        <v>2918</v>
+        <v>2922</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>2920</v>
+        <v>2924</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>2919</v>
+        <v>2923</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23546,31 +23566,31 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>2921</v>
+        <v>2925</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>2922</v>
+        <v>2926</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>2923</v>
+        <v>2927</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>2924</v>
+        <v>2928</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>2925</v>
+        <v>2929</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>2926</v>
+        <v>2930</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>2927</v>
+        <v>2931</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>2928</v>
+        <v>2932</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23583,31 +23603,31 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="42" t="s">
-        <v>2929</v>
+        <v>2933</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>2930</v>
+        <v>2934</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>2931</v>
+        <v>2935</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>2932</v>
+        <v>2936</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>2933</v>
+        <v>2937</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>2934</v>
+        <v>2938</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>2935</v>
+        <v>2939</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>2936</v>
+        <v>2940</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -23620,100 +23640,100 @@
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>2937</v>
+        <v>2941</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>2938</v>
+        <v>2942</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
       <c r="F15" s="12" t="s">
-        <v>2939</v>
+        <v>2943</v>
       </c>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="12" t="s">
-        <v>2940</v>
+        <v>2944</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="43"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="42" t="s">
-        <v>2941</v>
+        <v>2945</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>2942</v>
+        <v>2946</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
       <c r="F16" s="12" t="s">
-        <v>2943</v>
+        <v>2947</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="12" t="s">
-        <v>2944</v>
+        <v>2948</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="43"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="42" t="s">
-        <v>2945</v>
+        <v>2949</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>2946</v>
+        <v>2950</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
       <c r="F17" s="12" t="s">
-        <v>2947</v>
+        <v>2951</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
       <c r="I17" s="12" t="s">
-        <v>2948</v>
+        <v>2952</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="43"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>2949</v>
+        <v>2953</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>2950</v>
+        <v>2954</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>2951</v>
+        <v>2955</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>2953</v>
+        <v>2957</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>2954</v>
+        <v>2958</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>2959</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>2955</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>2951</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IF(#REF!=1,K18,L18)</f>
@@ -23726,123 +23746,123 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>2956</v>
+        <v>2960</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>2957</v>
+        <v>2961</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
       <c r="F19" s="12" t="s">
-        <v>2958</v>
+        <v>2962</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="12" t="s">
-        <v>2959</v>
+        <v>2963</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>2960</v>
+        <v>2964</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
       <c r="F20" s="12" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="12" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="42" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="12" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
       <c r="I21" s="12" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="43"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="42" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
       <c r="F22" s="12" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="12" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="43"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="42" t="s">
-        <v>2971</v>
+        <v>2975</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>2972</v>
+        <v>2976</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>2973</v>
+        <v>2977</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>2974</v>
+        <v>2978</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>2975</v>
+        <v>2979</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>2976</v>
+        <v>2980</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>2977</v>
+        <v>2981</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>IF(#REF!=1,K23,L23)</f>
@@ -23855,192 +23875,192 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="42" t="s">
-        <v>2979</v>
+        <v>2983</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>2980</v>
+        <v>2984</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43"/>
       <c r="F24" s="12" t="s">
-        <v>2981</v>
+        <v>2985</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="12" t="s">
-        <v>2982</v>
+        <v>2986</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="43"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="42" t="s">
-        <v>2983</v>
+        <v>2987</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>2984</v>
+        <v>2988</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43"/>
       <c r="F25" s="12" t="s">
-        <v>2985</v>
+        <v>2989</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="12" t="s">
-        <v>2986</v>
+        <v>2990</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="43"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="42" t="s">
-        <v>2987</v>
+        <v>2991</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>2988</v>
+        <v>2992</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="12" t="s">
-        <v>2989</v>
+        <v>2993</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="12" t="s">
-        <v>2990</v>
+        <v>2994</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="43"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="42" t="s">
-        <v>2991</v>
+        <v>2995</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>2992</v>
+        <v>2996</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="12" t="s">
-        <v>2993</v>
+        <v>2997</v>
       </c>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
       <c r="I27" s="12" t="s">
-        <v>2994</v>
+        <v>2998</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="43"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>2995</v>
+        <v>2999</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>2996</v>
+        <v>3000</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="43"/>
       <c r="F28" s="12" t="s">
-        <v>2997</v>
+        <v>3001</v>
       </c>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="12" t="s">
-        <v>2998</v>
+        <v>3002</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="43"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="42" t="s">
-        <v>2999</v>
+        <v>3003</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>3000</v>
+        <v>3004</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D29" s="43"/>
       <c r="E29" s="43"/>
       <c r="F29" s="12" t="s">
-        <v>3001</v>
+        <v>3005</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
       <c r="I29" s="12" t="s">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="43"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="42" t="s">
-        <v>3003</v>
+        <v>3007</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>3004</v>
+        <v>3008</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="12" t="s">
-        <v>3005</v>
+        <v>3009</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
       <c r="I30" s="12" t="s">
-        <v>3006</v>
+        <v>3010</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="43"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="42" t="s">
-        <v>3007</v>
+        <v>3011</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>3008</v>
+        <v>3012</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>3009</v>
+        <v>3013</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>3010</v>
+        <v>3014</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>3011</v>
+        <v>3015</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>3012</v>
+        <v>3016</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>3013</v>
+        <v>3017</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>3014</v>
+        <v>3018</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" ref="J31:J33" si="3">IF(#REF!=1,K31,L31)</f>
@@ -24053,31 +24073,31 @@
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="42" t="s">
-        <v>3015</v>
+        <v>3019</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>3016</v>
+        <v>3020</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>3017</v>
+        <v>3021</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>3018</v>
+        <v>3022</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>3019</v>
+        <v>3023</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>3020</v>
+        <v>3024</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>3021</v>
+        <v>3025</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>3022</v>
+        <v>3026</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -24090,31 +24110,31 @@
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>3025</v>
+        <v>3029</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>3024</v>
+        <v>3028</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -24127,54 +24147,54 @@
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="42" t="s">
-        <v>3026</v>
+        <v>3030</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>3027</v>
+        <v>3031</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="12" t="s">
-        <v>3028</v>
+        <v>3032</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43"/>
       <c r="I34" s="12" t="s">
-        <v>3029</v>
+        <v>3033</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="43"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="42" t="s">
-        <v>3030</v>
+        <v>3034</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>3031</v>
+        <v>3035</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>3032</v>
+        <v>3036</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>3033</v>
+        <v>3037</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>3034</v>
+        <v>3038</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>3035</v>
+        <v>3039</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>3036</v>
+        <v>3040</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>3037</v>
+        <v>3041</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" ref="J35:J41" si="5">IF(#REF!=1,K35,L35)</f>
@@ -24187,28 +24207,28 @@
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="42" t="s">
-        <v>3038</v>
+        <v>3042</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>3039</v>
+        <v>3043</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>3040</v>
+        <v>3044</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>3042</v>
+        <v>3046</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>3041</v>
+        <v>3045</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>3043</v>
+        <v>3047</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>363</v>
@@ -24224,31 +24244,31 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="42" t="s">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>3045</v>
+        <v>3049</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>3046</v>
+        <v>3050</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>3047</v>
+        <v>3051</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>3048</v>
+        <v>3052</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>3049</v>
+        <v>3053</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>3050</v>
+        <v>3054</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>3051</v>
+        <v>3055</v>
       </c>
       <c r="J37" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24261,31 +24281,31 @@
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="42" t="s">
-        <v>3052</v>
+        <v>3056</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>3054</v>
+        <v>3058</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>3055</v>
+        <v>3059</v>
       </c>
       <c r="J38" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24298,31 +24318,31 @@
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>3056</v>
+        <v>3060</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>3057</v>
+        <v>3061</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>3058</v>
+        <v>3062</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>3059</v>
+        <v>3063</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>3060</v>
+        <v>3064</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>3061</v>
+        <v>3065</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>3063</v>
+        <v>3067</v>
       </c>
       <c r="J39" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24335,28 +24355,28 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>3064</v>
+        <v>3068</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>3065</v>
+        <v>3069</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>3067</v>
+        <v>3071</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>3068</v>
+        <v>3072</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>3069</v>
+        <v>3073</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>3070</v>
+        <v>3074</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>3071</v>
+        <v>3075</v>
       </c>
       <c r="J40" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24369,31 +24389,31 @@
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="42" t="s">
-        <v>3072</v>
+        <v>3076</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>3073</v>
+        <v>3077</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>3074</v>
+        <v>3078</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>3075</v>
+        <v>3079</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>3076</v>
+        <v>3080</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>3077</v>
+        <v>3081</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>3078</v>
+        <v>3082</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="J41" s="2" t="str">
         <f t="shared" si="5"/>
@@ -24406,54 +24426,54 @@
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="42" t="s">
-        <v>3080</v>
+        <v>3084</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>3081</v>
+        <v>3085</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="12" t="s">
-        <v>3082</v>
+        <v>3086</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
       <c r="I42" s="12" t="s">
-        <v>3083</v>
+        <v>3087</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="43"/>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="42" t="s">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>1697</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>1700</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>3088</v>
+        <v>3092</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>3089</v>
+        <v>3093</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>IF(#REF!=1,K43,L43)</f>
@@ -24466,82 +24486,82 @@
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>3090</v>
+        <v>3094</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>3091</v>
+        <v>3095</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="12" t="s">
-        <v>3091</v>
+        <v>3095</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="12" t="s">
-        <v>3092</v>
+        <v>3096</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="43"/>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>3093</v>
+        <v>3097</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>3094</v>
+        <v>3098</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="12" t="s">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="12" t="s">
-        <v>3096</v>
+        <v>3100</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="43"/>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>3097</v>
+        <v>3101</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>3098</v>
+        <v>3102</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="12" t="s">
-        <v>3099</v>
+        <v>3103</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="12" t="s">
-        <v>3100</v>
+        <v>3104</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="43"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>3101</v>
+        <v>3105</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>3102</v>
+        <v>3106</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
@@ -24549,38 +24569,38 @@
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="12" t="s">
-        <v>3103</v>
+        <v>3107</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="43"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="42" t="s">
-        <v>3104</v>
+        <v>3108</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>3105</v>
+        <v>3109</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>3106</v>
+        <v>3110</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>3107</v>
+        <v>3111</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>3108</v>
+        <v>3112</v>
       </c>
       <c r="G48" s="12" t="s">
+        <v>3113</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>3109</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>3105</v>
-      </c>
       <c r="I48" s="12" t="s">
-        <v>3110</v>
+        <v>3114</v>
       </c>
       <c r="J48" s="2" t="str">
         <f>IF(#REF!=1,K48,L48)</f>
@@ -24593,100 +24613,100 @@
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>3112</v>
+        <v>3116</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="12" t="s">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="12" t="s">
-        <v>3114</v>
+        <v>3118</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="43"/>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="42" t="s">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>3116</v>
+        <v>3120</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="12" t="s">
-        <v>3117</v>
+        <v>3121</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="12" t="s">
-        <v>3118</v>
+        <v>3122</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="43"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="42" t="s">
-        <v>3119</v>
+        <v>3123</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>3120</v>
+        <v>3124</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="12" t="s">
-        <v>3121</v>
+        <v>3125</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
       <c r="I51" s="12" t="s">
-        <v>3122</v>
+        <v>3126</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="43"/>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="42" t="s">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>3125</v>
+        <v>3129</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>3126</v>
+        <v>3130</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>3128</v>
+        <v>3132</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>3129</v>
+        <v>3133</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>3130</v>
+        <v>3134</v>
       </c>
       <c r="J52" s="2" t="str">
         <f t="shared" ref="J52:J54" si="7">IF(#REF!=1,K52,L52)</f>
@@ -24699,31 +24719,31 @@
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="42" t="s">
-        <v>3131</v>
+        <v>3135</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>3133</v>
+        <v>3137</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>3132</v>
+        <v>3136</v>
       </c>
       <c r="J53" s="2" t="str">
         <f t="shared" si="7"/>
@@ -24736,31 +24756,31 @@
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="42" t="s">
-        <v>3135</v>
+        <v>3139</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>3136</v>
+        <v>3140</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>3137</v>
+        <v>3141</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>3138</v>
+        <v>3142</v>
       </c>
       <c r="J54" s="2" t="str">
         <f t="shared" si="7"/>
@@ -24773,100 +24793,100 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="42" t="s">
-        <v>3139</v>
+        <v>3143</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>3140</v>
+        <v>3144</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>3141</v>
+        <v>3145</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="12" t="s">
-        <v>3142</v>
+        <v>3146</v>
       </c>
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
       <c r="I55" s="12" t="s">
-        <v>3143</v>
+        <v>3147</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="43"/>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="42" t="s">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>3145</v>
+        <v>3149</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>3146</v>
+        <v>3150</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="12" t="s">
-        <v>3147</v>
+        <v>3151</v>
       </c>
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
       <c r="I56" s="12" t="s">
-        <v>3148</v>
+        <v>3152</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="43"/>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="42" t="s">
-        <v>3149</v>
+        <v>3153</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>3150</v>
+        <v>3154</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>3151</v>
+        <v>3155</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="12" t="s">
-        <v>3152</v>
+        <v>3156</v>
       </c>
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
       <c r="I57" s="12" t="s">
-        <v>3153</v>
+        <v>3157</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="43"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="42" t="s">
-        <v>3154</v>
+        <v>3158</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>3155</v>
+        <v>3159</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>3156</v>
+        <v>3160</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>3157</v>
+        <v>3161</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>3158</v>
+        <v>3162</v>
       </c>
       <c r="G58" s="12" t="s">
+        <v>3163</v>
+      </c>
+      <c r="H58" s="12" t="s">
         <v>3159</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>3155</v>
-      </c>
       <c r="I58" s="12" t="s">
-        <v>3160</v>
+        <v>3164</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>IF(#REF!=1,K58,L58)</f>
@@ -24879,123 +24899,123 @@
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="42" t="s">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>3162</v>
+        <v>3166</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
       <c r="F59" s="12" t="s">
-        <v>3163</v>
+        <v>3167</v>
       </c>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="I59" s="12" t="s">
-        <v>3164</v>
+        <v>3168</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="43"/>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="42" t="s">
-        <v>3165</v>
+        <v>3169</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>3166</v>
+        <v>3170</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="43"/>
       <c r="F60" s="12" t="s">
-        <v>3167</v>
+        <v>3171</v>
       </c>
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
       <c r="I60" s="12" t="s">
-        <v>3168</v>
+        <v>3172</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="43"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="42" t="s">
-        <v>3169</v>
+        <v>3173</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>3170</v>
+        <v>3174</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="43"/>
       <c r="F61" s="12" t="s">
-        <v>3171</v>
+        <v>3175</v>
       </c>
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
       <c r="I61" s="12" t="s">
-        <v>3172</v>
+        <v>3176</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="43"/>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="42" t="s">
-        <v>3173</v>
+        <v>3177</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>3174</v>
+        <v>3178</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
       <c r="F62" s="12" t="s">
-        <v>3175</v>
+        <v>3179</v>
       </c>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
       <c r="I62" s="12" t="s">
-        <v>3176</v>
+        <v>3180</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="43"/>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="42" t="s">
-        <v>3177</v>
+        <v>3181</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>1708</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>3178</v>
+        <v>3182</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>1709</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>3179</v>
+        <v>3183</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>1709</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>3181</v>
+        <v>3185</v>
       </c>
       <c r="J63" s="2" t="str">
         <f t="shared" ref="J63:J64" si="9">IF(#REF!=1,K63,L63)</f>
@@ -25008,31 +25028,31 @@
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>3182</v>
+        <v>3186</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>3183</v>
+        <v>3187</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>3185</v>
+        <v>3189</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>3186</v>
+        <v>3190</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>3187</v>
+        <v>3191</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="J64" s="2" t="str">
         <f t="shared" si="9"/>
@@ -25045,60 +25065,60 @@
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="42" t="s">
-        <v>3188</v>
+        <v>3192</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>3190</v>
+        <v>3194</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>3189</v>
+        <v>3193</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>3191</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="42" t="s">
-        <v>3192</v>
+        <v>3196</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>3194</v>
+        <v>3198</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>3195</v>
+        <v>3199</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>3196</v>
+        <v>3200</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>3193</v>
+        <v>3197</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>3197</v>
+        <v>3201</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>3198</v>
+        <v>3202</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>IF(#REF!=1,K66,L66)</f>
@@ -25111,18 +25131,18 @@
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="42" t="s">
-        <v>3199</v>
+        <v>3203</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>3200</v>
+        <v>3204</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="12" t="s">
-        <v>3201</v>
+        <v>3205</v>
       </c>
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
@@ -25134,19 +25154,19 @@
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>3202</v>
+        <v>3206</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>85</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>3203</v>
+        <v>3207</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>85</v>
@@ -25158,7 +25178,7 @@
         <v>85</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="J68" s="2" t="str">
         <f t="shared" ref="J68:J70" si="11">IF(#REF!=1,K68,L68)</f>
@@ -25171,31 +25191,31 @@
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="42" t="s">
-        <v>3205</v>
+        <v>3209</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>3207</v>
+        <v>3211</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>3208</v>
+        <v>3212</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>3209</v>
+        <v>3213</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>3211</v>
+        <v>3215</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>3212</v>
+        <v>3216</v>
       </c>
       <c r="J69" s="2" t="str">
         <f t="shared" si="11"/>
@@ -25208,16 +25228,16 @@
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="42" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>1711</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>1712</v>
@@ -25232,7 +25252,7 @@
         <v>1711</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="J70" s="2" t="str">
         <f t="shared" si="11"/>
@@ -25245,51 +25265,51 @@
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>2879</v>
+        <v>2883</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="43"/>
       <c r="F71" s="12" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
       <c r="I71" s="4" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="43"/>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>439</v>
@@ -25349,10 +25369,10 @@
     </row>
     <row r="79" ht="21.0" hidden="1" customHeight="1">
       <c r="A79" s="42" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="J79" s="2" t="str">
         <f t="shared" ref="J79:J83" si="13">IF(#REF!=1,K79,L79)</f>
@@ -25365,13 +25385,13 @@
     </row>
     <row r="80" ht="21.0" hidden="1" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="J80" s="2" t="str">
         <f t="shared" si="13"/>
@@ -25384,13 +25404,13 @@
     </row>
     <row r="81" ht="21.0" hidden="1" customHeight="1">
       <c r="A81" s="42" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="J81" s="2" t="str">
         <f t="shared" si="13"/>
@@ -25403,28 +25423,28 @@
     </row>
     <row r="82" ht="21.0" hidden="1" customHeight="1">
       <c r="A82" s="42" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="I82" s="43"/>
       <c r="J82" s="2" t="str">
@@ -25438,25 +25458,25 @@
     </row>
     <row r="83" ht="21.0" hidden="1" customHeight="1">
       <c r="A83" s="42" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="I83" s="43"/>
       <c r="J83" s="2" t="str">
@@ -25470,36 +25490,36 @@
     </row>
     <row r="84" ht="21.0" hidden="1" customHeight="1">
       <c r="H84" s="12" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="85" ht="21.0" hidden="1" customHeight="1">
       <c r="A85" s="42" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="J85" s="2" t="str">
         <f t="shared" ref="J85:J87" si="15">IF(#REF!=1,K85,L85)</f>
@@ -25512,31 +25532,31 @@
     </row>
     <row r="86" ht="21.0" hidden="1" customHeight="1">
       <c r="A86" s="42" t="s">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>3088</v>
+        <v>3092</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
       <c r="J86" s="2" t="str">
         <f t="shared" si="15"/>
@@ -25549,25 +25569,25 @@
     </row>
     <row r="87" ht="21.0" hidden="1" customHeight="1">
       <c r="A87" s="42" t="s">
-        <v>3084</v>
+        <v>3088</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>2903</v>
+        <v>2907</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>3085</v>
+        <v>3089</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>3086</v>
+        <v>3090</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>3087</v>
+        <v>3091</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="I87" s="12">
         <v>1.0</v>
@@ -25649,7 +25669,7 @@
     <row r="5" ht="13.5" customHeight="1"/>
     <row r="6" ht="13.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
@@ -25660,54 +25680,54 @@
     <row r="8" ht="13.5" customHeight="1"/>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1">
@@ -25715,39 +25735,39 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -25760,771 +25780,771 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3286</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1"/>
     <row r="21" ht="13.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>3303</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>3297</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>3299</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>3307</v>
+        <v>3311</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>3310</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>3314</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>3336</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3330</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>3337</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>3332</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>3333</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>3338</v>
+        <v>3342</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3339</v>
+        <v>3343</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>3340</v>
+        <v>3344</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>3341</v>
+        <v>3345</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>3342</v>
+        <v>3346</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>3343</v>
+        <v>3347</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>3344</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>3345</v>
+        <v>3349</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3346</v>
+        <v>3350</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>3352</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3346</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>3347</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>3348</v>
-      </c>
       <c r="H34" s="1" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>3353</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3355</v>
+        <v>3359</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>3356</v>
+        <v>3360</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>3357</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3358</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>3359</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>3360</v>
+        <v>3364</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>3362</v>
+        <v>3366</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3363</v>
+        <v>3367</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>3365</v>
+        <v>3369</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>3366</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1"/>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>3367</v>
+        <v>3371</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3368</v>
+        <v>3372</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>3372</v>
+        <v>3376</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>3373</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="12" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>3372</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>3368</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>3370</v>
-      </c>
       <c r="H39" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>3372</v>
+        <v>3376</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>3373</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>3375</v>
+        <v>3379</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>3376</v>
+        <v>3380</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>3377</v>
+        <v>3381</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>3378</v>
+        <v>3382</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>3381</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1"/>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>3382</v>
+        <v>3386</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>3384</v>
+        <v>3388</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>3385</v>
+        <v>3389</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>3386</v>
+        <v>3390</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="C43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>3384</v>
+        <v>3388</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>3385</v>
+        <v>3389</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>3386</v>
+        <v>3390</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>3390</v>
+        <v>3394</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>3391</v>
+        <v>3395</v>
       </c>
       <c r="C44" s="43"/>
       <c r="F44" s="1" t="s">
-        <v>3392</v>
+        <v>3396</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>3393</v>
+        <v>3397</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>3394</v>
+        <v>3398</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>3395</v>
+        <v>3399</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>3396</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1"/>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>3397</v>
+        <v>3401</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>3399</v>
+        <v>3403</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>3400</v>
+        <v>3404</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>3401</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1"/>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>3404</v>
+        <v>3408</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>3406</v>
+        <v>3410</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>3407</v>
+        <v>3411</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>3408</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>3409</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>3403</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>3404</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>3405</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>3406</v>
+        <v>3410</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>3407</v>
+        <v>3411</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>3408</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>3410</v>
+        <v>3414</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3411</v>
+        <v>3415</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>3412</v>
+        <v>3416</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>3413</v>
+        <v>3417</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>3414</v>
+        <v>3418</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>3415</v>
+        <v>3419</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>3416</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>3417</v>
+        <v>3421</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3418</v>
+        <v>3422</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>3419</v>
+        <v>3423</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>3420</v>
+        <v>3424</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>3421</v>
+        <v>3425</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>3422</v>
+        <v>3426</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>3424</v>
+        <v>3428</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3425</v>
+        <v>3429</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>3427</v>
+        <v>3431</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>3430</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3432</v>
+        <v>3436</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>3433</v>
+        <v>3437</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>3435</v>
+        <v>3439</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>3436</v>
+        <v>3440</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>3437</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>3440</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>3441</v>
+        <v>3445</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>3440</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>3442</v>
+        <v>3446</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>3444</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1"/>
     <row r="60" ht="13.5" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>3445</v>
+        <v>3449</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>3446</v>
+        <v>3450</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>3451</v>
+        <v>3455</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>3453</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1"/>
@@ -26537,12 +26557,12 @@
     </row>
     <row r="67" hidden="1">
       <c r="A67" s="4" t="s">
-        <v>3454</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="68" ht="13.5" hidden="1" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="69" ht="13.5" hidden="1" customHeight="1">
@@ -26552,80 +26572,80 @@
     </row>
     <row r="70" ht="13.5" hidden="1" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="71" ht="13.5" hidden="1" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="72" ht="13.5" hidden="1" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="73" ht="13.5" hidden="1" customHeight="1">
@@ -26633,115 +26653,115 @@
     </row>
     <row r="74" ht="13.5" hidden="1" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>3461</v>
+        <v>3465</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>3462</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="75" ht="13.5" hidden="1" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
       <c r="G75" s="39" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="76" ht="13.5" hidden="1" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3465</v>
+        <v>3469</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3466</v>
+        <v>3470</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>3467</v>
+        <v>3471</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>3468</v>
+        <v>3472</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>3469</v>
+        <v>3473</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>3470</v>
+        <v>3474</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>3471</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="77" ht="13.5" hidden="1" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>3472</v>
+        <v>3476</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3473</v>
+        <v>3477</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>3474</v>
+        <v>3478</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>3475</v>
+        <v>3479</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>3476</v>
+        <v>3480</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>3477</v>
+        <v>3481</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>3478</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="78" ht="13.5" hidden="1" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>3479</v>
+        <v>3483</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>3485</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="79" hidden="1"/>
     <row r="80" hidden="1"/>
     <row r="81" ht="13.5" hidden="1" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>3486</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="82" ht="13.5" hidden="1" customHeight="1">
@@ -26751,80 +26771,80 @@
     </row>
     <row r="83" ht="13.5" hidden="1" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="84" ht="13.5" hidden="1" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="85" ht="13.5" hidden="1" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="86" ht="13.5" hidden="1" customHeight="1">
@@ -26832,137 +26852,137 @@
     </row>
     <row r="87" ht="13.5" hidden="1" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>3490</v>
+        <v>3494</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>3491</v>
+        <v>3495</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>3492</v>
+        <v>3496</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>3493</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="88" ht="13.5" hidden="1" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="G88" s="39" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="89" ht="13.5" hidden="1" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J89" s="1" t="s">
         <v>3286</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="90" ht="13.5" hidden="1" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>3291</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>3286</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>3282</v>
       </c>
     </row>
     <row r="91" ht="65.25" hidden="1" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="92" ht="13.5" hidden="1" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>3495</v>
+        <v>3499</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>3496</v>
+        <v>3500</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>3497</v>
+        <v>3501</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="93" hidden="1"/>
@@ -26970,7 +26990,7 @@
     <row r="95" hidden="1"/>
     <row r="96" ht="13.5" hidden="1" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="97" ht="13.5" hidden="1" customHeight="1">
@@ -26980,36 +27000,36 @@
     </row>
     <row r="98" ht="13.5" hidden="1" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>3503</v>
+        <v>3507</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>3504</v>
+        <v>3508</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>3505</v>
+        <v>3509</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>3507</v>
+        <v>3511</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="99" ht="13.5" hidden="1" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="B99" s="39" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
       <c r="G99" s="39" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
       <c r="J99" s="4" t="s">
         <v>439</v>
@@ -27017,57 +27037,57 @@
     </row>
     <row r="100" ht="13.5" hidden="1" customHeight="1">
       <c r="A100" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>3510</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>3503</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>3504</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>3505</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>3506</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="101" ht="13.5" hidden="1" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>3479</v>
+        <v>3483</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>3515</v>
+        <v>3519</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>3516</v>
+        <v>3520</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>3517</v>
+        <v>3521</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>3518</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="102" ht="13.5" hidden="1" customHeight="1"/>
     <row r="103" ht="13.5" hidden="1" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>3472</v>
+        <v>3476</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>3519</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="104" ht="13.5" hidden="1" customHeight="1">
@@ -27118,34 +27138,34 @@
     </row>
     <row r="108" ht="13.5" hidden="1" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="109" ht="13.5" hidden="1" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="110" ht="13.5" hidden="1" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="111" ht="13.5" hidden="1" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="J111" s="4" t="s">
         <v>439</v>
@@ -27153,134 +27173,134 @@
     </row>
     <row r="112" ht="13.5" hidden="1" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>3529</v>
+        <v>3533</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>3530</v>
+        <v>3534</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>3531</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="113" ht="13.5" hidden="1" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>3532</v>
+        <v>3536</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>3536</v>
+        <v>3540</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>3538</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="114" ht="13.5" hidden="1" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>3539</v>
+        <v>3543</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>3541</v>
+        <v>3545</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>3543</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="115" ht="13.5" hidden="1" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>3544</v>
+        <v>3548</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="116" ht="13.5" hidden="1" customHeight="1"/>
     <row r="117" ht="13.5" hidden="1" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>3546</v>
+        <v>3550</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>3547</v>
+        <v>3551</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>3548</v>
+        <v>3552</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>3549</v>
+        <v>3553</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="118" ht="13.5" hidden="1" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>3551</v>
+        <v>3555</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>3552</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="119" ht="13.5" hidden="1" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>3544</v>
+        <v>3548</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="120" ht="13.5" customHeight="1"/>

--- a/Resources.xlsx
+++ b/Resources.xlsx
@@ -6155,7 +6155,7 @@
     <t>Ajustar los puntos del sendero no requeridos como pausas</t>
   </si>
   <si>
-    <t>Imposta i punti di Trails non richiesti come pause</t>
+    <t>Imposta i punti del percorso non richiesti come pause</t>
   </si>
   <si>
     <t>Hantera inte obligatoriska trail punkter som pauser</t>
